--- a/document/月报数据表.xlsx
+++ b/document/月报数据表.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="百分比统计" sheetId="2" r:id="rId2"/>
+    <sheet name="本月游戏数据" sheetId="3" r:id="rId3"/>
+    <sheet name="上月游戏数据" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="95">
   <si>
     <t>日期</t>
   </si>
@@ -193,6 +195,390 @@
   </si>
   <si>
     <t>增减幅度</t>
+  </si>
+  <si>
+    <t>游戏名称</t>
+  </si>
+  <si>
+    <t>笔数</t>
+  </si>
+  <si>
+    <t>总投注额</t>
+  </si>
+  <si>
+    <t>取消投注额</t>
+  </si>
+  <si>
+    <t>派彩金额</t>
+  </si>
+  <si>
+    <t>盈利</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MC百家乐03</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MC龙虎斗</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MC斗牛</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MC百家乐06</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MC百家乐05</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MC百家乐07</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MC百家乐04</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MC真人百家乐</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MC百家乐02</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MC百家乐09</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MC百家乐01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MC百家乐08</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MC秒速赛车</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>澳洲幸运5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加拿大PC28</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>幸运赛车</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>澳洲幸运10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>极速时时彩</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>台湾大乐透</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>幸运飞艇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>澳门六合彩</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MC十分快三</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MC十分六合彩</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MC秒速时时彩</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>极速赛车</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>香港六合彩</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MC三分六合彩</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MC五分快三</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>台湾六合彩</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MC一分快三</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MC五分六合彩</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>极速飞艇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>体育</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -206,13 +592,26 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ ;[Red]\-0\ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF606266"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -272,13 +671,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -448,12 +840,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F7FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -654,12 +1058,23 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFEBEEF5"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFEBEEF5"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -862,16 +1277,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -880,58 +1292,55 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -940,10 +1349,10 @@
     <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -952,10 +1361,10 @@
     <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -964,10 +1373,10 @@
     <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -976,10 +1385,10 @@
     <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -988,57 +1397,70 @@
     <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -1047,46 +1469,46 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1629,3508 +2051,3508 @@
   <sheetPr/>
   <dimension ref="A1:Y73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A13" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="V42" sqref="V42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.3833333333333" style="6" customWidth="1"/>
-    <col min="2" max="5" width="9" style="6"/>
-    <col min="6" max="6" width="9.38333333333333" style="6"/>
-    <col min="7" max="7" width="9" style="6"/>
-    <col min="8" max="8" width="11.8916666666667" style="6"/>
-    <col min="9" max="10" width="9" style="6"/>
-    <col min="11" max="11" width="10.5583333333333" style="6" customWidth="1"/>
-    <col min="12" max="12" width="10.775" style="6"/>
-    <col min="13" max="13" width="12.3833333333333" style="6" customWidth="1"/>
-    <col min="14" max="14" width="11.775" style="6" customWidth="1"/>
-    <col min="15" max="15" width="10.775" style="6"/>
-    <col min="16" max="16" width="9.44166666666667" style="6"/>
-    <col min="17" max="17" width="9.66666666666667" style="6"/>
-    <col min="18" max="18" width="11.775" style="6" customWidth="1"/>
-    <col min="19" max="19" width="16.25" style="6" customWidth="1"/>
-    <col min="20" max="20" width="10.775" style="6"/>
-    <col min="21" max="21" width="11.3333333333333" style="6"/>
-    <col min="22" max="22" width="9" style="6"/>
-    <col min="23" max="23" width="12.8916666666667" style="6"/>
+    <col min="1" max="1" width="10.3833333333333" style="9" customWidth="1"/>
+    <col min="2" max="5" width="9" style="9"/>
+    <col min="6" max="6" width="9.38333333333333" style="9"/>
+    <col min="7" max="7" width="9" style="9"/>
+    <col min="8" max="8" width="11.8916666666667" style="9"/>
+    <col min="9" max="10" width="9" style="9"/>
+    <col min="11" max="11" width="10.5583333333333" style="9" customWidth="1"/>
+    <col min="12" max="12" width="10.775" style="9"/>
+    <col min="13" max="13" width="12.3833333333333" style="9" customWidth="1"/>
+    <col min="14" max="14" width="11.775" style="9" customWidth="1"/>
+    <col min="15" max="15" width="10.775" style="9"/>
+    <col min="16" max="16" width="9.44166666666667" style="9"/>
+    <col min="17" max="17" width="9.66666666666667" style="9"/>
+    <col min="18" max="18" width="11.775" style="9" customWidth="1"/>
+    <col min="19" max="19" width="16.25" style="9" customWidth="1"/>
+    <col min="20" max="20" width="10.775" style="9"/>
+    <col min="21" max="21" width="11.3333333333333" style="9"/>
+    <col min="22" max="22" width="9" style="9"/>
+    <col min="23" max="23" width="12.8916666666667" style="9"/>
     <col min="24" max="25" width="12.775" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="6"/>
+    <col min="26" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1"/>
     <row r="2" ht="18" customHeight="1" spans="1:25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="26" t="s">
+      <c r="X2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="26" t="s">
+      <c r="Y2" s="29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+    <row r="3" ht="14.25" spans="1:25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="13">
-        <f t="shared" ref="C4:W4" si="0">C8+C12+C16</f>
+      <c r="C4" s="16">
+        <f t="shared" ref="C4:Y4" si="0">C8+C12+C16</f>
         <v>42</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="16">
         <f t="shared" si="0"/>
         <v>5619</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="16">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="16">
         <f t="shared" si="0"/>
         <v>8860</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="16">
         <f t="shared" si="0"/>
         <v>3981</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="16">
         <f t="shared" si="0"/>
         <v>3097</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="16">
         <f t="shared" si="0"/>
         <v>35889</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="16">
         <f t="shared" si="0"/>
         <v>32938807</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="16">
         <f t="shared" si="0"/>
         <v>1886</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="16">
         <f t="shared" si="0"/>
         <v>11733</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="16">
         <f t="shared" si="0"/>
         <v>29263091</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="16">
         <f t="shared" si="0"/>
         <v>1106</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="16">
         <f t="shared" si="0"/>
         <v>6618033</v>
       </c>
-      <c r="R4" s="13">
+      <c r="R4" s="16">
         <f t="shared" si="0"/>
         <v>181452349</v>
       </c>
-      <c r="S4" s="13">
+      <c r="S4" s="16">
         <f t="shared" si="0"/>
         <v>3633783</v>
       </c>
-      <c r="T4" s="13">
+      <c r="T4" s="16">
         <f t="shared" si="0"/>
         <v>2089995</v>
       </c>
-      <c r="U4" s="13">
+      <c r="U4" s="16">
         <f t="shared" si="0"/>
         <v>896244</v>
       </c>
-      <c r="V4" s="13">
+      <c r="V4" s="16">
         <f t="shared" si="0"/>
         <v>8948</v>
       </c>
-      <c r="W4" s="13">
+      <c r="W4" s="16">
         <f t="shared" si="0"/>
         <v>647544</v>
       </c>
-      <c r="X4" s="13">
-        <f>X8+X12+X16</f>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="13">
-        <f>Y8+Y12+Y16</f>
+      <c r="X4" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="13">
-        <f t="shared" ref="C5:W5" si="1">C9+C13+C17</f>
+      <c r="C5" s="16">
+        <f t="shared" ref="C5:Y5" si="1">C9+C13+C17</f>
         <v>39</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="16">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="16">
         <f t="shared" si="1"/>
         <v>3048</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="16">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="16">
         <f t="shared" si="1"/>
         <v>6218</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="16">
         <f t="shared" si="1"/>
         <v>2603</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="16">
         <f t="shared" si="1"/>
         <v>2042</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="16">
         <f t="shared" si="1"/>
         <v>32389</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="16">
         <f t="shared" si="1"/>
         <v>26211076.65</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="16">
         <f t="shared" si="1"/>
         <v>1426</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="16">
         <f t="shared" si="1"/>
         <v>10850</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="16">
         <f t="shared" si="1"/>
         <v>27447540</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="16">
         <f t="shared" si="1"/>
         <v>742</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="16">
         <f t="shared" si="1"/>
         <v>4833100</v>
       </c>
-      <c r="R5" s="13">
+      <c r="R5" s="16">
         <f t="shared" si="1"/>
         <v>214362136</v>
       </c>
-      <c r="S5" s="13">
+      <c r="S5" s="16">
         <f t="shared" si="1"/>
         <v>-14399105</v>
       </c>
-      <c r="T5" s="13">
+      <c r="T5" s="16">
         <f t="shared" si="1"/>
         <v>2865026.47</v>
       </c>
-      <c r="U5" s="13">
+      <c r="U5" s="16">
         <f t="shared" si="1"/>
         <v>836657</v>
       </c>
-      <c r="V5" s="13">
+      <c r="V5" s="16">
         <f t="shared" si="1"/>
         <v>13342.197</v>
       </c>
-      <c r="W5" s="13">
+      <c r="W5" s="16">
         <f t="shared" si="1"/>
         <v>-18114130.667</v>
       </c>
-      <c r="X5" s="13">
-        <f>X9+X13+X17</f>
+      <c r="X5" s="16">
+        <f t="shared" si="1"/>
         <v>1218</v>
       </c>
-      <c r="Y5" s="13">
-        <f>Y9+Y13+Y17</f>
+      <c r="Y5" s="16">
+        <f t="shared" si="1"/>
         <v>650</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13" t="s">
+    <row r="6" ht="14.25" spans="1:25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="16">
         <f>C10+C14+C18</f>
         <v>38</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="16">
         <f>D10+D14+D18</f>
         <v>5</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="16">
         <f>E10+E14+E18</f>
         <v>13</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="16">
         <f>F10+F14+F18</f>
         <v>2562</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="16">
         <f t="shared" ref="G6:Y6" si="2">G10+G14+G18</f>
         <v>27</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="16">
         <f t="shared" si="2"/>
         <v>5539</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="16">
         <f t="shared" si="2"/>
         <v>2453</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="16">
         <f t="shared" si="2"/>
         <v>1904</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="16">
         <f t="shared" si="2"/>
         <v>27617</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="16">
         <f t="shared" si="2"/>
         <v>23614000.18</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="16">
         <f t="shared" si="2"/>
         <v>1259</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="16">
         <f t="shared" si="2"/>
         <v>8936</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="16">
         <f t="shared" si="2"/>
         <v>23024861</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="16">
         <f t="shared" si="2"/>
         <v>648</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="16">
         <f t="shared" si="2"/>
         <v>4623067</v>
       </c>
-      <c r="R6" s="13">
+      <c r="R6" s="16">
         <f t="shared" si="2"/>
         <v>239642389</v>
       </c>
-      <c r="S6" s="13">
+      <c r="S6" s="16">
         <f t="shared" si="2"/>
         <v>4935371.92</v>
       </c>
-      <c r="T6" s="13">
+      <c r="T6" s="16">
         <f t="shared" si="2"/>
         <v>1513921.85</v>
       </c>
-      <c r="U6" s="13">
+      <c r="U6" s="16">
         <f t="shared" si="2"/>
         <v>585987.8639</v>
       </c>
-      <c r="V6" s="13">
+      <c r="V6" s="16">
         <f t="shared" si="2"/>
         <v>29155.0284</v>
       </c>
-      <c r="W6" s="13">
+      <c r="W6" s="16">
         <f t="shared" si="2"/>
         <v>2806307.1777</v>
       </c>
-      <c r="X6" s="13">
+      <c r="X6" s="16">
         <f t="shared" si="2"/>
         <v>1112</v>
       </c>
-      <c r="Y6" s="13">
+      <c r="Y6" s="16">
         <f t="shared" si="2"/>
         <v>585</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:23">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="15"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="18"/>
     </row>
     <row r="8" ht="14.25" spans="1:25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="16">
         <v>5</v>
       </c>
-      <c r="D8" s="13">
-        <v>0</v>
-      </c>
-      <c r="E8" s="13">
+      <c r="D8" s="16">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16">
         <v>1</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="16">
         <v>2077</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="16">
         <v>6</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="16">
         <v>2702</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="16">
         <v>852</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="16">
         <v>727</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="16">
         <v>6281</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="16">
         <v>6337033</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="16">
         <v>398</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="16">
         <v>2306</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="16">
         <v>6317141</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="16">
         <v>453</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="16">
         <v>2475641</v>
       </c>
-      <c r="R8" s="13">
+      <c r="R8" s="16">
         <v>51480339</v>
       </c>
-      <c r="S8" s="13">
+      <c r="S8" s="16">
         <v>154061</v>
       </c>
-      <c r="T8" s="13">
+      <c r="T8" s="16">
         <v>59894</v>
       </c>
-      <c r="U8" s="13">
+      <c r="U8" s="16">
         <v>116893</v>
       </c>
-      <c r="V8" s="13">
-        <v>0</v>
-      </c>
-      <c r="W8" s="28">
+      <c r="V8" s="16">
+        <v>0</v>
+      </c>
+      <c r="W8" s="31">
         <v>-22726</v>
       </c>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
     </row>
     <row r="9" ht="14.25" spans="1:25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="16">
         <v>6</v>
       </c>
-      <c r="D9" s="13">
-        <v>0</v>
-      </c>
-      <c r="E9" s="13">
+      <c r="D9" s="16">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
         <v>1</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="16">
         <v>1374</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="16">
         <v>6</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="16">
         <v>2113</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="16">
         <v>686</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="16">
         <v>657</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="16">
         <v>7470</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="16">
         <v>10095659</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="16">
         <v>379</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="16">
         <v>2648</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="16">
         <v>8653396</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="16">
         <v>379</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="16">
         <v>933472</v>
       </c>
-      <c r="R9" s="13">
+      <c r="R9" s="16">
         <v>80495793</v>
       </c>
-      <c r="S9" s="13">
+      <c r="S9" s="16">
         <v>1723254</v>
       </c>
-      <c r="T9" s="13">
+      <c r="T9" s="16">
         <v>2216887.48</v>
       </c>
-      <c r="U9" s="13">
+      <c r="U9" s="16">
         <v>212991</v>
       </c>
-      <c r="V9" s="13">
-        <v>0</v>
-      </c>
-      <c r="W9" s="13">
+      <c r="V9" s="16">
+        <v>0</v>
+      </c>
+      <c r="W9" s="16">
         <f t="shared" ref="W9:W14" si="3">S9-T9-U9-V9</f>
         <v>-706624.48</v>
       </c>
-      <c r="X9" s="29">
+      <c r="X9" s="32">
         <v>293</v>
       </c>
-      <c r="Y9" s="29">
+      <c r="Y9" s="32">
         <v>135</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="16">
         <v>7</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="16">
         <v>1</v>
       </c>
-      <c r="E10" s="13">
-        <v>0</v>
-      </c>
-      <c r="F10" s="13">
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16">
         <v>820</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="16">
         <v>6</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="16">
         <v>1600</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="16">
         <v>578</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="16">
         <v>537</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="16">
         <v>6337</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="16">
         <v>6825324</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="16">
         <v>303</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="16">
         <v>2002</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="16">
         <v>10721638</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="16">
         <v>236</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="16">
         <v>783264</v>
       </c>
-      <c r="R10" s="13">
+      <c r="R10" s="16">
         <v>59796539</v>
       </c>
-      <c r="S10" s="13">
+      <c r="S10" s="16">
         <v>715727.92</v>
       </c>
-      <c r="T10" s="13">
+      <c r="T10" s="16">
         <v>1054615.07</v>
       </c>
-      <c r="U10" s="13">
+      <c r="U10" s="16">
         <v>138971.948</v>
       </c>
-      <c r="V10" s="13">
-        <v>0</v>
-      </c>
-      <c r="W10" s="13">
+      <c r="V10" s="16">
+        <v>0</v>
+      </c>
+      <c r="W10" s="16">
         <f t="shared" si="3"/>
         <v>-477859.098</v>
       </c>
-      <c r="X10" s="29">
+      <c r="X10" s="32">
         <v>260</v>
       </c>
-      <c r="Y10" s="29">
+      <c r="Y10" s="32">
         <v>122</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:23">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="15"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="18"/>
     </row>
     <row r="12" ht="14.25" spans="1:25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="16">
         <v>23</v>
       </c>
-      <c r="D12" s="13">
-        <v>0</v>
-      </c>
-      <c r="E12" s="13">
+      <c r="D12" s="16">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16">
         <v>1</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="16">
         <v>1521</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="16">
         <v>13</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="16">
         <v>2951</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="16">
         <v>1332</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="16">
         <v>1216</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="16">
         <v>19356</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="16">
         <v>14384973</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="16">
         <v>791</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="16">
         <v>6524</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="16">
         <v>14072451</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="16">
         <v>455</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="16">
         <v>2402630</v>
       </c>
-      <c r="R12" s="13">
+      <c r="R12" s="16">
         <v>61561791</v>
       </c>
-      <c r="S12" s="13">
+      <c r="S12" s="16">
         <v>1004081</v>
       </c>
-      <c r="T12" s="13">
+      <c r="T12" s="16">
         <v>770222</v>
       </c>
-      <c r="U12" s="13">
+      <c r="U12" s="16">
         <v>114272</v>
       </c>
-      <c r="V12" s="13">
+      <c r="V12" s="16">
         <v>1555</v>
       </c>
-      <c r="W12" s="13">
+      <c r="W12" s="16">
         <v>119587</v>
       </c>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
     </row>
     <row r="13" ht="14.25" spans="1:25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="16">
         <v>23</v>
       </c>
-      <c r="D13" s="13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="13">
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
         <v>982</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="16">
         <v>13</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="16">
         <v>2431</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="16">
         <v>1187</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="16">
         <v>973</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="16">
         <v>17907</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="16">
         <v>8867197.65</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="16">
         <v>737</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="16">
         <v>6291</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="16">
         <v>12987133</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="16">
         <v>285</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="16">
         <v>2235186</v>
       </c>
-      <c r="R13" s="13">
+      <c r="R13" s="16">
         <v>96644238</v>
       </c>
-      <c r="S13" s="13">
+      <c r="S13" s="16">
         <v>-3254716</v>
       </c>
-      <c r="T13" s="13">
+      <c r="T13" s="16">
         <v>517098.25</v>
       </c>
-      <c r="U13" s="13">
+      <c r="U13" s="16">
         <v>103618</v>
       </c>
-      <c r="V13" s="13">
+      <c r="V13" s="16">
         <v>1563.768</v>
       </c>
-      <c r="W13" s="13">
+      <c r="W13" s="16">
         <f t="shared" si="3"/>
         <v>-3876996.018</v>
       </c>
-      <c r="X13" s="29">
+      <c r="X13" s="32">
         <v>634</v>
       </c>
-      <c r="Y13" s="29">
+      <c r="Y13" s="32">
         <v>380</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="16">
         <v>22</v>
       </c>
-      <c r="D14" s="13">
-        <v>0</v>
-      </c>
-      <c r="E14" s="13">
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
         <v>11</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="16">
         <v>1240</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="16">
         <v>12</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="16">
         <v>2662</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="16">
         <v>1269</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="16">
         <v>966</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="16">
         <v>15689</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="16">
         <v>11180649.18</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="16">
         <v>677</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="16">
         <v>5187</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="16">
         <v>8313208</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="16">
         <v>332</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="Q14" s="16">
         <v>2488050</v>
       </c>
-      <c r="R14" s="13">
+      <c r="R14" s="16">
         <v>147462193</v>
       </c>
-      <c r="S14" s="13">
+      <c r="S14" s="16">
         <v>3174363.27</v>
       </c>
-      <c r="T14" s="13">
+      <c r="T14" s="16">
         <v>308057.16</v>
       </c>
-      <c r="U14" s="13">
+      <c r="U14" s="16">
         <v>119443.423</v>
       </c>
-      <c r="V14" s="13">
+      <c r="V14" s="16">
         <v>1862.784</v>
       </c>
-      <c r="W14" s="13">
+      <c r="W14" s="16">
         <f t="shared" si="3"/>
         <v>2744999.903</v>
       </c>
-      <c r="X14" s="29">
+      <c r="X14" s="32">
         <v>597</v>
       </c>
-      <c r="Y14" s="29">
+      <c r="Y14" s="32">
         <v>335</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:23">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="15"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="18"/>
     </row>
     <row r="16" ht="14.25" spans="1:25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="16">
         <v>14</v>
       </c>
-      <c r="D16" s="13">
-        <v>0</v>
-      </c>
-      <c r="E16" s="13">
+      <c r="D16" s="16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16">
         <v>2</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="16">
         <v>2021</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="16">
         <v>14</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="16">
         <v>3207</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="16">
         <v>1797</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="16">
         <v>1154</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="16">
         <v>10252</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="16">
         <v>12216801</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="16">
         <v>697</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="16">
         <v>2903</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="16">
         <v>8873499</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="16">
         <v>198</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="Q16" s="16">
         <v>1739762</v>
       </c>
-      <c r="R16" s="13">
+      <c r="R16" s="16">
         <v>68410219</v>
       </c>
-      <c r="S16" s="13">
+      <c r="S16" s="16">
         <v>2475641</v>
       </c>
-      <c r="T16" s="13">
+      <c r="T16" s="16">
         <v>1259879</v>
       </c>
-      <c r="U16" s="13">
+      <c r="U16" s="16">
         <v>665079</v>
       </c>
-      <c r="V16" s="13">
+      <c r="V16" s="16">
         <v>7393</v>
       </c>
-      <c r="W16" s="13">
+      <c r="W16" s="16">
         <v>550683</v>
       </c>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
     </row>
     <row r="17" ht="14.25" spans="1:25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="16">
         <v>10</v>
       </c>
-      <c r="D17" s="13">
-        <v>0</v>
-      </c>
-      <c r="E17" s="13">
+      <c r="D17" s="16">
+        <v>0</v>
+      </c>
+      <c r="E17" s="16">
         <v>3</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="16">
         <v>692</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="16">
         <v>12</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="16">
         <v>1674</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="16">
         <v>730</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="16">
         <v>412</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="16">
         <v>7012</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="16">
         <v>7248220</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="16">
         <v>310</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="16">
         <v>1911</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="16">
         <v>5807011</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="16">
         <v>78</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="Q17" s="16">
         <v>1664442</v>
       </c>
-      <c r="R17" s="13">
+      <c r="R17" s="16">
         <v>37222105</v>
       </c>
-      <c r="S17" s="13">
+      <c r="S17" s="16">
         <v>-12867643</v>
       </c>
-      <c r="T17" s="13">
+      <c r="T17" s="16">
         <v>131040.74</v>
       </c>
-      <c r="U17" s="13">
+      <c r="U17" s="16">
         <v>520048</v>
       </c>
-      <c r="V17" s="13">
+      <c r="V17" s="16">
         <v>11778.429</v>
       </c>
-      <c r="W17" s="13">
+      <c r="W17" s="16">
         <f>S17-T17-U17-V17</f>
         <v>-13530510.169</v>
       </c>
-      <c r="X17" s="29">
+      <c r="X17" s="32">
         <v>291</v>
       </c>
-      <c r="Y17" s="29">
+      <c r="Y17" s="32">
         <v>135</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="16">
         <v>9</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="16">
         <v>4</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="16">
         <v>2</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="16">
         <v>502</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="16">
         <v>9</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="16">
         <v>1277</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="16">
         <v>606</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="16">
         <v>401</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="16">
         <v>5591</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="16">
         <v>5608027</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="16">
         <v>279</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="16">
         <v>1747</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="16">
         <v>3990015</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="16">
         <v>80</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="Q18" s="16">
         <v>1351753</v>
       </c>
-      <c r="R18" s="13">
+      <c r="R18" s="16">
         <v>32383657</v>
       </c>
-      <c r="S18" s="13">
+      <c r="S18" s="16">
         <v>1045280.73</v>
       </c>
-      <c r="T18" s="13">
+      <c r="T18" s="16">
         <v>151249.62</v>
       </c>
-      <c r="U18" s="13">
+      <c r="U18" s="16">
         <v>327572.4929</v>
       </c>
-      <c r="V18" s="13">
+      <c r="V18" s="16">
         <v>27292.2444</v>
       </c>
-      <c r="W18" s="13">
+      <c r="W18" s="16">
         <f>S18-T18-U18-V18</f>
         <v>539166.3727</v>
       </c>
-      <c r="X18" s="29">
+      <c r="X18" s="32">
         <v>255</v>
       </c>
-      <c r="Y18" s="29">
+      <c r="Y18" s="32">
         <v>128</v>
       </c>
     </row>
     <row r="19" spans="2:23">
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
     </row>
     <row r="23" ht="14.25"/>
     <row r="24" ht="15.75" spans="1:18">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="18" t="s">
+      <c r="B24" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="H24" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I24" s="18" t="s">
+      <c r="I24" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="J24" s="18" t="s">
+      <c r="J24" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="K24" s="18" t="s">
+      <c r="K24" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="L24" s="18" t="s">
+      <c r="L24" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="M24" s="23" t="s">
+      <c r="M24" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="N24" s="18" t="s">
+      <c r="N24" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="O24" s="18" t="s">
+      <c r="O24" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="P24" s="18" t="s">
+      <c r="P24" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="Q24" s="18" t="s">
+      <c r="Q24" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="R24" s="18" t="s">
+      <c r="R24" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" ht="15.75" spans="1:18">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="24" t="s">
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
     </row>
     <row r="26" ht="15.75" spans="1:19">
-      <c r="A26" s="17"/>
-      <c r="B26" s="19" t="s">
+      <c r="A26" s="20"/>
+      <c r="B26" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="23">
         <v>465</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="23">
         <v>688</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="23">
         <v>189</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="23">
         <v>181</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="23">
         <v>1597</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="23">
         <v>1801596</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26" s="23">
         <v>111</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J26" s="23">
         <v>664</v>
       </c>
-      <c r="K26" s="20">
+      <c r="K26" s="23">
         <v>2301152</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L26" s="23">
         <v>114</v>
       </c>
-      <c r="M26" s="20">
+      <c r="M26" s="23">
         <v>11568035</v>
       </c>
-      <c r="N26" s="25">
+      <c r="N26" s="28">
         <v>-485042</v>
       </c>
-      <c r="O26" s="20">
+      <c r="O26" s="23">
         <v>26742</v>
       </c>
-      <c r="P26" s="20">
+      <c r="P26" s="23">
         <v>36064</v>
       </c>
-      <c r="Q26" s="20">
-        <v>0</v>
-      </c>
-      <c r="R26" s="25">
+      <c r="Q26" s="23">
+        <v>0</v>
+      </c>
+      <c r="R26" s="28">
         <v>-547848</v>
       </c>
-      <c r="S26" s="6">
+      <c r="S26" s="9">
         <f>N26-O26-P26-Q26</f>
         <v>-547848</v>
       </c>
     </row>
     <row r="27" ht="15.75" spans="1:19">
-      <c r="A27" s="17"/>
-      <c r="B27" s="19" t="s">
+      <c r="A27" s="20"/>
+      <c r="B27" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="23">
         <v>407</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="23">
         <v>620</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="23">
         <v>141</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="23">
         <v>136</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G27" s="23">
         <v>1646</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="23">
         <v>4970356</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I27" s="23">
         <v>86</v>
       </c>
-      <c r="J27" s="20">
+      <c r="J27" s="23">
         <v>670</v>
       </c>
-      <c r="K27" s="20">
+      <c r="K27" s="23">
         <v>3970629</v>
       </c>
-      <c r="L27" s="20">
+      <c r="L27" s="23">
         <v>72</v>
       </c>
-      <c r="M27" s="20">
+      <c r="M27" s="23">
         <v>40339441</v>
       </c>
-      <c r="N27" s="20">
+      <c r="N27" s="23">
         <v>1102901.24</v>
       </c>
-      <c r="O27" s="20">
+      <c r="O27" s="23">
         <v>14306</v>
       </c>
-      <c r="P27" s="20">
+      <c r="P27" s="23">
         <v>141461.864</v>
       </c>
-      <c r="Q27" s="20">
-        <v>0</v>
-      </c>
-      <c r="R27" s="20">
+      <c r="Q27" s="23">
+        <v>0</v>
+      </c>
+      <c r="R27" s="23">
         <f t="shared" ref="R27:R32" si="4">N27-O27-P27-Q27</f>
         <v>947133.376</v>
       </c>
-      <c r="S27" s="6">
+      <c r="S27" s="9">
         <f>N27-O27-P27-Q27</f>
         <v>947133.376</v>
       </c>
     </row>
     <row r="28" ht="15.75" spans="1:19">
-      <c r="A28" s="17"/>
-      <c r="B28" s="19" t="s">
+      <c r="A28" s="20"/>
+      <c r="B28" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="23">
         <v>290</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="23">
         <v>505</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="23">
         <v>133</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="23">
         <v>124</v>
       </c>
-      <c r="G28" s="20">
+      <c r="G28" s="23">
         <v>1104</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="23">
         <v>847167</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="23">
         <v>75</v>
       </c>
-      <c r="J28" s="20">
+      <c r="J28" s="23">
         <v>331</v>
       </c>
-      <c r="K28" s="20">
+      <c r="K28" s="23">
         <v>619318</v>
       </c>
-      <c r="L28" s="20">
+      <c r="L28" s="23">
         <v>67</v>
       </c>
-      <c r="M28" s="20">
+      <c r="M28" s="23">
         <v>9890944</v>
       </c>
-      <c r="N28" s="20">
+      <c r="N28" s="23">
         <v>252143.07</v>
       </c>
-      <c r="O28" s="20">
+      <c r="O28" s="23">
         <v>7263.99</v>
       </c>
-      <c r="P28" s="20">
+      <c r="P28" s="23">
         <v>25239.275</v>
       </c>
-      <c r="Q28" s="20">
-        <v>0</v>
-      </c>
-      <c r="R28" s="20">
+      <c r="Q28" s="23">
+        <v>0</v>
+      </c>
+      <c r="R28" s="23">
         <f t="shared" si="4"/>
         <v>219639.805</v>
       </c>
-      <c r="S28" s="6">
+      <c r="S28" s="9">
         <f>N28-O28-P28-Q28</f>
         <v>219639.805</v>
       </c>
     </row>
     <row r="29" ht="15" spans="2:23">
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="30"/>
-      <c r="W29" s="30"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="33"/>
+      <c r="W29" s="33"/>
     </row>
     <row r="30" ht="15.75" spans="1:19">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="23">
         <v>68</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="23">
         <v>91</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="23">
         <v>19</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="23">
         <v>19</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G30" s="23">
         <v>118</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="23">
         <v>138175</v>
       </c>
-      <c r="I30" s="20">
+      <c r="I30" s="23">
         <v>9</v>
       </c>
-      <c r="J30" s="20">
+      <c r="J30" s="23">
         <v>50</v>
       </c>
-      <c r="K30" s="20">
+      <c r="K30" s="23">
         <v>136404</v>
       </c>
-      <c r="L30" s="20">
+      <c r="L30" s="23">
         <v>10</v>
       </c>
-      <c r="M30" s="20">
+      <c r="M30" s="23">
         <v>2140797</v>
       </c>
-      <c r="N30" s="25">
+      <c r="N30" s="28">
         <v>-6895</v>
       </c>
-      <c r="O30" s="20">
+      <c r="O30" s="23">
         <v>920</v>
       </c>
-      <c r="P30" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="20">
-        <v>0</v>
-      </c>
-      <c r="R30" s="25">
+      <c r="P30" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="23">
+        <v>0</v>
+      </c>
+      <c r="R30" s="28">
         <v>-7815</v>
       </c>
-      <c r="S30" s="6">
+      <c r="S30" s="9">
         <f>N30-O30-P30-Q30</f>
         <v>-7815</v>
       </c>
     </row>
     <row r="31" ht="15.75" spans="1:19">
-      <c r="A31" s="17"/>
-      <c r="B31" s="19" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="23">
         <v>42</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="23">
         <v>96</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="23">
         <v>23</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="23">
         <v>22</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G31" s="23">
         <v>371</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="23">
         <v>571653</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I31" s="23">
         <v>14</v>
       </c>
-      <c r="J31" s="20">
+      <c r="J31" s="23">
         <v>89</v>
       </c>
-      <c r="K31" s="20">
+      <c r="K31" s="23">
         <v>489871</v>
       </c>
-      <c r="L31" s="20">
+      <c r="L31" s="23">
         <v>9</v>
       </c>
-      <c r="M31" s="20">
+      <c r="M31" s="23">
         <v>7542986</v>
       </c>
-      <c r="N31" s="20">
+      <c r="N31" s="23">
         <v>199369.47</v>
       </c>
-      <c r="O31" s="20">
+      <c r="O31" s="23">
         <v>126643.47</v>
       </c>
-      <c r="P31" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="20">
-        <v>0</v>
-      </c>
-      <c r="R31" s="20">
+      <c r="P31" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="23">
+        <v>0</v>
+      </c>
+      <c r="R31" s="23">
         <f t="shared" si="4"/>
         <v>72726</v>
       </c>
-      <c r="S31" s="6">
+      <c r="S31" s="9">
         <f>N31-O31-P31-Q31</f>
         <v>72726</v>
       </c>
     </row>
     <row r="32" ht="15.75" spans="1:19">
-      <c r="A32" s="17"/>
-      <c r="B32" s="19" t="s">
+      <c r="A32" s="20"/>
+      <c r="B32" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="23">
         <v>37</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="23">
         <v>85</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="23">
         <v>28</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="23">
         <v>27</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G32" s="23">
         <v>313</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="23">
         <v>883094</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I32" s="23">
         <v>21</v>
       </c>
-      <c r="J32" s="20">
+      <c r="J32" s="23">
         <v>69</v>
       </c>
-      <c r="K32" s="20">
+      <c r="K32" s="23">
         <v>4206960</v>
       </c>
-      <c r="L32" s="20">
+      <c r="L32" s="23">
         <v>13</v>
       </c>
-      <c r="M32" s="20">
+      <c r="M32" s="23">
         <v>3066219</v>
       </c>
-      <c r="N32" s="20">
+      <c r="N32" s="23">
         <v>-307558.63</v>
       </c>
-      <c r="O32" s="20">
+      <c r="O32" s="23">
         <v>4393.08</v>
       </c>
-      <c r="P32" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="20">
-        <v>0</v>
-      </c>
-      <c r="R32" s="20">
+      <c r="P32" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="23">
+        <v>0</v>
+      </c>
+      <c r="R32" s="23">
         <f t="shared" si="4"/>
         <v>-311951.71</v>
       </c>
-      <c r="S32" s="6">
+      <c r="S32" s="9">
         <f>N32-O32-P32-Q32</f>
         <v>-311951.71</v>
       </c>
     </row>
     <row r="33" ht="15" spans="2:23">
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="30"/>
-      <c r="W33" s="30"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="33"/>
+      <c r="W33" s="33"/>
     </row>
     <row r="34" ht="15.75" spans="1:19">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="23">
         <v>1194</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="23">
         <v>1446</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="23">
         <v>586</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34" s="23">
         <v>471</v>
       </c>
-      <c r="G34" s="20">
+      <c r="G34" s="23">
         <v>4069</v>
       </c>
-      <c r="H34" s="20">
+      <c r="H34" s="23">
         <v>3767206</v>
       </c>
-      <c r="I34" s="20">
+      <c r="I34" s="23">
         <v>251</v>
       </c>
-      <c r="J34" s="20">
+      <c r="J34" s="23">
         <v>1426</v>
       </c>
-      <c r="K34" s="20">
+      <c r="K34" s="23">
         <v>3398992</v>
       </c>
-      <c r="L34" s="20">
+      <c r="L34" s="23">
         <v>307</v>
       </c>
-      <c r="M34" s="20">
+      <c r="M34" s="23">
         <v>31324572</v>
       </c>
-      <c r="N34" s="20">
+      <c r="N34" s="23">
         <v>422783</v>
       </c>
-      <c r="O34" s="20">
+      <c r="O34" s="23">
         <v>30190</v>
       </c>
-      <c r="P34" s="20">
+      <c r="P34" s="23">
         <v>56713</v>
       </c>
-      <c r="Q34" s="20">
-        <v>0</v>
-      </c>
-      <c r="R34" s="20">
+      <c r="Q34" s="23">
+        <v>0</v>
+      </c>
+      <c r="R34" s="23">
         <v>335880</v>
       </c>
-      <c r="S34" s="6">
+      <c r="S34" s="9">
         <f>N34-O34-P34-Q34</f>
         <v>335880</v>
       </c>
     </row>
     <row r="35" ht="15.75" spans="1:19">
-      <c r="A35" s="17"/>
-      <c r="B35" s="19" t="s">
+      <c r="A35" s="20"/>
+      <c r="B35" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="23">
         <v>851</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="23">
         <v>1228</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="23">
         <v>502</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F35" s="23">
         <v>483</v>
       </c>
-      <c r="G35" s="20">
+      <c r="G35" s="23">
         <v>5269</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="23">
         <v>3936922</v>
       </c>
-      <c r="I35" s="20">
+      <c r="I35" s="23">
         <v>270</v>
       </c>
-      <c r="J35" s="20">
+      <c r="J35" s="23">
         <v>1836</v>
       </c>
-      <c r="K35" s="20">
+      <c r="K35" s="23">
         <v>3643957</v>
       </c>
-      <c r="L35" s="20">
+      <c r="L35" s="23">
         <v>294</v>
       </c>
-      <c r="M35" s="20">
+      <c r="M35" s="23">
         <v>25634987</v>
       </c>
-      <c r="N35" s="20">
+      <c r="N35" s="23">
         <v>265394.92</v>
       </c>
-      <c r="O35" s="20">
+      <c r="O35" s="23">
         <v>40832.01</v>
       </c>
-      <c r="P35" s="20">
+      <c r="P35" s="23">
         <v>40946.587</v>
       </c>
-      <c r="Q35" s="20">
-        <v>0</v>
-      </c>
-      <c r="R35" s="20">
+      <c r="Q35" s="23">
+        <v>0</v>
+      </c>
+      <c r="R35" s="23">
         <f t="shared" ref="R35:R40" si="5">N35-O35-P35-Q35</f>
         <v>183616.323</v>
       </c>
-      <c r="S35" s="6">
+      <c r="S35" s="9">
         <f>N35-O35-P35-Q35</f>
         <v>183616.323</v>
       </c>
     </row>
     <row r="36" ht="15.75" spans="1:19">
-      <c r="A36" s="17"/>
-      <c r="B36" s="19" t="s">
+      <c r="A36" s="20"/>
+      <c r="B36" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="23">
         <v>457</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="23">
         <v>903</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="23">
         <v>395</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F36" s="23">
         <v>373</v>
       </c>
-      <c r="G36" s="20">
+      <c r="G36" s="23">
         <v>4890</v>
       </c>
-      <c r="H36" s="20">
+      <c r="H36" s="23">
         <v>4949677</v>
       </c>
-      <c r="I36" s="20">
+      <c r="I36" s="23">
         <v>196</v>
       </c>
-      <c r="J36" s="20">
+      <c r="J36" s="23">
         <v>1587</v>
       </c>
-      <c r="K36" s="20">
+      <c r="K36" s="23">
         <v>4155474</v>
       </c>
-      <c r="L36" s="20">
+      <c r="L36" s="23">
         <v>155</v>
       </c>
-      <c r="M36" s="20">
+      <c r="M36" s="23">
         <v>45422311</v>
       </c>
-      <c r="N36" s="20">
+      <c r="N36" s="23">
         <v>843811.06</v>
       </c>
-      <c r="O36" s="20">
+      <c r="O36" s="23">
         <v>33158</v>
       </c>
-      <c r="P36" s="20">
+      <c r="P36" s="23">
         <v>112693.545</v>
       </c>
-      <c r="Q36" s="20">
-        <v>0</v>
-      </c>
-      <c r="R36" s="20">
+      <c r="Q36" s="23">
+        <v>0</v>
+      </c>
+      <c r="R36" s="23">
         <f t="shared" si="5"/>
         <v>697959.515</v>
       </c>
-      <c r="S36" s="6">
+      <c r="S36" s="9">
         <f>N36-O36-P36-Q36</f>
         <v>697959.515</v>
       </c>
     </row>
     <row r="37" ht="15" spans="2:23">
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="30"/>
-      <c r="W37" s="30"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="33"/>
+      <c r="W37" s="33"/>
     </row>
     <row r="38" ht="15.75" spans="1:19">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="23">
         <v>160</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D38" s="23">
         <v>277</v>
       </c>
-      <c r="E38" s="20">
+      <c r="E38" s="23">
         <v>50</v>
       </c>
-      <c r="F38" s="20">
+      <c r="F38" s="23">
         <v>47</v>
       </c>
-      <c r="G38" s="20">
+      <c r="G38" s="23">
         <v>487</v>
       </c>
-      <c r="H38" s="20">
+      <c r="H38" s="23">
         <v>628056</v>
       </c>
-      <c r="I38" s="20">
+      <c r="I38" s="23">
         <v>25</v>
       </c>
-      <c r="J38" s="20">
+      <c r="J38" s="23">
         <v>164</v>
       </c>
-      <c r="K38" s="20">
+      <c r="K38" s="23">
         <v>480077</v>
       </c>
-      <c r="L38" s="20">
+      <c r="L38" s="23">
         <v>14</v>
       </c>
-      <c r="M38" s="20">
+      <c r="M38" s="23">
         <v>6441980</v>
       </c>
-      <c r="N38" s="20">
+      <c r="N38" s="23">
         <v>221754</v>
       </c>
-      <c r="O38" s="20">
+      <c r="O38" s="23">
         <v>2041</v>
       </c>
-      <c r="P38" s="20">
+      <c r="P38" s="23">
         <v>24104</v>
       </c>
-      <c r="Q38" s="20">
-        <v>0</v>
-      </c>
-      <c r="R38" s="20">
+      <c r="Q38" s="23">
+        <v>0</v>
+      </c>
+      <c r="R38" s="23">
         <v>195609</v>
       </c>
-      <c r="S38" s="6">
+      <c r="S38" s="9">
         <f>N38-O38-P38-Q38</f>
         <v>195609</v>
       </c>
     </row>
     <row r="39" ht="15.75" spans="1:19">
-      <c r="A39" s="17"/>
-      <c r="B39" s="19" t="s">
+      <c r="A39" s="20"/>
+      <c r="B39" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="23">
         <v>31</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="23">
         <v>114</v>
       </c>
-      <c r="E39" s="20">
+      <c r="E39" s="23">
         <v>15</v>
       </c>
-      <c r="F39" s="20">
+      <c r="F39" s="23">
         <v>60</v>
       </c>
-      <c r="G39" s="20">
+      <c r="G39" s="23">
         <v>179</v>
       </c>
-      <c r="H39" s="20">
+      <c r="H39" s="23">
         <v>615528</v>
       </c>
-      <c r="I39" s="20">
+      <c r="I39" s="23">
         <v>27</v>
       </c>
-      <c r="J39" s="20">
+      <c r="J39" s="23">
         <v>51</v>
       </c>
-      <c r="K39" s="20">
+      <c r="K39" s="23">
         <v>546953</v>
       </c>
-      <c r="L39" s="20">
+      <c r="L39" s="23">
         <v>9</v>
       </c>
-      <c r="M39" s="20">
+      <c r="M39" s="23">
         <v>6222204</v>
       </c>
-      <c r="N39" s="20">
+      <c r="N39" s="23">
         <v>107153</v>
       </c>
-      <c r="O39" s="20">
-        <v>0</v>
-      </c>
-      <c r="P39" s="20">
+      <c r="O39" s="23">
+        <v>0</v>
+      </c>
+      <c r="P39" s="23">
         <v>24458</v>
       </c>
-      <c r="Q39" s="20">
-        <v>0</v>
-      </c>
-      <c r="R39" s="20">
+      <c r="Q39" s="23">
+        <v>0</v>
+      </c>
+      <c r="R39" s="23">
         <v>82695</v>
       </c>
-      <c r="S39" s="6">
+      <c r="S39" s="9">
         <f>N39-O39-P39-Q39</f>
         <v>82695</v>
       </c>
     </row>
     <row r="40" ht="15.75" spans="1:19">
-      <c r="A40" s="17"/>
-      <c r="B40" s="19" t="s">
+      <c r="A40" s="20"/>
+      <c r="B40" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="23">
         <v>23</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="23">
         <v>80</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="23">
         <v>13</v>
       </c>
-      <c r="F40" s="20">
+      <c r="F40" s="23">
         <v>8</v>
       </c>
-      <c r="G40" s="20">
+      <c r="G40" s="23">
         <v>19</v>
       </c>
-      <c r="H40" s="20">
+      <c r="H40" s="23">
         <v>11386</v>
       </c>
-      <c r="I40" s="20">
+      <c r="I40" s="23">
         <v>4</v>
       </c>
-      <c r="J40" s="20">
+      <c r="J40" s="23">
         <v>6</v>
       </c>
-      <c r="K40" s="20">
+      <c r="K40" s="23">
         <v>24802</v>
       </c>
-      <c r="L40" s="20">
+      <c r="L40" s="23">
         <v>1</v>
       </c>
-      <c r="M40" s="20">
+      <c r="M40" s="23">
         <v>174487</v>
       </c>
-      <c r="N40" s="20">
+      <c r="N40" s="23">
         <v>-12651.45</v>
       </c>
-      <c r="O40" s="20">
-        <v>0</v>
-      </c>
-      <c r="P40" s="20">
+      <c r="O40" s="23">
+        <v>0</v>
+      </c>
+      <c r="P40" s="23">
         <v>678.228</v>
       </c>
-      <c r="Q40" s="20">
-        <v>0</v>
-      </c>
-      <c r="R40" s="20">
+      <c r="Q40" s="23">
+        <v>0</v>
+      </c>
+      <c r="R40" s="23">
         <f t="shared" si="5"/>
         <v>-13329.678</v>
       </c>
-      <c r="S40" s="6">
+      <c r="S40" s="9">
         <f>N40-O40-P40-Q40</f>
         <v>-13329.678</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="2:18">
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="24"/>
     </row>
     <row r="42" ht="15" spans="2:18">
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="21"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="24"/>
     </row>
     <row r="43" ht="15.75" spans="2:18">
-      <c r="B43" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="18" t="s">
+      <c r="B43" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G43" s="18" t="s">
+      <c r="G43" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H43" s="18" t="s">
+      <c r="H43" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I43" s="18" t="s">
+      <c r="I43" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="J43" s="18" t="s">
+      <c r="J43" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="K43" s="18" t="s">
+      <c r="K43" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="L43" s="18" t="s">
+      <c r="L43" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="M43" s="23" t="s">
+      <c r="M43" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="N43" s="18" t="s">
+      <c r="N43" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="O43" s="18" t="s">
+      <c r="O43" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="P43" s="18" t="s">
+      <c r="P43" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="Q43" s="18" t="s">
+      <c r="Q43" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="R43" s="18" t="s">
+      <c r="R43" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="44" ht="15.75" spans="2:18">
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="24" t="s">
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N44" s="18"/>
-      <c r="O44" s="18"/>
-      <c r="P44" s="18"/>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="18"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
     </row>
     <row r="45" ht="15.75" spans="1:19">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C45" s="22">
         <v>529</v>
       </c>
-      <c r="D45" s="19">
+      <c r="D45" s="22">
         <v>918</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E45" s="22">
         <v>370</v>
       </c>
-      <c r="F45" s="19">
+      <c r="F45" s="22">
         <v>331</v>
       </c>
-      <c r="G45" s="19">
+      <c r="G45" s="22">
         <v>3811</v>
       </c>
-      <c r="H45" s="19">
+      <c r="H45" s="22">
         <v>4670884</v>
       </c>
-      <c r="I45" s="19">
+      <c r="I45" s="22">
         <v>228</v>
       </c>
-      <c r="J45" s="19">
+      <c r="J45" s="22">
         <v>1479</v>
       </c>
-      <c r="K45" s="19">
+      <c r="K45" s="22">
         <v>4523798</v>
       </c>
-      <c r="L45" s="19">
+      <c r="L45" s="22">
         <v>149</v>
       </c>
-      <c r="M45" s="19">
+      <c r="M45" s="22">
         <v>16233893</v>
       </c>
-      <c r="N45" s="19">
+      <c r="N45" s="22">
         <v>200372</v>
       </c>
-      <c r="O45" s="19">
+      <c r="O45" s="22">
         <v>141210</v>
       </c>
-      <c r="P45" s="19">
+      <c r="P45" s="22">
         <v>27833</v>
       </c>
-      <c r="Q45" s="19">
-        <v>0</v>
-      </c>
-      <c r="R45" s="19">
+      <c r="Q45" s="22">
+        <v>0</v>
+      </c>
+      <c r="R45" s="22">
         <v>31329</v>
       </c>
-      <c r="S45" s="6">
+      <c r="S45" s="9">
         <f t="shared" ref="S45:S47" si="6">N45-O45-P45-Q45</f>
         <v>31329</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:19">
-      <c r="A46" s="17"/>
-      <c r="B46" s="19" t="s">
+      <c r="A46" s="20"/>
+      <c r="B46" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C46" s="22">
         <v>339</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D46" s="22">
         <v>713</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E46" s="22">
         <v>270</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F46" s="22">
         <v>222</v>
       </c>
-      <c r="G46" s="19">
+      <c r="G46" s="22">
         <v>2620</v>
       </c>
-      <c r="H46" s="19">
+      <c r="H46" s="22">
         <v>2320295</v>
       </c>
-      <c r="I46" s="19">
+      <c r="I46" s="22">
         <v>163</v>
       </c>
-      <c r="J46" s="19">
+      <c r="J46" s="22">
         <v>939</v>
       </c>
-      <c r="K46" s="19">
+      <c r="K46" s="22">
         <v>6406267</v>
       </c>
-      <c r="L46" s="19">
+      <c r="L46" s="22">
         <v>56</v>
       </c>
-      <c r="M46" s="19">
+      <c r="M46" s="22">
         <v>64094394</v>
       </c>
-      <c r="N46" s="19">
+      <c r="N46" s="22">
         <v>-4010972</v>
       </c>
-      <c r="O46" s="19">
+      <c r="O46" s="22">
         <v>63739</v>
       </c>
-      <c r="P46" s="19">
+      <c r="P46" s="22">
         <v>33135</v>
       </c>
-      <c r="Q46" s="19">
-        <v>0</v>
-      </c>
-      <c r="R46" s="19">
+      <c r="Q46" s="22">
+        <v>0</v>
+      </c>
+      <c r="R46" s="22">
         <v>-4107846</v>
       </c>
-      <c r="S46" s="6">
+      <c r="S46" s="9">
         <f t="shared" si="6"/>
         <v>-4107846</v>
       </c>
     </row>
     <row r="47" ht="15" spans="1:19">
-      <c r="A47" s="17"/>
-      <c r="B47" s="19" t="s">
+      <c r="A47" s="20"/>
+      <c r="B47" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="22">
         <v>445</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D47" s="22">
         <v>835</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E47" s="22">
         <v>359</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F47" s="22">
         <v>218</v>
       </c>
-      <c r="G47" s="19">
+      <c r="G47" s="22">
         <v>3249</v>
       </c>
-      <c r="H47" s="19">
+      <c r="H47" s="22">
         <v>3664627</v>
       </c>
-      <c r="I47" s="19">
+      <c r="I47" s="22">
         <v>153</v>
       </c>
-      <c r="J47" s="19">
+      <c r="J47" s="22">
         <v>1011</v>
       </c>
-      <c r="K47" s="19">
+      <c r="K47" s="22">
         <v>2973932</v>
       </c>
-      <c r="L47" s="19">
+      <c r="L47" s="22">
         <v>80</v>
       </c>
-      <c r="M47" s="19">
+      <c r="M47" s="22">
         <v>23551529</v>
       </c>
-      <c r="N47" s="19">
+      <c r="N47" s="22">
         <v>834689.17</v>
       </c>
-      <c r="O47" s="19">
+      <c r="O47" s="22">
         <v>103018.78</v>
       </c>
-      <c r="P47" s="19">
+      <c r="P47" s="22">
         <v>44142.026</v>
       </c>
-      <c r="Q47" s="19">
-        <v>0</v>
-      </c>
-      <c r="R47" s="19">
+      <c r="Q47" s="22">
+        <v>0</v>
+      </c>
+      <c r="R47" s="22">
         <f>N47-O47-P47-Q47</f>
         <v>687528.364</v>
       </c>
-      <c r="S47" s="6">
+      <c r="S47" s="9">
         <f t="shared" si="6"/>
         <v>687528.364</v>
       </c>
     </row>
     <row r="48" ht="15" spans="2:18">
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="21"/>
-      <c r="R48" s="21"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="24"/>
     </row>
     <row r="49" ht="15" spans="1:19">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="22">
         <v>106</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D49" s="22">
         <v>551</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E49" s="22">
         <v>355</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F49" s="22">
         <v>325</v>
       </c>
-      <c r="G49" s="19">
+      <c r="G49" s="22">
         <v>9636</v>
       </c>
-      <c r="H49" s="19">
+      <c r="H49" s="22">
         <v>7191082</v>
       </c>
-      <c r="I49" s="19">
+      <c r="I49" s="22">
         <v>270</v>
       </c>
-      <c r="J49" s="19">
+      <c r="J49" s="22">
         <v>3149</v>
       </c>
-      <c r="K49" s="19">
+      <c r="K49" s="22">
         <v>7075639</v>
       </c>
-      <c r="L49" s="19">
+      <c r="L49" s="22">
         <v>54</v>
       </c>
-      <c r="M49" s="19">
+      <c r="M49" s="22">
         <v>23700932</v>
       </c>
-      <c r="N49" s="19">
+      <c r="N49" s="22">
         <v>563753</v>
       </c>
-      <c r="O49" s="19">
+      <c r="O49" s="22">
         <v>441121</v>
       </c>
-      <c r="P49" s="19">
+      <c r="P49" s="22">
         <v>36278</v>
       </c>
-      <c r="Q49" s="19">
+      <c r="Q49" s="22">
         <v>814</v>
       </c>
-      <c r="R49" s="19">
+      <c r="R49" s="22">
         <v>86354</v>
       </c>
-      <c r="S49" s="6">
+      <c r="S49" s="9">
         <f t="shared" ref="S49:S51" si="7">N49-O49-P49-Q49</f>
         <v>85540</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:19">
-      <c r="A50" s="17"/>
-      <c r="B50" s="19" t="s">
+      <c r="A50" s="20"/>
+      <c r="B50" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="22">
         <v>123</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="22">
         <v>527</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E50" s="22">
         <v>367</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F50" s="22">
         <v>343</v>
       </c>
-      <c r="G50" s="19">
+      <c r="G50" s="22">
         <v>9642</v>
       </c>
-      <c r="H50" s="19">
+      <c r="H50" s="22">
         <v>3732098</v>
       </c>
-      <c r="I50" s="19">
+      <c r="I50" s="22">
         <v>304</v>
       </c>
-      <c r="J50" s="19">
+      <c r="J50" s="22">
         <v>3562</v>
       </c>
-      <c r="K50" s="19">
+      <c r="K50" s="22">
         <v>3816278</v>
       </c>
-      <c r="L50" s="19">
+      <c r="L50" s="22">
         <v>77</v>
       </c>
-      <c r="M50" s="19">
+      <c r="M50" s="22">
         <v>12628911</v>
       </c>
-      <c r="N50" s="19">
+      <c r="N50" s="22">
         <v>270114</v>
       </c>
-      <c r="O50" s="19">
+      <c r="O50" s="22">
         <v>381741</v>
       </c>
-      <c r="P50" s="19">
+      <c r="P50" s="22">
         <v>15822</v>
       </c>
-      <c r="Q50" s="19">
+      <c r="Q50" s="22">
         <v>993</v>
       </c>
-      <c r="R50" s="19">
+      <c r="R50" s="22">
         <v>-128442</v>
       </c>
-      <c r="S50" s="6">
+      <c r="S50" s="9">
         <f t="shared" si="7"/>
         <v>-128442</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:19">
-      <c r="A51" s="17"/>
-      <c r="B51" s="19" t="s">
+      <c r="A51" s="20"/>
+      <c r="B51" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C51" s="19">
+      <c r="C51" s="22">
         <v>51</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D51" s="22">
         <v>477</v>
       </c>
-      <c r="E51" s="19">
+      <c r="E51" s="22">
         <v>318</v>
       </c>
-      <c r="F51" s="19">
+      <c r="F51" s="22">
         <v>291</v>
       </c>
-      <c r="G51" s="19">
+      <c r="G51" s="22">
         <v>7040</v>
       </c>
-      <c r="H51" s="19">
+      <c r="H51" s="22">
         <v>2557033.08</v>
       </c>
-      <c r="I51" s="19">
+      <c r="I51" s="22">
         <v>244</v>
       </c>
-      <c r="J51" s="19">
+      <c r="J51" s="22">
         <v>2393</v>
       </c>
-      <c r="K51" s="19">
+      <c r="K51" s="22">
         <v>2586422</v>
       </c>
-      <c r="L51" s="19">
+      <c r="L51" s="22">
         <v>20</v>
       </c>
-      <c r="M51" s="19">
+      <c r="M51" s="22">
         <v>15863044</v>
       </c>
-      <c r="N51" s="19">
+      <c r="N51" s="22">
         <v>186220.02</v>
       </c>
-      <c r="O51" s="19">
+      <c r="O51" s="22">
         <v>132137.18</v>
       </c>
-      <c r="P51" s="19">
+      <c r="P51" s="22">
         <v>23919.17</v>
       </c>
-      <c r="Q51" s="19">
+      <c r="Q51" s="22">
         <v>1275.674</v>
       </c>
-      <c r="R51" s="19">
+      <c r="R51" s="22">
         <f>N51-O51-P51-Q51</f>
         <v>28887.996</v>
       </c>
-      <c r="S51" s="6">
+      <c r="S51" s="9">
         <f t="shared" si="7"/>
         <v>28887.996</v>
       </c>
     </row>
     <row r="52" ht="15" spans="2:18">
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
-      <c r="P52" s="21"/>
-      <c r="Q52" s="21"/>
-      <c r="R52" s="21"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="24"/>
     </row>
     <row r="53" ht="15" spans="1:19">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C53" s="22">
         <v>124</v>
       </c>
-      <c r="D53" s="19">
+      <c r="D53" s="22">
         <v>348</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E53" s="22">
         <v>158</v>
       </c>
-      <c r="F53" s="19">
+      <c r="F53" s="22">
         <v>144</v>
       </c>
-      <c r="G53" s="19">
+      <c r="G53" s="22">
         <v>3066</v>
       </c>
-      <c r="H53" s="19">
+      <c r="H53" s="22">
         <v>1125895</v>
       </c>
-      <c r="I53" s="19">
+      <c r="I53" s="22">
         <v>81</v>
       </c>
-      <c r="J53" s="19">
+      <c r="J53" s="22">
         <v>1053</v>
       </c>
-      <c r="K53" s="19">
+      <c r="K53" s="22">
         <v>1220822</v>
       </c>
-      <c r="L53" s="19">
+      <c r="L53" s="22">
         <v>42</v>
       </c>
-      <c r="M53" s="19">
+      <c r="M53" s="22">
         <v>12929891</v>
       </c>
-      <c r="N53" s="19">
+      <c r="N53" s="22">
         <v>3578</v>
       </c>
-      <c r="O53" s="19">
+      <c r="O53" s="22">
         <v>59180</v>
       </c>
-      <c r="P53" s="19">
+      <c r="P53" s="22">
         <v>41418</v>
       </c>
-      <c r="Q53" s="19">
+      <c r="Q53" s="22">
         <v>741</v>
       </c>
-      <c r="R53" s="31">
+      <c r="R53" s="34">
         <v>-97020</v>
       </c>
-      <c r="S53" s="6">
+      <c r="S53" s="9">
         <f t="shared" ref="S53:S55" si="8">N53-O53-P53-Q53</f>
         <v>-97761</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:19">
-      <c r="A54" s="17"/>
-      <c r="B54" s="19" t="s">
+      <c r="A54" s="20"/>
+      <c r="B54" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="19">
+      <c r="C54" s="22">
         <v>86</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D54" s="22">
         <v>298</v>
       </c>
-      <c r="E54" s="19">
+      <c r="E54" s="22">
         <v>149</v>
       </c>
-      <c r="F54" s="19">
+      <c r="F54" s="22">
         <v>134</v>
       </c>
-      <c r="G54" s="19">
+      <c r="G54" s="22">
         <v>2424</v>
       </c>
-      <c r="H54" s="19">
+      <c r="H54" s="22">
         <v>1238423</v>
       </c>
-      <c r="I54" s="19">
+      <c r="I54" s="22">
         <v>79</v>
       </c>
-      <c r="J54" s="19">
+      <c r="J54" s="22">
         <v>719</v>
       </c>
-      <c r="K54" s="19">
+      <c r="K54" s="22">
         <v>1116846</v>
       </c>
-      <c r="L54" s="19">
+      <c r="L54" s="22">
         <v>38</v>
       </c>
-      <c r="M54" s="19">
+      <c r="M54" s="22">
         <v>10131936</v>
       </c>
-      <c r="N54" s="19">
+      <c r="N54" s="22">
         <v>211636</v>
       </c>
-      <c r="O54" s="19">
+      <c r="O54" s="22">
         <v>32930</v>
       </c>
-      <c r="P54" s="19">
+      <c r="P54" s="22">
         <v>45616</v>
       </c>
-      <c r="Q54" s="19">
+      <c r="Q54" s="22">
         <v>570</v>
       </c>
-      <c r="R54" s="19">
+      <c r="R54" s="22">
         <v>132520</v>
       </c>
-      <c r="S54" s="6">
+      <c r="S54" s="9">
         <f t="shared" si="8"/>
         <v>132520</v>
       </c>
     </row>
     <row r="55" ht="15" spans="1:19">
-      <c r="A55" s="17"/>
-      <c r="B55" s="19" t="s">
+      <c r="A55" s="20"/>
+      <c r="B55" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="19">
+      <c r="C55" s="22">
         <v>152</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D55" s="22">
         <v>382</v>
       </c>
-      <c r="E55" s="19">
+      <c r="E55" s="22">
         <v>188</v>
       </c>
-      <c r="F55" s="19">
+      <c r="F55" s="22">
         <v>172</v>
       </c>
-      <c r="G55" s="19">
+      <c r="G55" s="22">
         <v>2410</v>
       </c>
-      <c r="H55" s="19">
+      <c r="H55" s="22">
         <v>1480949.1</v>
       </c>
-      <c r="I55" s="19">
+      <c r="I55" s="22">
         <v>103</v>
       </c>
-      <c r="J55" s="19">
+      <c r="J55" s="22">
         <v>833</v>
       </c>
-      <c r="K55" s="19">
+      <c r="K55" s="22">
         <v>1617312</v>
       </c>
-      <c r="L55" s="19">
+      <c r="L55" s="22">
         <v>79</v>
       </c>
-      <c r="M55" s="19">
+      <c r="M55" s="22">
         <v>10235563</v>
       </c>
-      <c r="N55" s="19">
+      <c r="N55" s="22">
         <f>-85211.13</f>
         <v>-85211.13</v>
       </c>
-      <c r="O55" s="19">
+      <c r="O55" s="22">
         <v>27215.38</v>
       </c>
-      <c r="P55" s="19">
+      <c r="P55" s="22">
         <v>43065.548</v>
       </c>
-      <c r="Q55" s="19">
+      <c r="Q55" s="22">
         <v>587.11</v>
       </c>
-      <c r="R55" s="19">
+      <c r="R55" s="22">
         <f>N55-O55-P55-Q55</f>
         <v>-156079.168</v>
       </c>
-      <c r="S55" s="6">
+      <c r="S55" s="9">
         <f t="shared" si="8"/>
         <v>-156079.168</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="2:18">
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="21"/>
-      <c r="P56" s="21"/>
-      <c r="Q56" s="21"/>
-      <c r="R56" s="21"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="24"/>
+      <c r="R56" s="24"/>
     </row>
     <row r="57" ht="15" spans="2:18">
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="21"/>
-      <c r="M57" s="21"/>
-      <c r="N57" s="21"/>
-      <c r="O57" s="21"/>
-      <c r="P57" s="21"/>
-      <c r="Q57" s="21"/>
-      <c r="R57" s="21"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="24"/>
+      <c r="Q57" s="24"/>
+      <c r="R57" s="24"/>
     </row>
     <row r="58" ht="15.75" spans="2:18">
-      <c r="B58" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" s="18" t="s">
+      <c r="B58" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D58" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E58" s="18" t="s">
+      <c r="E58" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F58" s="18" t="s">
+      <c r="F58" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G58" s="18" t="s">
+      <c r="G58" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H58" s="18" t="s">
+      <c r="H58" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I58" s="18" t="s">
+      <c r="I58" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="J58" s="18" t="s">
+      <c r="J58" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="K58" s="18" t="s">
+      <c r="K58" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="L58" s="18" t="s">
+      <c r="L58" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="M58" s="23" t="s">
+      <c r="M58" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="N58" s="18" t="s">
+      <c r="N58" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="O58" s="18" t="s">
+      <c r="O58" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="P58" s="18" t="s">
+      <c r="P58" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="Q58" s="18" t="s">
+      <c r="Q58" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="R58" s="18" t="s">
+      <c r="R58" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="59" ht="15.75" spans="2:18">
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="24" t="s">
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N59" s="18"/>
-      <c r="O59" s="18"/>
-      <c r="P59" s="18"/>
-      <c r="Q59" s="18"/>
-      <c r="R59" s="18"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="21"/>
+      <c r="R59" s="21"/>
     </row>
     <row r="60" ht="15.75" spans="1:19">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C60" s="19">
+      <c r="C60" s="22">
         <v>161</v>
       </c>
-      <c r="D60" s="19">
+      <c r="D60" s="22">
         <v>276</v>
       </c>
-      <c r="E60" s="19">
+      <c r="E60" s="22">
         <v>117</v>
       </c>
-      <c r="F60" s="19">
+      <c r="F60" s="22">
         <v>111</v>
       </c>
-      <c r="G60" s="19">
+      <c r="G60" s="22">
         <v>1512</v>
       </c>
-      <c r="H60" s="19">
+      <c r="H60" s="22">
         <v>1612209</v>
       </c>
-      <c r="I60" s="19">
+      <c r="I60" s="22">
         <v>68</v>
       </c>
-      <c r="J60" s="19">
+      <c r="J60" s="22">
         <v>370</v>
       </c>
-      <c r="K60" s="19">
+      <c r="K60" s="22">
         <v>1551252</v>
       </c>
-      <c r="L60" s="19">
+      <c r="L60" s="22">
         <v>57</v>
       </c>
-      <c r="M60" s="19">
+      <c r="M60" s="22">
         <v>10715476</v>
       </c>
-      <c r="N60" s="19">
+      <c r="N60" s="22">
         <v>121335</v>
       </c>
-      <c r="O60" s="19">
+      <c r="O60" s="22">
         <v>19779</v>
       </c>
-      <c r="P60" s="19">
+      <c r="P60" s="22">
         <v>36826</v>
       </c>
-      <c r="Q60" s="19">
-        <v>0</v>
-      </c>
-      <c r="R60" s="19">
+      <c r="Q60" s="22">
+        <v>0</v>
+      </c>
+      <c r="R60" s="22">
         <v>64730</v>
       </c>
-      <c r="S60" s="6">
+      <c r="S60" s="9">
         <f t="shared" ref="S60:S62" si="9">N60-O60-P60-Q60</f>
         <v>64730</v>
       </c>
     </row>
     <row r="61" ht="15" spans="1:19">
-      <c r="A61" s="17"/>
-      <c r="B61" s="19" t="s">
+      <c r="A61" s="20"/>
+      <c r="B61" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="19">
+      <c r="C61" s="22">
         <v>69</v>
       </c>
-      <c r="D61" s="19">
+      <c r="D61" s="22">
         <v>209</v>
       </c>
-      <c r="E61" s="19">
+      <c r="E61" s="22">
         <v>91</v>
       </c>
-      <c r="F61" s="19">
+      <c r="F61" s="22">
         <v>82</v>
       </c>
-      <c r="G61" s="19">
+      <c r="G61" s="22">
         <v>1952</v>
       </c>
-      <c r="H61" s="19">
+      <c r="H61" s="22">
         <v>949783</v>
       </c>
-      <c r="I61" s="19">
+      <c r="I61" s="22">
         <v>56</v>
       </c>
-      <c r="J61" s="19">
+      <c r="J61" s="22">
         <v>459</v>
       </c>
-      <c r="K61" s="19">
+      <c r="K61" s="22">
         <v>896316</v>
       </c>
-      <c r="L61" s="19">
+      <c r="L61" s="22">
         <v>12</v>
       </c>
-      <c r="M61" s="19">
+      <c r="M61" s="22">
         <v>7245001</v>
       </c>
-      <c r="N61" s="19">
+      <c r="N61" s="22">
         <v>58495</v>
       </c>
-      <c r="O61" s="19">
+      <c r="O61" s="22">
         <v>21864</v>
       </c>
-      <c r="P61" s="19">
+      <c r="P61" s="22">
         <v>24357</v>
       </c>
-      <c r="Q61" s="19">
-        <v>0</v>
-      </c>
-      <c r="R61" s="19">
+      <c r="Q61" s="22">
+        <v>0</v>
+      </c>
+      <c r="R61" s="22">
         <v>12274</v>
       </c>
-      <c r="S61" s="6">
+      <c r="S61" s="9">
         <f t="shared" si="9"/>
         <v>12274</v>
       </c>
     </row>
     <row r="62" ht="15" spans="1:19">
-      <c r="A62" s="17"/>
-      <c r="B62" s="19" t="s">
+      <c r="A62" s="20"/>
+      <c r="B62" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C62" s="19">
+      <c r="C62" s="22">
         <v>45</v>
       </c>
-      <c r="D62" s="19">
+      <c r="D62" s="22">
         <v>205</v>
       </c>
-      <c r="E62" s="19">
+      <c r="E62" s="22">
         <v>99</v>
       </c>
-      <c r="F62" s="19">
+      <c r="F62" s="22">
         <v>83</v>
       </c>
-      <c r="G62" s="19">
+      <c r="G62" s="22">
         <v>1149</v>
       </c>
-      <c r="H62" s="19">
+      <c r="H62" s="22">
         <v>670096</v>
       </c>
-      <c r="I62" s="19">
+      <c r="I62" s="22">
         <v>52</v>
       </c>
-      <c r="J62" s="19">
+      <c r="J62" s="22">
         <v>326</v>
       </c>
-      <c r="K62" s="19">
+      <c r="K62" s="22">
         <v>503419</v>
       </c>
-      <c r="L62" s="19">
+      <c r="L62" s="22">
         <v>13</v>
       </c>
-      <c r="M62" s="19">
+      <c r="M62" s="22">
         <v>4681993</v>
       </c>
-      <c r="N62" s="19">
+      <c r="N62" s="22">
         <v>219778.63</v>
       </c>
-      <c r="O62" s="19">
+      <c r="O62" s="22">
         <v>28428.85</v>
       </c>
-      <c r="P62" s="19">
+      <c r="P62" s="22">
         <v>12770.422</v>
       </c>
-      <c r="Q62" s="19">
-        <v>0</v>
-      </c>
-      <c r="R62" s="19">
+      <c r="Q62" s="22">
+        <v>0</v>
+      </c>
+      <c r="R62" s="22">
         <f>N62-O62-P62-Q62</f>
         <v>178579.358</v>
       </c>
-      <c r="S62" s="6">
+      <c r="S62" s="9">
         <f t="shared" si="9"/>
         <v>178579.358</v>
       </c>
     </row>
     <row r="63" ht="15" spans="2:18">
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="21"/>
-      <c r="L63" s="21"/>
-      <c r="M63" s="21"/>
-      <c r="N63" s="21"/>
-      <c r="O63" s="21"/>
-      <c r="P63" s="21"/>
-      <c r="Q63" s="21"/>
-      <c r="R63" s="21"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="24"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="24"/>
+      <c r="Q63" s="24"/>
+      <c r="R63" s="24"/>
     </row>
     <row r="64" ht="15" spans="1:19">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B64" s="19" t="s">
+      <c r="B64" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C64" s="19">
+      <c r="C64" s="22">
         <v>186</v>
       </c>
-      <c r="D64" s="19">
+      <c r="D64" s="22">
         <v>333</v>
       </c>
-      <c r="E64" s="19">
+      <c r="E64" s="22">
         <v>170</v>
       </c>
-      <c r="F64" s="19">
+      <c r="F64" s="22">
         <v>124</v>
       </c>
-      <c r="G64" s="19">
+      <c r="G64" s="22">
         <v>2046</v>
       </c>
-      <c r="H64" s="19">
+      <c r="H64" s="22">
         <v>1064525</v>
       </c>
-      <c r="I64" s="19">
+      <c r="I64" s="22">
         <v>78</v>
       </c>
-      <c r="J64" s="19">
+      <c r="J64" s="22">
         <v>502</v>
       </c>
-      <c r="K64" s="19">
+      <c r="K64" s="22">
         <v>812983</v>
       </c>
-      <c r="L64" s="19">
+      <c r="L64" s="22">
         <v>14</v>
       </c>
-      <c r="M64" s="19">
+      <c r="M64" s="22">
         <v>11608085</v>
       </c>
-      <c r="N64" s="19">
+      <c r="N64" s="22">
         <v>336355</v>
       </c>
-      <c r="O64" s="19">
+      <c r="O64" s="22">
         <v>20098</v>
       </c>
-      <c r="P64" s="19">
+      <c r="P64" s="22">
         <v>39489</v>
       </c>
-      <c r="Q64" s="19">
-        <v>0</v>
-      </c>
-      <c r="R64" s="19">
+      <c r="Q64" s="22">
+        <v>0</v>
+      </c>
+      <c r="R64" s="22">
         <v>276768</v>
       </c>
-      <c r="S64" s="6">
+      <c r="S64" s="9">
         <f t="shared" ref="S64:S66" si="10">N64-O64-P64-Q64</f>
         <v>276768</v>
       </c>
     </row>
     <row r="65" ht="15" spans="1:19">
-      <c r="A65" s="17"/>
-      <c r="B65" s="19" t="s">
+      <c r="A65" s="20"/>
+      <c r="B65" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C65" s="19">
+      <c r="C65" s="22">
         <v>128</v>
       </c>
-      <c r="D65" s="19">
+      <c r="D65" s="22">
         <v>304</v>
       </c>
-      <c r="E65" s="19">
+      <c r="E65" s="22">
         <v>161</v>
       </c>
-      <c r="F65" s="19">
+      <c r="F65" s="22">
         <v>104</v>
       </c>
-      <c r="G65" s="19">
+      <c r="G65" s="22">
         <v>1539</v>
       </c>
-      <c r="H65" s="19">
+      <c r="H65" s="22">
         <v>881590</v>
       </c>
-      <c r="I65" s="19">
+      <c r="I65" s="22">
         <v>67</v>
       </c>
-      <c r="J65" s="19">
+      <c r="J65" s="22">
         <v>433</v>
       </c>
-      <c r="K65" s="19">
+      <c r="K65" s="22">
         <v>771593</v>
       </c>
-      <c r="L65" s="19">
+      <c r="L65" s="22">
         <v>28</v>
       </c>
-      <c r="M65" s="19">
+      <c r="M65" s="22">
         <v>7238877</v>
       </c>
-      <c r="N65" s="19">
+      <c r="N65" s="22">
         <v>132404</v>
       </c>
-      <c r="O65" s="19">
+      <c r="O65" s="22">
         <v>22701</v>
       </c>
-      <c r="P65" s="19">
+      <c r="P65" s="22">
         <v>8514</v>
       </c>
-      <c r="Q65" s="19">
-        <v>0</v>
-      </c>
-      <c r="R65" s="19">
+      <c r="Q65" s="22">
+        <v>0</v>
+      </c>
+      <c r="R65" s="22">
         <v>101189</v>
       </c>
-      <c r="S65" s="6">
+      <c r="S65" s="9">
         <f t="shared" si="10"/>
         <v>101189</v>
       </c>
     </row>
     <row r="66" ht="15" spans="1:19">
-      <c r="A66" s="17"/>
-      <c r="B66" s="19" t="s">
+      <c r="A66" s="20"/>
+      <c r="B66" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="19">
+      <c r="C66" s="22">
         <v>100</v>
       </c>
-      <c r="D66" s="19">
+      <c r="D66" s="22">
         <v>276</v>
       </c>
-      <c r="E66" s="19">
+      <c r="E66" s="22">
         <v>128</v>
       </c>
-      <c r="F66" s="19">
+      <c r="F66" s="22">
         <v>104</v>
       </c>
-      <c r="G66" s="19">
+      <c r="G66" s="22">
         <v>1163</v>
       </c>
-      <c r="H66" s="19">
+      <c r="H66" s="22">
         <v>626577</v>
       </c>
-      <c r="I66" s="19">
+      <c r="I66" s="22">
         <v>65</v>
       </c>
-      <c r="J66" s="19">
+      <c r="J66" s="22">
         <v>330</v>
       </c>
-      <c r="K66" s="19">
+      <c r="K66" s="22">
         <v>323885</v>
       </c>
-      <c r="L66" s="19">
+      <c r="L66" s="22">
         <v>16</v>
       </c>
-      <c r="M66" s="19">
+      <c r="M66" s="22">
         <v>5602261</v>
       </c>
-      <c r="N66" s="19">
+      <c r="N66" s="22">
         <v>262588.52</v>
       </c>
-      <c r="O66" s="19">
+      <c r="O66" s="22">
         <v>15335</v>
       </c>
-      <c r="P66" s="19">
+      <c r="P66" s="22">
         <v>15878.504</v>
       </c>
-      <c r="Q66" s="19">
-        <v>0</v>
-      </c>
-      <c r="R66" s="19">
+      <c r="Q66" s="22">
+        <v>0</v>
+      </c>
+      <c r="R66" s="22">
         <f>N66-O66-P66-Q66</f>
         <v>231375.016</v>
       </c>
-      <c r="S66" s="6">
+      <c r="S66" s="9">
         <f t="shared" si="10"/>
         <v>231375.016</v>
       </c>
     </row>
     <row r="67" ht="15" spans="2:18">
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
-      <c r="M67" s="21"/>
-      <c r="N67" s="21"/>
-      <c r="O67" s="21"/>
-      <c r="P67" s="21"/>
-      <c r="Q67" s="21"/>
-      <c r="R67" s="21"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="24"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="24"/>
+      <c r="R67" s="24"/>
     </row>
     <row r="68" ht="15" spans="1:19">
-      <c r="A68" s="17" t="s">
+      <c r="A68" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B68" s="19" t="s">
+      <c r="B68" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C68" s="19">
+      <c r="C68" s="22">
         <v>7</v>
       </c>
-      <c r="D68" s="19">
+      <c r="D68" s="22">
         <v>14</v>
       </c>
-      <c r="E68" s="19">
+      <c r="E68" s="22">
         <v>6</v>
       </c>
-      <c r="F68" s="19">
+      <c r="F68" s="22">
         <v>6</v>
       </c>
-      <c r="G68" s="19">
+      <c r="G68" s="22">
         <v>6</v>
       </c>
-      <c r="H68" s="19">
+      <c r="H68" s="22">
         <v>1820000</v>
       </c>
-      <c r="I68" s="19">
+      <c r="I68" s="22">
         <v>2</v>
       </c>
-      <c r="J68" s="19">
+      <c r="J68" s="22">
         <v>2</v>
       </c>
-      <c r="K68" s="19">
+      <c r="K68" s="22">
         <v>121086</v>
       </c>
-      <c r="L68" s="19">
-        <v>0</v>
-      </c>
-      <c r="M68" s="19">
+      <c r="L68" s="22">
+        <v>0</v>
+      </c>
+      <c r="M68" s="22">
         <v>586358</v>
       </c>
-      <c r="N68" s="19">
+      <c r="N68" s="22">
         <v>46143</v>
       </c>
-      <c r="O68" s="19">
-        <v>0</v>
-      </c>
-      <c r="P68" s="19">
+      <c r="O68" s="22">
+        <v>0</v>
+      </c>
+      <c r="P68" s="22">
         <v>20137</v>
       </c>
-      <c r="Q68" s="19">
-        <v>0</v>
-      </c>
-      <c r="R68" s="19">
+      <c r="Q68" s="22">
+        <v>0</v>
+      </c>
+      <c r="R68" s="22">
         <v>26006</v>
       </c>
-      <c r="S68" s="6">
+      <c r="S68" s="9">
         <f t="shared" ref="S68:S70" si="11">N68-O68-P68-Q68</f>
         <v>26006</v>
       </c>
     </row>
     <row r="69" ht="15" spans="1:19">
-      <c r="A69" s="17"/>
-      <c r="B69" s="19" t="s">
+      <c r="A69" s="20"/>
+      <c r="B69" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C69" s="19">
+      <c r="C69" s="22">
         <v>4</v>
       </c>
-      <c r="D69" s="19">
+      <c r="D69" s="22">
         <v>14</v>
       </c>
-      <c r="E69" s="19">
+      <c r="E69" s="22">
         <v>9</v>
       </c>
-      <c r="F69" s="19">
+      <c r="F69" s="22">
         <v>10</v>
       </c>
-      <c r="G69" s="19">
+      <c r="G69" s="22">
         <v>35</v>
       </c>
-      <c r="H69" s="19">
+      <c r="H69" s="22">
         <v>2930521</v>
       </c>
-      <c r="I69" s="19">
+      <c r="I69" s="22">
         <v>7</v>
       </c>
-      <c r="J69" s="19">
+      <c r="J69" s="22">
         <v>18</v>
       </c>
-      <c r="K69" s="19">
+      <c r="K69" s="22">
         <v>1948014</v>
       </c>
-      <c r="L69" s="19">
-        <v>0</v>
-      </c>
-      <c r="M69" s="19">
+      <c r="L69" s="22">
+        <v>0</v>
+      </c>
+      <c r="M69" s="22">
         <v>7215343</v>
       </c>
-      <c r="N69" s="19">
+      <c r="N69" s="22">
         <v>-13642288</v>
       </c>
-      <c r="O69" s="19">
-        <v>0</v>
-      </c>
-      <c r="P69" s="19">
+      <c r="O69" s="22">
+        <v>0</v>
+      </c>
+      <c r="P69" s="22">
         <v>274705</v>
       </c>
-      <c r="Q69" s="19">
-        <v>0</v>
-      </c>
-      <c r="R69" s="19">
+      <c r="Q69" s="22">
+        <v>0</v>
+      </c>
+      <c r="R69" s="22">
         <v>-13916993</v>
       </c>
-      <c r="S69" s="6">
+      <c r="S69" s="9">
         <f t="shared" si="11"/>
         <v>-13916993</v>
       </c>
     </row>
     <row r="70" ht="15" spans="1:19">
-      <c r="A70" s="17"/>
-      <c r="B70" s="19" t="s">
+      <c r="A70" s="20"/>
+      <c r="B70" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C70" s="19">
-        <v>0</v>
-      </c>
-      <c r="D70" s="19">
+      <c r="C70" s="22">
+        <v>0</v>
+      </c>
+      <c r="D70" s="22">
         <v>6</v>
       </c>
-      <c r="E70" s="19">
+      <c r="E70" s="22">
         <v>1</v>
       </c>
-      <c r="F70" s="19">
-        <v>0</v>
-      </c>
-      <c r="G70" s="19">
-        <v>0</v>
-      </c>
-      <c r="H70" s="19">
-        <v>0</v>
-      </c>
-      <c r="I70" s="19">
-        <v>0</v>
-      </c>
-      <c r="J70" s="19">
-        <v>0</v>
-      </c>
-      <c r="K70" s="19">
-        <v>0</v>
-      </c>
-      <c r="L70" s="19">
-        <v>0</v>
-      </c>
-      <c r="M70" s="19">
+      <c r="F70" s="22">
+        <v>0</v>
+      </c>
+      <c r="G70" s="22">
+        <v>0</v>
+      </c>
+      <c r="H70" s="22">
+        <v>0</v>
+      </c>
+      <c r="I70" s="22">
+        <v>0</v>
+      </c>
+      <c r="J70" s="22">
+        <v>0</v>
+      </c>
+      <c r="K70" s="22">
+        <v>0</v>
+      </c>
+      <c r="L70" s="22">
+        <v>0</v>
+      </c>
+      <c r="M70" s="22">
         <v>16000</v>
       </c>
-      <c r="N70" s="19">
+      <c r="N70" s="22">
         <v>-7750</v>
       </c>
-      <c r="O70" s="19">
-        <v>0</v>
-      </c>
-      <c r="P70" s="19">
+      <c r="O70" s="22">
+        <v>0</v>
+      </c>
+      <c r="P70" s="22">
         <v>480</v>
       </c>
-      <c r="Q70" s="19">
-        <v>0</v>
-      </c>
-      <c r="R70" s="19">
+      <c r="Q70" s="22">
+        <v>0</v>
+      </c>
+      <c r="R70" s="22">
         <f>N70-O70-P70-Q70</f>
         <v>-8230</v>
       </c>
-      <c r="S70" s="6">
+      <c r="S70" s="9">
         <f t="shared" si="11"/>
         <v>-8230</v>
       </c>
     </row>
     <row r="71" spans="2:18">
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="16"/>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="16"/>
-      <c r="R71" s="16"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="19"/>
+      <c r="O71" s="19"/>
+      <c r="P71" s="19"/>
+      <c r="Q71" s="19"/>
+      <c r="R71" s="19"/>
     </row>
     <row r="72" spans="2:18">
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="16"/>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="16"/>
-      <c r="R72" s="16"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="19"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="19"/>
     </row>
     <row r="73" spans="2:18">
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16"/>
-      <c r="L73" s="16"/>
-      <c r="M73" s="16"/>
-      <c r="N73" s="16"/>
-      <c r="O73" s="16"/>
-      <c r="P73" s="16"/>
-      <c r="Q73" s="16"/>
-      <c r="R73" s="16"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="19"/>
+      <c r="M73" s="19"/>
+      <c r="N73" s="19"/>
+      <c r="O73" s="19"/>
+      <c r="P73" s="19"/>
+      <c r="Q73" s="19"/>
+      <c r="R73" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="74">
@@ -5430,258 +5852,258 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="13" style="2" customWidth="1"/>
-    <col min="3" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="12.8833333333333" style="2" customWidth="1"/>
-    <col min="8" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="10" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14.8833333333333" style="2" customWidth="1"/>
-    <col min="14" max="16" width="9" style="2"/>
-    <col min="17" max="17" width="10.3833333333333" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="13" style="5" customWidth="1"/>
+    <col min="3" max="6" width="9" style="5"/>
+    <col min="7" max="7" width="12.8833333333333" style="5" customWidth="1"/>
+    <col min="8" max="11" width="9" style="5"/>
+    <col min="12" max="12" width="10" style="5" customWidth="1"/>
+    <col min="13" max="13" width="14.8833333333333" style="5" customWidth="1"/>
+    <col min="14" max="16" width="9" style="5"/>
+    <col min="17" max="17" width="10.3833333333333" style="5" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:17">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" ht="20.1" customHeight="1" spans="1:17">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="6">
         <v>15</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="6">
         <v>121</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="6">
         <v>65</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="6">
         <v>53</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="6">
         <v>402</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="6">
         <v>191910</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="6">
         <v>31</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="6">
         <v>94</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="6">
         <v>206189</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="6">
         <v>5</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="6">
         <v>1334949</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="7">
         <v>-20464</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="6">
         <v>2936</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="6">
         <v>4994</v>
       </c>
-      <c r="P2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="5">
+      <c r="P2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="8">
         <v>-28394</v>
       </c>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="1:17">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="6">
         <v>19</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="6">
         <v>133</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="6">
         <v>59</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="6">
         <v>54</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="6">
         <v>535</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="6">
         <v>217559</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="6">
         <v>31</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="6">
         <v>109</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="6">
         <v>141726</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="6">
         <v>4</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="6">
         <v>1504841</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="6">
         <v>93431</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="6">
         <v>3799</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="6">
         <v>4779</v>
       </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3">
+      <c r="P3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
         <v>84853</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
-      <c r="A4" s="1" t="s">
+    <row r="4" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
+      <c r="A4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <f t="shared" ref="B4:Q4" si="0">(B3-B2)/B2</f>
         <v>0.266666666666667</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <f t="shared" si="0"/>
         <v>0.0991735537190083</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <f t="shared" si="0"/>
         <v>-0.0923076923076923</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <f t="shared" si="0"/>
         <v>0.0188679245283019</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <f t="shared" si="0"/>
         <v>0.330845771144279</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <f t="shared" si="0"/>
         <v>0.13365119066229</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="4">
         <f t="shared" si="0"/>
         <v>0.159574468085106</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="4">
         <f t="shared" si="0"/>
         <v>-0.312640344538263</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="4">
         <f t="shared" si="0"/>
         <v>-0.2</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="4">
         <f t="shared" si="0"/>
         <v>0.127264786894481</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="4">
         <f t="shared" si="0"/>
         <v>-5.56562744331509</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="4">
         <f t="shared" si="0"/>
         <v>0.293937329700272</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="4">
         <f t="shared" si="0"/>
         <v>-0.0430516619943933</v>
       </c>
-      <c r="P4" s="1" t="e">
+      <c r="P4" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="4">
         <f t="shared" si="0"/>
         <v>-3.98841304500951</v>
       </c>
     </row>
     <row r="5" spans="7:12">
-      <c r="G5" s="2">
+      <c r="G5" s="5">
         <f>G3/E3</f>
         <v>4028.87037037037</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="5">
         <f>L3/D3</f>
         <v>25505.7796610169</v>
       </c>
     </row>
     <row r="6" spans="12:12">
-      <c r="L6" s="2">
+      <c r="L6" s="5">
         <f>L3/G3</f>
         <v>6.91693287797793</v>
       </c>
@@ -5691,4 +6113,2112 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" ht="24.75" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2">
+        <v>6279</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1971719</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1805562.75</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-13565.75</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1791997</v>
+      </c>
+      <c r="H2" s="2">
+        <v>-15683.0835</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2103.35</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6323</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1471887</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1438618.5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>271.5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1438890</v>
+      </c>
+      <c r="H3" s="2">
+        <v>-5350.444</v>
+      </c>
+      <c r="I3" s="2">
+        <v>5621.86</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>55</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>58.5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-3.5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2">
+        <v>-3.72</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="24.75" spans="1:10">
+      <c r="A5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6091</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2511384</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2065190.55</v>
+      </c>
+      <c r="F5" s="2">
+        <v>196845.45</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2262036</v>
+      </c>
+      <c r="H5" s="2">
+        <v>191892.232</v>
+      </c>
+      <c r="I5" s="2">
+        <v>4947.43</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="24.75" spans="1:10">
+      <c r="A6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5425</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1346370</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1258884.6</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-15726.6</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1243158</v>
+      </c>
+      <c r="H6" s="2">
+        <v>-20674.573</v>
+      </c>
+      <c r="I6" s="2">
+        <v>4941.13</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="24.75" spans="1:10">
+      <c r="A7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5345</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1342491</v>
+      </c>
+      <c r="D7" s="2">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1211118.15</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-4956.15</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1206162</v>
+      </c>
+      <c r="H7" s="2">
+        <v>-9772.5355</v>
+      </c>
+      <c r="I7" s="2">
+        <v>4803.41</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="24.75" spans="1:10">
+      <c r="A8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5149</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2312796</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1992122.4</v>
+      </c>
+      <c r="F8" s="2">
+        <v>91393.6</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2083516</v>
+      </c>
+      <c r="H8" s="2">
+        <v>87027.8785</v>
+      </c>
+      <c r="I8" s="2">
+        <v>4351.06</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="24" spans="1:10">
+      <c r="A9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="2">
+        <v>18731</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3141625</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2584599.3</v>
+      </c>
+      <c r="F9" s="2">
+        <v>263307.7</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2847907</v>
+      </c>
+      <c r="H9" s="2">
+        <v>253142.1205</v>
+      </c>
+      <c r="I9" s="2">
+        <v>10013.78</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" spans="1:10">
+      <c r="A10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5480</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1278836</v>
+      </c>
+      <c r="D10" s="2">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1166790.25</v>
+      </c>
+      <c r="F10" s="2">
+        <v>17270.75</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1184061</v>
+      </c>
+      <c r="H10" s="2">
+        <v>14148.1445</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3118.89</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="24.75" spans="1:10">
+      <c r="A11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="2">
+        <v>6395</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2097858</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1857252.2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>93343.8</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1950596</v>
+      </c>
+      <c r="H11" s="2">
+        <v>88376.1385</v>
+      </c>
+      <c r="I11" s="2">
+        <v>4958.48</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="24.75" spans="1:10">
+      <c r="A12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="2">
+        <v>5880</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1568523</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1378343.1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>35790.9</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1414134</v>
+      </c>
+      <c r="H12" s="2">
+        <v>32462.538</v>
+      </c>
+      <c r="I12" s="2">
+        <v>3323.31</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" spans="1:10">
+      <c r="A13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="2">
+        <v>5955</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1281115</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1215072.3</v>
+      </c>
+      <c r="F13" s="2">
+        <v>-55062.3</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1160010</v>
+      </c>
+      <c r="H13" s="2">
+        <v>-59680.6125</v>
+      </c>
+      <c r="I13" s="2">
+        <v>4613.37</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:10">
+      <c r="A14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="2">
+        <v>28268</v>
+      </c>
+      <c r="C14" s="2">
+        <v>687922</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4005</v>
+      </c>
+      <c r="E14" s="2">
+        <v>657480.62</v>
+      </c>
+      <c r="F14" s="2">
+        <v>30541.38</v>
+      </c>
+      <c r="G14" s="2">
+        <v>688022</v>
+      </c>
+      <c r="H14" s="2">
+        <v>26801.1297</v>
+      </c>
+      <c r="I14" s="2">
+        <v>3703.49</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:10">
+      <c r="A15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4877</v>
+      </c>
+      <c r="C15" s="2">
+        <v>113304</v>
+      </c>
+      <c r="D15" s="2">
+        <v>192</v>
+      </c>
+      <c r="E15" s="2">
+        <v>112162.14</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1141.86</v>
+      </c>
+      <c r="G15" s="2">
+        <v>113304</v>
+      </c>
+      <c r="H15" s="2">
+        <v>828.923</v>
+      </c>
+      <c r="I15" s="2">
+        <v>312.94</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:10">
+      <c r="A16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3120</v>
+      </c>
+      <c r="C16" s="2">
+        <v>416542</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3131</v>
+      </c>
+      <c r="E16" s="2">
+        <v>404633.05</v>
+      </c>
+      <c r="F16" s="2">
+        <v>11908.95</v>
+      </c>
+      <c r="G16" s="2">
+        <v>416542</v>
+      </c>
+      <c r="H16" s="2">
+        <v>11494.547</v>
+      </c>
+      <c r="I16" s="2">
+        <v>414.4</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:10">
+      <c r="A17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:10">
+      <c r="A18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="2">
+        <v>26648</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2360995</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4903</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2268380.86</v>
+      </c>
+      <c r="F18" s="2">
+        <v>92614.14</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2360995</v>
+      </c>
+      <c r="H18" s="2">
+        <v>78596.5915</v>
+      </c>
+      <c r="I18" s="2">
+        <v>13714.55</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:10">
+      <c r="A19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="2">
+        <v>22162</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1031142</v>
+      </c>
+      <c r="D19" s="2">
+        <v>7292</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1071500.49</v>
+      </c>
+      <c r="F19" s="2">
+        <v>-40358.49</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1031142</v>
+      </c>
+      <c r="H19" s="2">
+        <v>-52239.3854</v>
+      </c>
+      <c r="I19" s="2">
+        <v>11157.28</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:10">
+      <c r="A20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="2">
+        <v>71</v>
+      </c>
+      <c r="C20" s="2">
+        <v>276</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>585.6</v>
+      </c>
+      <c r="F20" s="2">
+        <v>-309.6</v>
+      </c>
+      <c r="G20" s="2">
+        <v>276</v>
+      </c>
+      <c r="H20" s="2">
+        <v>-309.6</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:10">
+      <c r="A21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="2">
+        <v>32505</v>
+      </c>
+      <c r="C21" s="2">
+        <v>485253</v>
+      </c>
+      <c r="D21" s="2">
+        <v>4274</v>
+      </c>
+      <c r="E21" s="2">
+        <v>431905.53</v>
+      </c>
+      <c r="F21" s="2">
+        <v>53347.47</v>
+      </c>
+      <c r="G21" s="2">
+        <v>485253</v>
+      </c>
+      <c r="H21" s="2">
+        <v>49728.1879</v>
+      </c>
+      <c r="I21" s="2">
+        <v>3484.25</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:10">
+      <c r="A22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="2">
+        <v>43886</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1595995</v>
+      </c>
+      <c r="D22" s="2">
+        <v>21969</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1861634.03</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-265752.03</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1595882</v>
+      </c>
+      <c r="H22" s="2">
+        <v>-265793.93</v>
+      </c>
+      <c r="I22" s="2">
+        <v>41.9</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:10">
+      <c r="A23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1453</v>
+      </c>
+      <c r="C23" s="2">
+        <v>11901</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1556</v>
+      </c>
+      <c r="E23" s="2">
+        <v>14597.66</v>
+      </c>
+      <c r="F23" s="2">
+        <v>-2696.66</v>
+      </c>
+      <c r="G23" s="2">
+        <v>11901</v>
+      </c>
+      <c r="H23" s="2">
+        <v>-2730.848</v>
+      </c>
+      <c r="I23" s="2">
+        <v>34.19</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" ht="24" spans="1:10">
+      <c r="A24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="2">
+        <v>29685</v>
+      </c>
+      <c r="C24" s="2">
+        <v>249589</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3462</v>
+      </c>
+      <c r="E24" s="2">
+        <v>240783.67</v>
+      </c>
+      <c r="F24" s="2">
+        <v>8827.33</v>
+      </c>
+      <c r="G24" s="2">
+        <v>249611</v>
+      </c>
+      <c r="H24" s="2">
+        <v>8820.63</v>
+      </c>
+      <c r="I24" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" ht="24" spans="1:10">
+      <c r="A25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="2">
+        <v>24215</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1036602</v>
+      </c>
+      <c r="D25" s="2">
+        <v>922</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1047722</v>
+      </c>
+      <c r="F25" s="2">
+        <v>-11120</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1036602</v>
+      </c>
+      <c r="H25" s="2">
+        <v>-13524.479</v>
+      </c>
+      <c r="I25" s="2">
+        <v>2404.48</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:10">
+      <c r="A26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="2">
+        <v>218615</v>
+      </c>
+      <c r="C26" s="2">
+        <v>7060089</v>
+      </c>
+      <c r="D26" s="2">
+        <v>48605</v>
+      </c>
+      <c r="E26" s="2">
+        <v>6884459.67</v>
+      </c>
+      <c r="F26" s="2">
+        <v>178978.33</v>
+      </c>
+      <c r="G26" s="2">
+        <v>7063438</v>
+      </c>
+      <c r="H26" s="2">
+        <v>123035.4047</v>
+      </c>
+      <c r="I26" s="2">
+        <v>52435.54</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:10">
+      <c r="A27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="2">
+        <v>5078</v>
+      </c>
+      <c r="C27" s="2">
+        <v>302878</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1120</v>
+      </c>
+      <c r="E27" s="2">
+        <v>232898.28</v>
+      </c>
+      <c r="F27" s="2">
+        <v>69717.72</v>
+      </c>
+      <c r="G27" s="2">
+        <v>302616</v>
+      </c>
+      <c r="H27" s="2">
+        <v>69202.62</v>
+      </c>
+      <c r="I27" s="2">
+        <v>515.1</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" ht="24" spans="1:10">
+      <c r="A28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="2">
+        <v>110433</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1374655</v>
+      </c>
+      <c r="D28" s="2">
+        <v>3223</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1335028.8</v>
+      </c>
+      <c r="F28" s="2">
+        <v>39552.2</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1374581</v>
+      </c>
+      <c r="H28" s="2">
+        <v>39552.2</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:10">
+      <c r="A29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3021</v>
+      </c>
+      <c r="C29" s="2">
+        <v>26933</v>
+      </c>
+      <c r="D29" s="2">
+        <v>930</v>
+      </c>
+      <c r="E29" s="2">
+        <v>22886.69</v>
+      </c>
+      <c r="F29" s="2">
+        <v>4046.31</v>
+      </c>
+      <c r="G29" s="2">
+        <v>26933</v>
+      </c>
+      <c r="H29" s="2">
+        <v>3971.676</v>
+      </c>
+      <c r="I29" s="2">
+        <v>74.63</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:10">
+      <c r="A30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3653</v>
+      </c>
+      <c r="C30" s="2">
+        <v>293026</v>
+      </c>
+      <c r="D30" s="2">
+        <v>5322</v>
+      </c>
+      <c r="E30" s="2">
+        <v>457896.6</v>
+      </c>
+      <c r="F30" s="2">
+        <v>-164870.6</v>
+      </c>
+      <c r="G30" s="2">
+        <v>293026</v>
+      </c>
+      <c r="H30" s="2">
+        <v>-164870.6</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="1:10">
+      <c r="A31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="2">
+        <v>212267</v>
+      </c>
+      <c r="C31" s="2">
+        <v>8296230</v>
+      </c>
+      <c r="D31" s="2">
+        <v>7499</v>
+      </c>
+      <c r="E31" s="2">
+        <v>8171257.72</v>
+      </c>
+      <c r="F31" s="2">
+        <v>124980.28</v>
+      </c>
+      <c r="G31" s="2">
+        <v>8296238</v>
+      </c>
+      <c r="H31" s="2">
+        <v>120259.9956</v>
+      </c>
+      <c r="I31" s="2">
+        <v>4650.7</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" ht="24" spans="1:10">
+      <c r="A32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="2">
+        <v>46046</v>
+      </c>
+      <c r="C32" s="2">
+        <v>476822</v>
+      </c>
+      <c r="D32" s="2">
+        <v>6891</v>
+      </c>
+      <c r="E32" s="2">
+        <v>460101.38</v>
+      </c>
+      <c r="F32" s="2">
+        <v>16720.62</v>
+      </c>
+      <c r="G32" s="2">
+        <v>476822</v>
+      </c>
+      <c r="H32" s="2">
+        <v>16715.22</v>
+      </c>
+      <c r="I32" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="1:10">
+      <c r="A33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="2">
+        <v>159088</v>
+      </c>
+      <c r="C33" s="2">
+        <v>4755550</v>
+      </c>
+      <c r="D33" s="2">
+        <v>14264</v>
+      </c>
+      <c r="E33" s="2">
+        <v>4650703.8</v>
+      </c>
+      <c r="F33" s="2">
+        <v>106585.2</v>
+      </c>
+      <c r="G33" s="2">
+        <v>4757289</v>
+      </c>
+      <c r="H33" s="2">
+        <v>78226.5944</v>
+      </c>
+      <c r="I33" s="2">
+        <v>27951.12</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" spans="1:10">
+      <c r="A34" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" ht="24.75" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2">
+        <v>6010</v>
+      </c>
+      <c r="C2" s="2">
+        <v>376414</v>
+      </c>
+      <c r="D2" s="2">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2">
+        <v>349623.95</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-12026.95</v>
+      </c>
+      <c r="G2" s="2">
+        <v>337597</v>
+      </c>
+      <c r="H2" s="2">
+        <v>-13381.512</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1347.66</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6740</v>
+      </c>
+      <c r="C3" s="2">
+        <v>399237</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45</v>
+      </c>
+      <c r="E3" s="2">
+        <v>360157</v>
+      </c>
+      <c r="F3" s="2">
+        <v>14163</v>
+      </c>
+      <c r="G3" s="2">
+        <v>374320</v>
+      </c>
+      <c r="H3" s="2">
+        <v>13174.279</v>
+      </c>
+      <c r="I3" s="2">
+        <v>988.46</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:9">
+      <c r="A4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="24.75" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6462</v>
+      </c>
+      <c r="C5" s="2">
+        <v>846468</v>
+      </c>
+      <c r="D5" s="2">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2">
+        <v>760647.6</v>
+      </c>
+      <c r="F5" s="2">
+        <v>33014.4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>793662</v>
+      </c>
+      <c r="H5" s="2">
+        <v>29839.518</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3170.71</v>
+      </c>
+    </row>
+    <row r="6" ht="24.75" spans="1:9">
+      <c r="A6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4468</v>
+      </c>
+      <c r="C6" s="2">
+        <v>604603</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>540936.45</v>
+      </c>
+      <c r="F6" s="2">
+        <v>215.55</v>
+      </c>
+      <c r="G6" s="2">
+        <v>541152</v>
+      </c>
+      <c r="H6" s="2">
+        <v>-1956.796</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2159.25</v>
+      </c>
+    </row>
+    <row r="7" ht="24.75" spans="1:9">
+      <c r="A7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4685</v>
+      </c>
+      <c r="C7" s="2">
+        <v>511770</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>468617.25</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-12020.25</v>
+      </c>
+      <c r="G7" s="2">
+        <v>456597</v>
+      </c>
+      <c r="H7" s="2">
+        <v>-13842.286</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1813.49</v>
+      </c>
+    </row>
+    <row r="8" ht="24.75" spans="1:9">
+      <c r="A8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4348</v>
+      </c>
+      <c r="C8" s="2">
+        <v>594408</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>508942.05</v>
+      </c>
+      <c r="F8" s="2">
+        <v>48908.95</v>
+      </c>
+      <c r="G8" s="2">
+        <v>557851</v>
+      </c>
+      <c r="H8" s="2">
+        <v>46667.38</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2233.24</v>
+      </c>
+    </row>
+    <row r="9" ht="24" spans="1:9">
+      <c r="A9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="2">
+        <v>22089</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1784878</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1634520.65</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-5267.65</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1629253</v>
+      </c>
+      <c r="H9" s="2">
+        <v>-11728.072</v>
+      </c>
+      <c r="I9" s="2">
+        <v>6264.21</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" spans="1:9">
+      <c r="A10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5042</v>
+      </c>
+      <c r="C10" s="2">
+        <v>452209</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2">
+        <v>401536.3</v>
+      </c>
+      <c r="F10" s="2">
+        <v>17462.7</v>
+      </c>
+      <c r="G10" s="2">
+        <v>418999</v>
+      </c>
+      <c r="H10" s="2">
+        <v>15807.652</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1647.31</v>
+      </c>
+    </row>
+    <row r="11" ht="24.75" spans="1:9">
+      <c r="A11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="2">
+        <v>6917</v>
+      </c>
+      <c r="C11" s="2">
+        <v>510863</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1730</v>
+      </c>
+      <c r="E11" s="2">
+        <v>427915.85</v>
+      </c>
+      <c r="F11" s="2">
+        <v>41673.15</v>
+      </c>
+      <c r="G11" s="2">
+        <v>469589</v>
+      </c>
+      <c r="H11" s="2">
+        <v>39815.032</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1844.64</v>
+      </c>
+    </row>
+    <row r="12" ht="24.75" spans="1:9">
+      <c r="A12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="2">
+        <v>6400</v>
+      </c>
+      <c r="C12" s="2">
+        <v>601924</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>572901.35</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-13401.35</v>
+      </c>
+      <c r="G12" s="2">
+        <v>559500</v>
+      </c>
+      <c r="H12" s="2">
+        <v>-15617.852</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2207.25</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" spans="1:9">
+      <c r="A13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="2">
+        <v>5347</v>
+      </c>
+      <c r="C13" s="2">
+        <v>452521</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>401056.35</v>
+      </c>
+      <c r="F13" s="2">
+        <v>15588.65</v>
+      </c>
+      <c r="G13" s="2">
+        <v>416645</v>
+      </c>
+      <c r="H13" s="2">
+        <v>13927.1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1646.62</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:9">
+      <c r="A14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="2">
+        <v>19413</v>
+      </c>
+      <c r="C14" s="2">
+        <v>680977</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1193</v>
+      </c>
+      <c r="E14" s="2">
+        <v>620422.29</v>
+      </c>
+      <c r="F14" s="2">
+        <v>60554.71</v>
+      </c>
+      <c r="G14" s="2">
+        <v>680977</v>
+      </c>
+      <c r="H14" s="2">
+        <v>57786.672</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2745.26</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:9">
+      <c r="A15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="2">
+        <v>5181</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1129413</v>
+      </c>
+      <c r="D15" s="2">
+        <v>14406</v>
+      </c>
+      <c r="E15" s="2">
+        <v>239070.76</v>
+      </c>
+      <c r="F15" s="2">
+        <v>890342.24</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1129413</v>
+      </c>
+      <c r="H15" s="2">
+        <v>889183.957</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1156.1</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:9">
+      <c r="A16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2782</v>
+      </c>
+      <c r="C16" s="2">
+        <v>121601</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2914</v>
+      </c>
+      <c r="E16" s="2">
+        <v>105960.58</v>
+      </c>
+      <c r="F16" s="2">
+        <v>15412.42</v>
+      </c>
+      <c r="G16" s="2">
+        <v>121373</v>
+      </c>
+      <c r="H16" s="2">
+        <v>15284.451</v>
+      </c>
+      <c r="I16" s="2">
+        <v>127.97</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:9">
+      <c r="A17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:9">
+      <c r="A18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="2">
+        <v>36543</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1352339</v>
+      </c>
+      <c r="D18" s="2">
+        <v>12779</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1301147.56</v>
+      </c>
+      <c r="F18" s="2">
+        <v>51191.44</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1352339</v>
+      </c>
+      <c r="H18" s="2">
+        <v>42877.1938</v>
+      </c>
+      <c r="I18" s="2">
+        <v>8223.53</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:9">
+      <c r="A19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="2">
+        <v>30204</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1870333</v>
+      </c>
+      <c r="D19" s="2">
+        <v>27034</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1862777.73</v>
+      </c>
+      <c r="F19" s="2">
+        <v>-15944.73</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1846833</v>
+      </c>
+      <c r="H19" s="2">
+        <v>-20500.6227</v>
+      </c>
+      <c r="I19" s="2">
+        <v>4523.62</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:9">
+      <c r="A20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="2">
+        <v>109</v>
+      </c>
+      <c r="C20" s="2">
+        <v>262</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>97.6</v>
+      </c>
+      <c r="F20" s="2">
+        <v>164.4</v>
+      </c>
+      <c r="G20" s="2">
+        <v>262</v>
+      </c>
+      <c r="H20" s="2">
+        <v>161.4</v>
+      </c>
+      <c r="I20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:9">
+      <c r="A21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="2">
+        <v>20533</v>
+      </c>
+      <c r="C21" s="2">
+        <v>360588</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3934</v>
+      </c>
+      <c r="E21" s="2">
+        <v>348875.18</v>
+      </c>
+      <c r="F21" s="2">
+        <v>11712.82</v>
+      </c>
+      <c r="G21" s="2">
+        <v>360588</v>
+      </c>
+      <c r="H21" s="2">
+        <v>10575.5429</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1131.74</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:9">
+      <c r="A22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="2">
+        <v>41280</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1117494</v>
+      </c>
+      <c r="D22" s="2">
+        <v>18327</v>
+      </c>
+      <c r="E22" s="2">
+        <v>819703.04</v>
+      </c>
+      <c r="F22" s="2">
+        <v>296964.96</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1116668</v>
+      </c>
+      <c r="H22" s="2">
+        <v>296871.88</v>
+      </c>
+      <c r="I22" s="2">
+        <v>93.08</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:9">
+      <c r="A23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1211</v>
+      </c>
+      <c r="C23" s="2">
+        <v>11172</v>
+      </c>
+      <c r="D23" s="2">
+        <v>80</v>
+      </c>
+      <c r="E23" s="2">
+        <v>10731.09</v>
+      </c>
+      <c r="F23" s="2">
+        <v>437.91</v>
+      </c>
+      <c r="G23" s="2">
+        <v>11169</v>
+      </c>
+      <c r="H23" s="2">
+        <v>421.232</v>
+      </c>
+      <c r="I23" s="2">
+        <v>16.68</v>
+      </c>
+    </row>
+    <row r="24" ht="24" spans="1:9">
+      <c r="A24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="2">
+        <v>58640</v>
+      </c>
+      <c r="C24" s="2">
+        <v>362195</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2962</v>
+      </c>
+      <c r="E24" s="2">
+        <v>340391.75</v>
+      </c>
+      <c r="F24" s="2">
+        <v>21699.25</v>
+      </c>
+      <c r="G24" s="2">
+        <v>362091</v>
+      </c>
+      <c r="H24" s="2">
+        <v>21699</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" ht="24" spans="1:9">
+      <c r="A25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="2">
+        <v>24676</v>
+      </c>
+      <c r="C25" s="2">
+        <v>941250</v>
+      </c>
+      <c r="D25" s="2">
+        <v>3448</v>
+      </c>
+      <c r="E25" s="2">
+        <v>943129.74</v>
+      </c>
+      <c r="F25" s="2">
+        <v>-1879.74</v>
+      </c>
+      <c r="G25" s="2">
+        <v>941250</v>
+      </c>
+      <c r="H25" s="2">
+        <v>-3547.491</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1667.75</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:9">
+      <c r="A26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="2">
+        <v>303869</v>
+      </c>
+      <c r="C26" s="2">
+        <v>10682054</v>
+      </c>
+      <c r="D26" s="2">
+        <v>75520</v>
+      </c>
+      <c r="E26" s="2">
+        <v>10563811.85</v>
+      </c>
+      <c r="F26" s="2">
+        <v>109291.15</v>
+      </c>
+      <c r="G26" s="2">
+        <v>10673103</v>
+      </c>
+      <c r="H26" s="2">
+        <v>30238.6477</v>
+      </c>
+      <c r="I26" s="2">
+        <v>70191.64</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:9">
+      <c r="A27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="2">
+        <v>7339</v>
+      </c>
+      <c r="C27" s="2">
+        <v>160608</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2151</v>
+      </c>
+      <c r="E27" s="2">
+        <v>175408.71</v>
+      </c>
+      <c r="F27" s="2">
+        <v>-14800.71</v>
+      </c>
+      <c r="G27" s="2">
+        <v>160608</v>
+      </c>
+      <c r="H27" s="2">
+        <v>-14805.51</v>
+      </c>
+      <c r="I27" s="2">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="28" ht="24" spans="1:9">
+      <c r="A28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="2">
+        <v>133800</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1251266</v>
+      </c>
+      <c r="D28" s="2">
+        <v>4420</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1231371.68</v>
+      </c>
+      <c r="F28" s="2">
+        <v>19445.32</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1250817</v>
+      </c>
+      <c r="H28" s="2">
+        <v>19444.52</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:9">
+      <c r="A29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1876</v>
+      </c>
+      <c r="C29" s="2">
+        <v>16989</v>
+      </c>
+      <c r="D29" s="2">
+        <v>454</v>
+      </c>
+      <c r="E29" s="2">
+        <v>15570.38</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1418.62</v>
+      </c>
+      <c r="G29" s="2">
+        <v>16989</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1403.01</v>
+      </c>
+      <c r="I29" s="2">
+        <v>15.61</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:9">
+      <c r="A30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2756</v>
+      </c>
+      <c r="C30" s="2">
+        <v>114155</v>
+      </c>
+      <c r="D30" s="2">
+        <v>532</v>
+      </c>
+      <c r="E30" s="2">
+        <v>121523.94</v>
+      </c>
+      <c r="F30" s="2">
+        <v>-7368.94</v>
+      </c>
+      <c r="G30" s="2">
+        <v>114155</v>
+      </c>
+      <c r="H30" s="2">
+        <v>-7368.94</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="1:9">
+      <c r="A31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="2">
+        <v>135210</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3085063</v>
+      </c>
+      <c r="D31" s="2">
+        <v>13408</v>
+      </c>
+      <c r="E31" s="2">
+        <v>3136658.27</v>
+      </c>
+      <c r="F31" s="2">
+        <v>-75914.27</v>
+      </c>
+      <c r="G31" s="2">
+        <v>3060744</v>
+      </c>
+      <c r="H31" s="2">
+        <v>-80106.7508</v>
+      </c>
+      <c r="I31" s="2">
+        <v>4108.14</v>
+      </c>
+    </row>
+    <row r="32" ht="24" spans="1:9">
+      <c r="A32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="2">
+        <v>61337</v>
+      </c>
+      <c r="C32" s="2">
+        <v>531074</v>
+      </c>
+      <c r="D32" s="2">
+        <v>4169</v>
+      </c>
+      <c r="E32" s="2">
+        <v>532295.41</v>
+      </c>
+      <c r="F32" s="2">
+        <v>-1478.41</v>
+      </c>
+      <c r="G32" s="2">
+        <v>530817</v>
+      </c>
+      <c r="H32" s="2">
+        <v>-1478.41</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="1:9">
+      <c r="A33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="2">
+        <v>154555</v>
+      </c>
+      <c r="C33" s="2">
+        <v>6067217</v>
+      </c>
+      <c r="D33" s="2">
+        <v>15454</v>
+      </c>
+      <c r="E33" s="2">
+        <v>6014442.86</v>
+      </c>
+      <c r="F33" s="2">
+        <v>48983.14</v>
+      </c>
+      <c r="G33" s="2">
+        <v>6063426</v>
+      </c>
+      <c r="H33" s="2">
+        <v>30744.2625</v>
+      </c>
+      <c r="I33" s="2">
+        <v>17942.41</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" spans="1:9">
+      <c r="A34" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/document/月报数据表.xlsx
+++ b/document/月报数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="96">
   <si>
     <t>日期</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>BY</t>
+  </si>
+  <si>
+    <t>MCZS1T</t>
   </si>
   <si>
     <t>g7001</t>
@@ -592,7 +595,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ ;[Red]\-0\ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -694,6 +697,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1277,16 +1287,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1295,119 +1302,122 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1466,7 +1476,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="11" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1483,6 +1493,9 @@
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="11" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1504,6 +1517,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -2049,10 +2065,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y73"/>
+  <dimension ref="A1:Y76"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="V42" sqref="V42"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="V81" sqref="V81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2149,10 +2165,10 @@
       <c r="W2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="29" t="s">
+      <c r="X2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="29" t="s">
+      <c r="Y2" s="30" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2210,8 +2226,8 @@
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
       <c r="W3" s="13"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:25">
       <c r="A4" s="15" t="s">
@@ -2601,11 +2617,11 @@
       <c r="V8" s="16">
         <v>0</v>
       </c>
-      <c r="W8" s="31">
+      <c r="W8" s="32">
         <v>-22726</v>
       </c>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="32"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
     </row>
     <row r="9" ht="14.25" spans="1:25">
       <c r="A9" s="15"/>
@@ -2676,10 +2692,10 @@
         <f t="shared" ref="W9:W14" si="3">S9-T9-U9-V9</f>
         <v>-706624.48</v>
       </c>
-      <c r="X9" s="32">
+      <c r="X9" s="33">
         <v>293</v>
       </c>
-      <c r="Y9" s="32">
+      <c r="Y9" s="33">
         <v>135</v>
       </c>
     </row>
@@ -2752,10 +2768,10 @@
         <f t="shared" si="3"/>
         <v>-477859.098</v>
       </c>
-      <c r="X10" s="32">
+      <c r="X10" s="33">
         <v>260</v>
       </c>
-      <c r="Y10" s="32">
+      <c r="Y10" s="33">
         <v>122</v>
       </c>
     </row>
@@ -2854,8 +2870,8 @@
       <c r="W12" s="16">
         <v>119587</v>
       </c>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
     </row>
     <row r="13" ht="14.25" spans="1:25">
       <c r="A13" s="15"/>
@@ -2926,10 +2942,10 @@
         <f t="shared" si="3"/>
         <v>-3876996.018</v>
       </c>
-      <c r="X13" s="32">
+      <c r="X13" s="33">
         <v>634</v>
       </c>
-      <c r="Y13" s="32">
+      <c r="Y13" s="33">
         <v>380</v>
       </c>
     </row>
@@ -3002,10 +3018,10 @@
         <f t="shared" si="3"/>
         <v>2744999.903</v>
       </c>
-      <c r="X14" s="32">
+      <c r="X14" s="33">
         <v>597</v>
       </c>
-      <c r="Y14" s="32">
+      <c r="Y14" s="33">
         <v>335</v>
       </c>
     </row>
@@ -3104,8 +3120,8 @@
       <c r="W16" s="16">
         <v>550683</v>
       </c>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
     </row>
     <row r="17" ht="14.25" spans="1:25">
       <c r="A17" s="15"/>
@@ -3176,10 +3192,10 @@
         <f>S17-T17-U17-V17</f>
         <v>-13530510.169</v>
       </c>
-      <c r="X17" s="32">
+      <c r="X17" s="33">
         <v>291</v>
       </c>
-      <c r="Y17" s="32">
+      <c r="Y17" s="33">
         <v>135</v>
       </c>
     </row>
@@ -3252,14 +3268,14 @@
         <f>S18-T18-U18-V18</f>
         <v>539166.3727</v>
       </c>
-      <c r="X18" s="32">
+      <c r="X18" s="33">
         <v>255</v>
       </c>
-      <c r="Y18" s="32">
+      <c r="Y18" s="33">
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="2:23">
+    <row r="19" ht="14.25" spans="2:23">
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -3283,45 +3299,134 @@
       <c r="V19" s="19"/>
       <c r="W19" s="19"/>
     </row>
+    <row r="20" customFormat="1" ht="14.25" spans="1:25">
+      <c r="A20" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="33"/>
+    </row>
+    <row r="21" customFormat="1" ht="14.25" spans="1:25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="33"/>
+    </row>
+    <row r="22" customFormat="1" ht="14.25" spans="1:25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="33"/>
+    </row>
     <row r="23" ht="14.25"/>
     <row r="24" ht="15.75" spans="1:18">
       <c r="A24" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K24" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="M24" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" s="27" t="s">
         <v>10</v>
       </c>
       <c r="N24" s="21" t="s">
@@ -3353,7 +3458,7 @@
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
       <c r="L25" s="21"/>
-      <c r="M25" s="27" t="s">
+      <c r="M25" s="28" t="s">
         <v>25</v>
       </c>
       <c r="N25" s="21"/>
@@ -3362,7 +3467,7 @@
       <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
     </row>
-    <row r="26" ht="15.75" spans="1:19">
+    <row r="26" ht="15.75" spans="1:20">
       <c r="A26" s="20"/>
       <c r="B26" s="22" t="s">
         <v>27</v>
@@ -3400,7 +3505,7 @@
       <c r="M26" s="23">
         <v>11568035</v>
       </c>
-      <c r="N26" s="28">
+      <c r="N26" s="29">
         <v>-485042</v>
       </c>
       <c r="O26" s="23">
@@ -3412,15 +3517,18 @@
       <c r="Q26" s="23">
         <v>0</v>
       </c>
-      <c r="R26" s="28">
+      <c r="R26" s="29">
         <v>-547848</v>
       </c>
       <c r="S26" s="9">
         <f>N26-O26-P26-Q26</f>
         <v>-547848</v>
       </c>
-    </row>
-    <row r="27" ht="15.75" spans="1:19">
+      <c r="T26" s="34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" spans="1:20">
       <c r="A27" s="20"/>
       <c r="B27" s="22" t="s">
         <v>28</v>
@@ -3478,9 +3586,10 @@
         <f>N27-O27-P27-Q27</f>
         <v>947133.376</v>
       </c>
-    </row>
-    <row r="28" ht="15.75" spans="1:19">
-      <c r="A28" s="20"/>
+      <c r="T27" s="34"/>
+    </row>
+    <row r="28" ht="15.75" spans="1:20">
+      <c r="A28"/>
       <c r="B28" s="22" t="s">
         <v>29</v>
       </c>
@@ -3537,6 +3646,7 @@
         <f>N28-O28-P28-Q28</f>
         <v>219639.805</v>
       </c>
+      <c r="T28" s="34"/>
     </row>
     <row r="29" ht="15" spans="2:23">
       <c r="B29" s="24"/>
@@ -3556,12 +3666,13 @@
       <c r="P29" s="24"/>
       <c r="Q29" s="24"/>
       <c r="R29" s="24"/>
-      <c r="S29" s="33"/>
-      <c r="W29" s="33"/>
-    </row>
-    <row r="30" ht="15.75" spans="1:19">
-      <c r="A30" s="20" t="s">
-        <v>44</v>
+      <c r="S29" s="35"/>
+      <c r="T29"/>
+      <c r="W29" s="35"/>
+    </row>
+    <row r="30" ht="15.75" spans="1:20">
+      <c r="A30" s="26" t="s">
+        <v>45</v>
       </c>
       <c r="B30" s="22" t="s">
         <v>27</v>
@@ -3599,7 +3710,7 @@
       <c r="M30" s="23">
         <v>2140797</v>
       </c>
-      <c r="N30" s="28">
+      <c r="N30" s="29">
         <v>-6895</v>
       </c>
       <c r="O30" s="23">
@@ -3611,16 +3722,19 @@
       <c r="Q30" s="23">
         <v>0</v>
       </c>
-      <c r="R30" s="28">
+      <c r="R30" s="29">
         <v>-7815</v>
       </c>
       <c r="S30" s="9">
         <f>N30-O30-P30-Q30</f>
         <v>-7815</v>
       </c>
-    </row>
-    <row r="31" ht="15.75" spans="1:19">
-      <c r="A31" s="20"/>
+      <c r="T30" s="34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" spans="1:20">
+      <c r="A31" s="26"/>
       <c r="B31" s="22" t="s">
         <v>28</v>
       </c>
@@ -3677,9 +3791,10 @@
         <f>N31-O31-P31-Q31</f>
         <v>72726</v>
       </c>
-    </row>
-    <row r="32" ht="15.75" spans="1:19">
-      <c r="A32" s="20"/>
+      <c r="T31" s="34"/>
+    </row>
+    <row r="32" ht="15.75" spans="1:20">
+      <c r="A32" s="26"/>
       <c r="B32" s="22" t="s">
         <v>29</v>
       </c>
@@ -3736,6 +3851,7 @@
         <f>N32-O32-P32-Q32</f>
         <v>-311951.71</v>
       </c>
+      <c r="T32" s="34"/>
     </row>
     <row r="33" ht="15" spans="2:23">
       <c r="B33" s="24"/>
@@ -3755,12 +3871,13 @@
       <c r="P33" s="24"/>
       <c r="Q33" s="24"/>
       <c r="R33" s="24"/>
-      <c r="S33" s="33"/>
-      <c r="W33" s="33"/>
-    </row>
-    <row r="34" ht="15.75" spans="1:19">
-      <c r="A34" s="20" t="s">
-        <v>45</v>
+      <c r="S33" s="35"/>
+      <c r="T33"/>
+      <c r="W33" s="35"/>
+    </row>
+    <row r="34" ht="15.75" spans="1:20">
+      <c r="A34" s="26" t="s">
+        <v>46</v>
       </c>
       <c r="B34" s="22" t="s">
         <v>27</v>
@@ -3817,9 +3934,12 @@
         <f>N34-O34-P34-Q34</f>
         <v>335880</v>
       </c>
-    </row>
-    <row r="35" ht="15.75" spans="1:19">
-      <c r="A35" s="20"/>
+      <c r="T34" s="34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" spans="1:20">
+      <c r="A35" s="26"/>
       <c r="B35" s="22" t="s">
         <v>28</v>
       </c>
@@ -3876,9 +3996,10 @@
         <f>N35-O35-P35-Q35</f>
         <v>183616.323</v>
       </c>
-    </row>
-    <row r="36" ht="15.75" spans="1:19">
-      <c r="A36" s="20"/>
+      <c r="T35" s="34"/>
+    </row>
+    <row r="36" ht="15.75" spans="1:20">
+      <c r="A36" s="26"/>
       <c r="B36" s="22" t="s">
         <v>29</v>
       </c>
@@ -3935,6 +4056,7 @@
         <f>N36-O36-P36-Q36</f>
         <v>697959.515</v>
       </c>
+      <c r="T36" s="34"/>
     </row>
     <row r="37" ht="15" spans="2:23">
       <c r="B37" s="24"/>
@@ -3954,12 +4076,13 @@
       <c r="P37" s="24"/>
       <c r="Q37" s="24"/>
       <c r="R37" s="24"/>
-      <c r="S37" s="33"/>
-      <c r="W37" s="33"/>
-    </row>
-    <row r="38" ht="15.75" spans="1:19">
-      <c r="A38" s="20" t="s">
-        <v>46</v>
+      <c r="S37" s="35"/>
+      <c r="T37"/>
+      <c r="W37" s="35"/>
+    </row>
+    <row r="38" ht="15.75" spans="1:20">
+      <c r="A38" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="B38" s="22" t="s">
         <v>27</v>
@@ -4016,9 +4139,12 @@
         <f>N38-O38-P38-Q38</f>
         <v>195609</v>
       </c>
-    </row>
-    <row r="39" ht="15.75" spans="1:19">
-      <c r="A39" s="20"/>
+      <c r="T38" s="34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" spans="1:20">
+      <c r="A39" s="26"/>
       <c r="B39" s="22" t="s">
         <v>28</v>
       </c>
@@ -4074,9 +4200,10 @@
         <f>N39-O39-P39-Q39</f>
         <v>82695</v>
       </c>
-    </row>
-    <row r="40" ht="15.75" spans="1:19">
-      <c r="A40" s="20"/>
+      <c r="T39" s="34"/>
+    </row>
+    <row r="40" ht="15.75" spans="1:20">
+      <c r="A40" s="26"/>
       <c r="B40" s="22" t="s">
         <v>29</v>
       </c>
@@ -4133,8 +4260,9 @@
         <f>N40-O40-P40-Q40</f>
         <v>-13329.678</v>
       </c>
-    </row>
-    <row r="41" ht="14.25" spans="2:18">
+      <c r="T40" s="34"/>
+    </row>
+    <row r="41" ht="15" spans="2:20">
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
       <c r="D41" s="24"/>
@@ -4152,690 +4280,798 @@
       <c r="P41" s="24"/>
       <c r="Q41" s="24"/>
       <c r="R41" s="24"/>
-    </row>
-    <row r="42" ht="15" spans="2:18">
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="24"/>
-      <c r="R42" s="24"/>
-    </row>
-    <row r="43" ht="15.75" spans="2:18">
-      <c r="B43" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G43" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="I43" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="J43" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="K43" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="L43" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="M43" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="N43" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="O43" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="P43" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q43" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="R43" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" spans="2:18">
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21"/>
-    </row>
-    <row r="45" ht="15.75" spans="1:19">
-      <c r="A45" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="22" t="s">
+      <c r="T41"/>
+    </row>
+    <row r="42" ht="15" spans="1:20">
+      <c r="A42" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="22">
+      <c r="C42" s="22">
         <v>529</v>
       </c>
-      <c r="D45" s="22">
+      <c r="D42" s="22">
         <v>918</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E42" s="22">
         <v>370</v>
       </c>
-      <c r="F45" s="22">
+      <c r="F42" s="22">
         <v>331</v>
       </c>
-      <c r="G45" s="22">
+      <c r="G42" s="22">
         <v>3811</v>
       </c>
-      <c r="H45" s="22">
+      <c r="H42" s="22">
         <v>4670884</v>
       </c>
-      <c r="I45" s="22">
+      <c r="I42" s="22">
         <v>228</v>
       </c>
-      <c r="J45" s="22">
+      <c r="J42" s="22">
         <v>1479</v>
       </c>
-      <c r="K45" s="22">
+      <c r="K42" s="22">
         <v>4523798</v>
       </c>
-      <c r="L45" s="22">
+      <c r="L42" s="22">
         <v>149</v>
       </c>
-      <c r="M45" s="22">
+      <c r="M42" s="22">
         <v>16233893</v>
       </c>
-      <c r="N45" s="22">
+      <c r="N42" s="22">
         <v>200372</v>
       </c>
-      <c r="O45" s="22">
+      <c r="O42" s="22">
         <v>141210</v>
       </c>
-      <c r="P45" s="22">
+      <c r="P42" s="22">
         <v>27833</v>
       </c>
-      <c r="Q45" s="22">
-        <v>0</v>
-      </c>
-      <c r="R45" s="22">
+      <c r="Q42" s="22">
+        <v>0</v>
+      </c>
+      <c r="R42" s="22">
         <v>31329</v>
       </c>
-      <c r="S45" s="9">
-        <f t="shared" ref="S45:S47" si="6">N45-O45-P45-Q45</f>
+      <c r="S42" s="9">
+        <f t="shared" ref="S42:S44" si="6">N42-O42-P42-Q42</f>
         <v>31329</v>
       </c>
-    </row>
-    <row r="46" ht="15" spans="1:19">
-      <c r="A46" s="20"/>
-      <c r="B46" s="22" t="s">
+      <c r="T42" s="34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" ht="15" spans="1:20">
+      <c r="A43" s="26"/>
+      <c r="B43" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="22">
+      <c r="C43" s="22">
         <v>339</v>
       </c>
-      <c r="D46" s="22">
+      <c r="D43" s="22">
         <v>713</v>
       </c>
-      <c r="E46" s="22">
+      <c r="E43" s="22">
         <v>270</v>
       </c>
-      <c r="F46" s="22">
+      <c r="F43" s="22">
         <v>222</v>
       </c>
-      <c r="G46" s="22">
+      <c r="G43" s="22">
         <v>2620</v>
       </c>
-      <c r="H46" s="22">
+      <c r="H43" s="22">
         <v>2320295</v>
       </c>
-      <c r="I46" s="22">
+      <c r="I43" s="22">
         <v>163</v>
       </c>
-      <c r="J46" s="22">
+      <c r="J43" s="22">
         <v>939</v>
       </c>
-      <c r="K46" s="22">
+      <c r="K43" s="22">
         <v>6406267</v>
       </c>
-      <c r="L46" s="22">
+      <c r="L43" s="22">
         <v>56</v>
       </c>
-      <c r="M46" s="22">
+      <c r="M43" s="22">
         <v>64094394</v>
       </c>
-      <c r="N46" s="22">
+      <c r="N43" s="22">
         <v>-4010972</v>
       </c>
-      <c r="O46" s="22">
+      <c r="O43" s="22">
         <v>63739</v>
       </c>
-      <c r="P46" s="22">
+      <c r="P43" s="22">
         <v>33135</v>
       </c>
-      <c r="Q46" s="22">
-        <v>0</v>
-      </c>
-      <c r="R46" s="22">
+      <c r="Q43" s="22">
+        <v>0</v>
+      </c>
+      <c r="R43" s="22">
         <v>-4107846</v>
       </c>
-      <c r="S46" s="9">
+      <c r="S43" s="9">
         <f t="shared" si="6"/>
         <v>-4107846</v>
       </c>
-    </row>
-    <row r="47" ht="15" spans="1:19">
-      <c r="A47" s="20"/>
-      <c r="B47" s="22" t="s">
+      <c r="T43" s="34"/>
+    </row>
+    <row r="44" ht="15" spans="1:20">
+      <c r="A44" s="26"/>
+      <c r="B44" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="22">
+      <c r="C44" s="22">
         <v>445</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D44" s="22">
         <v>835</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E44" s="22">
         <v>359</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F44" s="22">
         <v>218</v>
       </c>
-      <c r="G47" s="22">
+      <c r="G44" s="22">
         <v>3249</v>
       </c>
-      <c r="H47" s="22">
+      <c r="H44" s="22">
         <v>3664627</v>
       </c>
-      <c r="I47" s="22">
+      <c r="I44" s="22">
         <v>153</v>
       </c>
-      <c r="J47" s="22">
+      <c r="J44" s="22">
         <v>1011</v>
       </c>
-      <c r="K47" s="22">
+      <c r="K44" s="22">
         <v>2973932</v>
       </c>
-      <c r="L47" s="22">
+      <c r="L44" s="22">
         <v>80</v>
       </c>
-      <c r="M47" s="22">
+      <c r="M44" s="22">
         <v>23551529</v>
       </c>
-      <c r="N47" s="22">
+      <c r="N44" s="22">
         <v>834689.17</v>
       </c>
-      <c r="O47" s="22">
+      <c r="O44" s="22">
         <v>103018.78</v>
       </c>
-      <c r="P47" s="22">
+      <c r="P44" s="22">
         <v>44142.026</v>
       </c>
-      <c r="Q47" s="22">
-        <v>0</v>
-      </c>
-      <c r="R47" s="22">
-        <f>N47-O47-P47-Q47</f>
+      <c r="Q44" s="22">
+        <v>0</v>
+      </c>
+      <c r="R44" s="22">
+        <f>N44-O44-P44-Q44</f>
         <v>687528.364</v>
       </c>
-      <c r="S47" s="9">
+      <c r="S44" s="9">
         <f t="shared" si="6"/>
         <v>687528.364</v>
       </c>
-    </row>
-    <row r="48" ht="15" spans="2:18">
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="24"/>
-      <c r="R48" s="24"/>
-    </row>
-    <row r="49" ht="15" spans="1:19">
-      <c r="A49" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="22" t="s">
+      <c r="T44" s="34"/>
+    </row>
+    <row r="45" ht="15" spans="2:20">
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24"/>
+      <c r="T45"/>
+    </row>
+    <row r="46" ht="15" spans="1:20">
+      <c r="A46" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="22">
+      <c r="C46" s="22">
         <v>106</v>
       </c>
-      <c r="D49" s="22">
+      <c r="D46" s="22">
         <v>551</v>
       </c>
-      <c r="E49" s="22">
+      <c r="E46" s="22">
         <v>355</v>
       </c>
-      <c r="F49" s="22">
+      <c r="F46" s="22">
         <v>325</v>
       </c>
-      <c r="G49" s="22">
+      <c r="G46" s="22">
         <v>9636</v>
       </c>
-      <c r="H49" s="22">
+      <c r="H46" s="22">
         <v>7191082</v>
       </c>
-      <c r="I49" s="22">
+      <c r="I46" s="22">
         <v>270</v>
       </c>
-      <c r="J49" s="22">
+      <c r="J46" s="22">
         <v>3149</v>
       </c>
-      <c r="K49" s="22">
+      <c r="K46" s="22">
         <v>7075639</v>
       </c>
-      <c r="L49" s="22">
+      <c r="L46" s="22">
         <v>54</v>
       </c>
-      <c r="M49" s="22">
+      <c r="M46" s="22">
         <v>23700932</v>
       </c>
-      <c r="N49" s="22">
+      <c r="N46" s="22">
         <v>563753</v>
       </c>
-      <c r="O49" s="22">
+      <c r="O46" s="22">
         <v>441121</v>
       </c>
-      <c r="P49" s="22">
+      <c r="P46" s="22">
         <v>36278</v>
       </c>
-      <c r="Q49" s="22">
+      <c r="Q46" s="22">
         <v>814</v>
       </c>
-      <c r="R49" s="22">
+      <c r="R46" s="22">
         <v>86354</v>
       </c>
-      <c r="S49" s="9">
-        <f t="shared" ref="S49:S51" si="7">N49-O49-P49-Q49</f>
+      <c r="S46" s="9">
+        <f t="shared" ref="S46:S48" si="7">N46-O46-P46-Q46</f>
         <v>85540</v>
       </c>
-    </row>
-    <row r="50" ht="15" spans="1:19">
-      <c r="A50" s="20"/>
-      <c r="B50" s="22" t="s">
+      <c r="T46" s="34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" ht="15" spans="1:20">
+      <c r="A47" s="26"/>
+      <c r="B47" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="22">
+      <c r="C47" s="22">
         <v>123</v>
       </c>
-      <c r="D50" s="22">
+      <c r="D47" s="22">
         <v>527</v>
       </c>
-      <c r="E50" s="22">
+      <c r="E47" s="22">
         <v>367</v>
       </c>
-      <c r="F50" s="22">
+      <c r="F47" s="22">
         <v>343</v>
       </c>
-      <c r="G50" s="22">
+      <c r="G47" s="22">
         <v>9642</v>
       </c>
-      <c r="H50" s="22">
+      <c r="H47" s="22">
         <v>3732098</v>
       </c>
-      <c r="I50" s="22">
+      <c r="I47" s="22">
         <v>304</v>
       </c>
-      <c r="J50" s="22">
+      <c r="J47" s="22">
         <v>3562</v>
       </c>
-      <c r="K50" s="22">
+      <c r="K47" s="22">
         <v>3816278</v>
       </c>
-      <c r="L50" s="22">
+      <c r="L47" s="22">
         <v>77</v>
       </c>
-      <c r="M50" s="22">
+      <c r="M47" s="22">
         <v>12628911</v>
       </c>
-      <c r="N50" s="22">
+      <c r="N47" s="22">
         <v>270114</v>
       </c>
-      <c r="O50" s="22">
+      <c r="O47" s="22">
         <v>381741</v>
       </c>
-      <c r="P50" s="22">
+      <c r="P47" s="22">
         <v>15822</v>
       </c>
-      <c r="Q50" s="22">
+      <c r="Q47" s="22">
         <v>993</v>
       </c>
-      <c r="R50" s="22">
+      <c r="R47" s="22">
         <v>-128442</v>
       </c>
-      <c r="S50" s="9">
+      <c r="S47" s="9">
         <f t="shared" si="7"/>
         <v>-128442</v>
       </c>
-    </row>
-    <row r="51" ht="15" spans="1:19">
-      <c r="A51" s="20"/>
-      <c r="B51" s="22" t="s">
+      <c r="T47" s="34"/>
+    </row>
+    <row r="48" ht="15" spans="1:20">
+      <c r="A48" s="26"/>
+      <c r="B48" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C51" s="22">
+      <c r="C48" s="22">
         <v>51</v>
       </c>
-      <c r="D51" s="22">
+      <c r="D48" s="22">
         <v>477</v>
       </c>
-      <c r="E51" s="22">
+      <c r="E48" s="22">
         <v>318</v>
       </c>
-      <c r="F51" s="22">
+      <c r="F48" s="22">
         <v>291</v>
       </c>
-      <c r="G51" s="22">
+      <c r="G48" s="22">
         <v>7040</v>
       </c>
-      <c r="H51" s="22">
+      <c r="H48" s="22">
         <v>2557033.08</v>
       </c>
-      <c r="I51" s="22">
+      <c r="I48" s="22">
         <v>244</v>
       </c>
-      <c r="J51" s="22">
+      <c r="J48" s="22">
         <v>2393</v>
       </c>
-      <c r="K51" s="22">
+      <c r="K48" s="22">
         <v>2586422</v>
       </c>
-      <c r="L51" s="22">
+      <c r="L48" s="22">
         <v>20</v>
       </c>
-      <c r="M51" s="22">
+      <c r="M48" s="22">
         <v>15863044</v>
       </c>
-      <c r="N51" s="22">
+      <c r="N48" s="22">
         <v>186220.02</v>
       </c>
-      <c r="O51" s="22">
+      <c r="O48" s="22">
         <v>132137.18</v>
       </c>
-      <c r="P51" s="22">
+      <c r="P48" s="22">
         <v>23919.17</v>
       </c>
-      <c r="Q51" s="22">
+      <c r="Q48" s="22">
         <v>1275.674</v>
       </c>
-      <c r="R51" s="22">
-        <f>N51-O51-P51-Q51</f>
+      <c r="R48" s="22">
+        <f>N48-O48-P48-Q48</f>
         <v>28887.996</v>
       </c>
-      <c r="S51" s="9">
+      <c r="S48" s="9">
         <f t="shared" si="7"/>
         <v>28887.996</v>
       </c>
-    </row>
-    <row r="52" ht="15" spans="2:18">
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="24"/>
-      <c r="N52" s="24"/>
-      <c r="O52" s="24"/>
-      <c r="P52" s="24"/>
-      <c r="Q52" s="24"/>
-      <c r="R52" s="24"/>
-    </row>
-    <row r="53" ht="15" spans="1:19">
-      <c r="A53" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53" s="22" t="s">
+      <c r="T48" s="34"/>
+    </row>
+    <row r="49" ht="15" spans="2:20">
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="24"/>
+      <c r="T49"/>
+    </row>
+    <row r="50" ht="15" spans="1:20">
+      <c r="A50" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="22">
+      <c r="C50" s="22">
         <v>124</v>
       </c>
-      <c r="D53" s="22">
+      <c r="D50" s="22">
         <v>348</v>
       </c>
-      <c r="E53" s="22">
+      <c r="E50" s="22">
         <v>158</v>
       </c>
-      <c r="F53" s="22">
+      <c r="F50" s="22">
         <v>144</v>
       </c>
-      <c r="G53" s="22">
+      <c r="G50" s="22">
         <v>3066</v>
       </c>
-      <c r="H53" s="22">
+      <c r="H50" s="22">
         <v>1125895</v>
       </c>
-      <c r="I53" s="22">
+      <c r="I50" s="22">
         <v>81</v>
       </c>
-      <c r="J53" s="22">
+      <c r="J50" s="22">
         <v>1053</v>
       </c>
-      <c r="K53" s="22">
+      <c r="K50" s="22">
         <v>1220822</v>
       </c>
-      <c r="L53" s="22">
+      <c r="L50" s="22">
         <v>42</v>
       </c>
-      <c r="M53" s="22">
+      <c r="M50" s="22">
         <v>12929891</v>
       </c>
-      <c r="N53" s="22">
+      <c r="N50" s="22">
         <v>3578</v>
       </c>
-      <c r="O53" s="22">
+      <c r="O50" s="22">
         <v>59180</v>
       </c>
-      <c r="P53" s="22">
+      <c r="P50" s="22">
         <v>41418</v>
       </c>
-      <c r="Q53" s="22">
+      <c r="Q50" s="22">
         <v>741</v>
       </c>
-      <c r="R53" s="34">
+      <c r="R50" s="36">
         <v>-97020</v>
       </c>
-      <c r="S53" s="9">
-        <f t="shared" ref="S53:S55" si="8">N53-O53-P53-Q53</f>
+      <c r="S50" s="9">
+        <f t="shared" ref="S50:S52" si="8">N50-O50-P50-Q50</f>
         <v>-97761</v>
       </c>
-    </row>
-    <row r="54" ht="15" spans="1:19">
-      <c r="A54" s="20"/>
-      <c r="B54" s="22" t="s">
+      <c r="T50" s="34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" ht="15" spans="1:20">
+      <c r="A51" s="26"/>
+      <c r="B51" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="22">
+      <c r="C51" s="22">
         <v>86</v>
       </c>
-      <c r="D54" s="22">
+      <c r="D51" s="22">
         <v>298</v>
       </c>
-      <c r="E54" s="22">
+      <c r="E51" s="22">
         <v>149</v>
       </c>
-      <c r="F54" s="22">
+      <c r="F51" s="22">
         <v>134</v>
       </c>
-      <c r="G54" s="22">
+      <c r="G51" s="22">
         <v>2424</v>
       </c>
-      <c r="H54" s="22">
+      <c r="H51" s="22">
         <v>1238423</v>
       </c>
-      <c r="I54" s="22">
+      <c r="I51" s="22">
         <v>79</v>
       </c>
-      <c r="J54" s="22">
+      <c r="J51" s="22">
         <v>719</v>
       </c>
-      <c r="K54" s="22">
+      <c r="K51" s="22">
         <v>1116846</v>
       </c>
-      <c r="L54" s="22">
+      <c r="L51" s="22">
         <v>38</v>
       </c>
-      <c r="M54" s="22">
+      <c r="M51" s="22">
         <v>10131936</v>
       </c>
-      <c r="N54" s="22">
+      <c r="N51" s="22">
         <v>211636</v>
       </c>
-      <c r="O54" s="22">
+      <c r="O51" s="22">
         <v>32930</v>
       </c>
-      <c r="P54" s="22">
+      <c r="P51" s="22">
         <v>45616</v>
       </c>
-      <c r="Q54" s="22">
+      <c r="Q51" s="22">
         <v>570</v>
       </c>
-      <c r="R54" s="22">
+      <c r="R51" s="22">
         <v>132520</v>
       </c>
-      <c r="S54" s="9">
+      <c r="S51" s="9">
         <f t="shared" si="8"/>
         <v>132520</v>
       </c>
-    </row>
-    <row r="55" ht="15" spans="1:19">
-      <c r="A55" s="20"/>
-      <c r="B55" s="22" t="s">
+      <c r="T51" s="34"/>
+    </row>
+    <row r="52" ht="15" spans="1:20">
+      <c r="A52" s="26"/>
+      <c r="B52" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="22">
+      <c r="C52" s="22">
         <v>152</v>
       </c>
-      <c r="D55" s="22">
+      <c r="D52" s="22">
         <v>382</v>
       </c>
-      <c r="E55" s="22">
+      <c r="E52" s="22">
         <v>188</v>
       </c>
-      <c r="F55" s="22">
+      <c r="F52" s="22">
         <v>172</v>
       </c>
-      <c r="G55" s="22">
+      <c r="G52" s="22">
         <v>2410</v>
       </c>
-      <c r="H55" s="22">
+      <c r="H52" s="22">
         <v>1480949.1</v>
       </c>
-      <c r="I55" s="22">
+      <c r="I52" s="22">
         <v>103</v>
       </c>
-      <c r="J55" s="22">
+      <c r="J52" s="22">
         <v>833</v>
       </c>
-      <c r="K55" s="22">
+      <c r="K52" s="22">
         <v>1617312</v>
       </c>
-      <c r="L55" s="22">
+      <c r="L52" s="22">
         <v>79</v>
       </c>
-      <c r="M55" s="22">
+      <c r="M52" s="22">
         <v>10235563</v>
       </c>
-      <c r="N55" s="22">
+      <c r="N52" s="22">
         <f>-85211.13</f>
         <v>-85211.13</v>
       </c>
-      <c r="O55" s="22">
+      <c r="O52" s="22">
         <v>27215.38</v>
       </c>
-      <c r="P55" s="22">
+      <c r="P52" s="22">
         <v>43065.548</v>
       </c>
-      <c r="Q55" s="22">
+      <c r="Q52" s="22">
         <v>587.11</v>
       </c>
-      <c r="R55" s="22">
-        <f>N55-O55-P55-Q55</f>
+      <c r="R52" s="22">
+        <f>N52-O52-P52-Q52</f>
         <v>-156079.168</v>
       </c>
-      <c r="S55" s="9">
+      <c r="S52" s="9">
         <f t="shared" si="8"/>
         <v>-156079.168</v>
       </c>
-    </row>
-    <row r="56" ht="14.25" spans="2:18">
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="24"/>
-      <c r="N56" s="24"/>
-      <c r="O56" s="24"/>
-      <c r="P56" s="24"/>
-      <c r="Q56" s="24"/>
-      <c r="R56" s="24"/>
-    </row>
-    <row r="57" ht="15" spans="2:18">
+      <c r="T52" s="34"/>
+    </row>
+    <row r="53" ht="15" spans="2:20">
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="24"/>
+      <c r="T53"/>
+    </row>
+    <row r="54" ht="15" spans="1:20">
+      <c r="A54" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="22">
+        <v>161</v>
+      </c>
+      <c r="D54" s="22">
+        <v>276</v>
+      </c>
+      <c r="E54" s="22">
+        <v>117</v>
+      </c>
+      <c r="F54" s="22">
+        <v>111</v>
+      </c>
+      <c r="G54" s="22">
+        <v>1512</v>
+      </c>
+      <c r="H54" s="22">
+        <v>1612209</v>
+      </c>
+      <c r="I54" s="22">
+        <v>68</v>
+      </c>
+      <c r="J54" s="22">
+        <v>370</v>
+      </c>
+      <c r="K54" s="22">
+        <v>1551252</v>
+      </c>
+      <c r="L54" s="22">
+        <v>57</v>
+      </c>
+      <c r="M54" s="22">
+        <v>10715476</v>
+      </c>
+      <c r="N54" s="22">
+        <v>121335</v>
+      </c>
+      <c r="O54" s="22">
+        <v>19779</v>
+      </c>
+      <c r="P54" s="22">
+        <v>36826</v>
+      </c>
+      <c r="Q54" s="22">
+        <v>0</v>
+      </c>
+      <c r="R54" s="22">
+        <v>64730</v>
+      </c>
+      <c r="S54" s="9">
+        <f t="shared" ref="S54:S56" si="9">N54-O54-P54-Q54</f>
+        <v>64730</v>
+      </c>
+      <c r="T54" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" ht="15" spans="1:20">
+      <c r="A55" s="26"/>
+      <c r="B55" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="22">
+        <v>69</v>
+      </c>
+      <c r="D55" s="22">
+        <v>209</v>
+      </c>
+      <c r="E55" s="22">
+        <v>91</v>
+      </c>
+      <c r="F55" s="22">
+        <v>82</v>
+      </c>
+      <c r="G55" s="22">
+        <v>1952</v>
+      </c>
+      <c r="H55" s="22">
+        <v>949783</v>
+      </c>
+      <c r="I55" s="22">
+        <v>56</v>
+      </c>
+      <c r="J55" s="22">
+        <v>459</v>
+      </c>
+      <c r="K55" s="22">
+        <v>896316</v>
+      </c>
+      <c r="L55" s="22">
+        <v>12</v>
+      </c>
+      <c r="M55" s="22">
+        <v>7245001</v>
+      </c>
+      <c r="N55" s="22">
+        <v>58495</v>
+      </c>
+      <c r="O55" s="22">
+        <v>21864</v>
+      </c>
+      <c r="P55" s="22">
+        <v>24357</v>
+      </c>
+      <c r="Q55" s="22">
+        <v>0</v>
+      </c>
+      <c r="R55" s="22">
+        <v>12274</v>
+      </c>
+      <c r="S55" s="9">
+        <f t="shared" si="9"/>
+        <v>12274</v>
+      </c>
+      <c r="T55" s="34"/>
+    </row>
+    <row r="56" ht="15" spans="1:20">
+      <c r="A56" s="26"/>
+      <c r="B56" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="22">
+        <v>45</v>
+      </c>
+      <c r="D56" s="22">
+        <v>205</v>
+      </c>
+      <c r="E56" s="22">
+        <v>99</v>
+      </c>
+      <c r="F56" s="22">
+        <v>83</v>
+      </c>
+      <c r="G56" s="22">
+        <v>1149</v>
+      </c>
+      <c r="H56" s="22">
+        <v>670096</v>
+      </c>
+      <c r="I56" s="22">
+        <v>52</v>
+      </c>
+      <c r="J56" s="22">
+        <v>326</v>
+      </c>
+      <c r="K56" s="22">
+        <v>503419</v>
+      </c>
+      <c r="L56" s="22">
+        <v>13</v>
+      </c>
+      <c r="M56" s="22">
+        <v>4681993</v>
+      </c>
+      <c r="N56" s="22">
+        <v>219778.63</v>
+      </c>
+      <c r="O56" s="22">
+        <v>28428.85</v>
+      </c>
+      <c r="P56" s="22">
+        <v>12770.422</v>
+      </c>
+      <c r="Q56" s="22">
+        <v>0</v>
+      </c>
+      <c r="R56" s="22">
+        <f>N56-O56-P56-Q56</f>
+        <v>178579.358</v>
+      </c>
+      <c r="S56" s="9">
+        <f t="shared" si="9"/>
+        <v>178579.358</v>
+      </c>
+      <c r="T56" s="34"/>
+    </row>
+    <row r="57" ht="15" spans="2:20">
       <c r="B57" s="24"/>
       <c r="C57" s="24"/>
       <c r="D57" s="24"/>
@@ -4853,709 +5089,998 @@
       <c r="P57" s="24"/>
       <c r="Q57" s="24"/>
       <c r="R57" s="24"/>
-    </row>
-    <row r="58" ht="15.75" spans="2:18">
-      <c r="B58" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D58" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E58" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F58" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G58" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H58" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="I58" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="J58" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="K58" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="L58" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="M58" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="N58" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="O58" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="P58" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q58" s="21" t="s">
+      <c r="T57"/>
+    </row>
+    <row r="58" ht="15" spans="1:20">
+      <c r="A58" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" s="22">
+        <v>186</v>
+      </c>
+      <c r="D58" s="22">
+        <v>333</v>
+      </c>
+      <c r="E58" s="22">
+        <v>170</v>
+      </c>
+      <c r="F58" s="22">
+        <v>124</v>
+      </c>
+      <c r="G58" s="22">
+        <v>2046</v>
+      </c>
+      <c r="H58" s="22">
+        <v>1064525</v>
+      </c>
+      <c r="I58" s="22">
+        <v>78</v>
+      </c>
+      <c r="J58" s="22">
+        <v>502</v>
+      </c>
+      <c r="K58" s="22">
+        <v>812983</v>
+      </c>
+      <c r="L58" s="22">
         <v>14</v>
       </c>
-      <c r="R58" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" spans="2:18">
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="21"/>
-      <c r="M59" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="N59" s="21"/>
-      <c r="O59" s="21"/>
-      <c r="P59" s="21"/>
-      <c r="Q59" s="21"/>
-      <c r="R59" s="21"/>
-    </row>
-    <row r="60" ht="15.75" spans="1:19">
-      <c r="A60" s="20" t="s">
-        <v>50</v>
-      </c>
+      <c r="M58" s="22">
+        <v>11608085</v>
+      </c>
+      <c r="N58" s="22">
+        <v>336355</v>
+      </c>
+      <c r="O58" s="22">
+        <v>20098</v>
+      </c>
+      <c r="P58" s="22">
+        <v>39489</v>
+      </c>
+      <c r="Q58" s="22">
+        <v>0</v>
+      </c>
+      <c r="R58" s="22">
+        <v>276768</v>
+      </c>
+      <c r="S58" s="9">
+        <f t="shared" ref="S58:S60" si="10">N58-O58-P58-Q58</f>
+        <v>276768</v>
+      </c>
+      <c r="T58" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" ht="15" spans="1:20">
+      <c r="A59" s="26"/>
+      <c r="B59" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="22">
+        <v>128</v>
+      </c>
+      <c r="D59" s="22">
+        <v>304</v>
+      </c>
+      <c r="E59" s="22">
+        <v>161</v>
+      </c>
+      <c r="F59" s="22">
+        <v>104</v>
+      </c>
+      <c r="G59" s="22">
+        <v>1539</v>
+      </c>
+      <c r="H59" s="22">
+        <v>881590</v>
+      </c>
+      <c r="I59" s="22">
+        <v>67</v>
+      </c>
+      <c r="J59" s="22">
+        <v>433</v>
+      </c>
+      <c r="K59" s="22">
+        <v>771593</v>
+      </c>
+      <c r="L59" s="22">
+        <v>28</v>
+      </c>
+      <c r="M59" s="22">
+        <v>7238877</v>
+      </c>
+      <c r="N59" s="22">
+        <v>132404</v>
+      </c>
+      <c r="O59" s="22">
+        <v>22701</v>
+      </c>
+      <c r="P59" s="22">
+        <v>8514</v>
+      </c>
+      <c r="Q59" s="22">
+        <v>0</v>
+      </c>
+      <c r="R59" s="22">
+        <v>101189</v>
+      </c>
+      <c r="S59" s="9">
+        <f t="shared" si="10"/>
+        <v>101189</v>
+      </c>
+      <c r="T59" s="34"/>
+    </row>
+    <row r="60" ht="15" spans="1:20">
+      <c r="A60" s="26"/>
       <c r="B60" s="22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C60" s="22">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="D60" s="22">
         <v>276</v>
       </c>
       <c r="E60" s="22">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="F60" s="22">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G60" s="22">
-        <v>1512</v>
+        <v>1163</v>
       </c>
       <c r="H60" s="22">
-        <v>1612209</v>
+        <v>626577</v>
       </c>
       <c r="I60" s="22">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J60" s="22">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="K60" s="22">
-        <v>1551252</v>
+        <v>323885</v>
       </c>
       <c r="L60" s="22">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="M60" s="22">
-        <v>10715476</v>
+        <v>5602261</v>
       </c>
       <c r="N60" s="22">
-        <v>121335</v>
+        <v>262588.52</v>
       </c>
       <c r="O60" s="22">
-        <v>19779</v>
+        <v>15335</v>
       </c>
       <c r="P60" s="22">
-        <v>36826</v>
+        <v>15878.504</v>
       </c>
       <c r="Q60" s="22">
         <v>0</v>
       </c>
       <c r="R60" s="22">
-        <v>64730</v>
+        <f>N60-O60-P60-Q60</f>
+        <v>231375.016</v>
       </c>
       <c r="S60" s="9">
-        <f t="shared" ref="S60:S62" si="9">N60-O60-P60-Q60</f>
-        <v>64730</v>
-      </c>
-    </row>
-    <row r="61" ht="15" spans="1:19">
-      <c r="A61" s="20"/>
-      <c r="B61" s="22" t="s">
+        <f t="shared" si="10"/>
+        <v>231375.016</v>
+      </c>
+      <c r="T60" s="34"/>
+    </row>
+    <row r="61" ht="15" spans="2:20">
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="24"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="24"/>
+      <c r="Q61" s="24"/>
+      <c r="R61" s="24"/>
+      <c r="T61"/>
+    </row>
+    <row r="62" ht="15" spans="1:20">
+      <c r="A62" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="22">
+        <v>7</v>
+      </c>
+      <c r="D62" s="22">
+        <v>14</v>
+      </c>
+      <c r="E62" s="22">
+        <v>6</v>
+      </c>
+      <c r="F62" s="22">
+        <v>6</v>
+      </c>
+      <c r="G62" s="22">
+        <v>6</v>
+      </c>
+      <c r="H62" s="22">
+        <v>1820000</v>
+      </c>
+      <c r="I62" s="22">
+        <v>2</v>
+      </c>
+      <c r="J62" s="22">
+        <v>2</v>
+      </c>
+      <c r="K62" s="22">
+        <v>121086</v>
+      </c>
+      <c r="L62" s="22">
+        <v>0</v>
+      </c>
+      <c r="M62" s="22">
+        <v>586358</v>
+      </c>
+      <c r="N62" s="22">
+        <v>46143</v>
+      </c>
+      <c r="O62" s="22">
+        <v>0</v>
+      </c>
+      <c r="P62" s="22">
+        <v>20137</v>
+      </c>
+      <c r="Q62" s="22">
+        <v>0</v>
+      </c>
+      <c r="R62" s="22">
+        <v>26006</v>
+      </c>
+      <c r="S62" s="9">
+        <f t="shared" ref="S62:S64" si="11">N62-O62-P62-Q62</f>
+        <v>26006</v>
+      </c>
+      <c r="T62" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" ht="15" spans="1:20">
+      <c r="A63" s="26"/>
+      <c r="B63" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="22">
-        <v>69</v>
-      </c>
-      <c r="D61" s="22">
-        <v>209</v>
-      </c>
-      <c r="E61" s="22">
-        <v>91</v>
-      </c>
-      <c r="F61" s="22">
-        <v>82</v>
-      </c>
-      <c r="G61" s="22">
-        <v>1952</v>
-      </c>
-      <c r="H61" s="22">
-        <v>949783</v>
-      </c>
-      <c r="I61" s="22">
-        <v>56</v>
-      </c>
-      <c r="J61" s="22">
-        <v>459</v>
-      </c>
-      <c r="K61" s="22">
-        <v>896316</v>
-      </c>
-      <c r="L61" s="22">
-        <v>12</v>
-      </c>
-      <c r="M61" s="22">
-        <v>7245001</v>
-      </c>
-      <c r="N61" s="22">
-        <v>58495</v>
-      </c>
-      <c r="O61" s="22">
-        <v>21864</v>
-      </c>
-      <c r="P61" s="22">
-        <v>24357</v>
-      </c>
-      <c r="Q61" s="22">
-        <v>0</v>
-      </c>
-      <c r="R61" s="22">
-        <v>12274</v>
-      </c>
-      <c r="S61" s="9">
-        <f t="shared" si="9"/>
-        <v>12274</v>
-      </c>
-    </row>
-    <row r="62" ht="15" spans="1:19">
-      <c r="A62" s="20"/>
-      <c r="B62" s="22" t="s">
+      <c r="C63" s="22">
+        <v>4</v>
+      </c>
+      <c r="D63" s="22">
+        <v>14</v>
+      </c>
+      <c r="E63" s="22">
+        <v>9</v>
+      </c>
+      <c r="F63" s="22">
+        <v>10</v>
+      </c>
+      <c r="G63" s="22">
+        <v>35</v>
+      </c>
+      <c r="H63" s="22">
+        <v>2930521</v>
+      </c>
+      <c r="I63" s="22">
+        <v>7</v>
+      </c>
+      <c r="J63" s="22">
+        <v>18</v>
+      </c>
+      <c r="K63" s="22">
+        <v>1948014</v>
+      </c>
+      <c r="L63" s="22">
+        <v>0</v>
+      </c>
+      <c r="M63" s="22">
+        <v>7215343</v>
+      </c>
+      <c r="N63" s="22">
+        <v>-13642288</v>
+      </c>
+      <c r="O63" s="22">
+        <v>0</v>
+      </c>
+      <c r="P63" s="22">
+        <v>274705</v>
+      </c>
+      <c r="Q63" s="22">
+        <v>0</v>
+      </c>
+      <c r="R63" s="22">
+        <v>-13916993</v>
+      </c>
+      <c r="S63" s="9">
+        <f t="shared" si="11"/>
+        <v>-13916993</v>
+      </c>
+      <c r="T63" s="34"/>
+    </row>
+    <row r="64" ht="15" spans="1:20">
+      <c r="A64" s="26"/>
+      <c r="B64" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C62" s="22">
-        <v>45</v>
-      </c>
-      <c r="D62" s="22">
-        <v>205</v>
-      </c>
-      <c r="E62" s="22">
-        <v>99</v>
-      </c>
-      <c r="F62" s="22">
-        <v>83</v>
-      </c>
-      <c r="G62" s="22">
-        <v>1149</v>
-      </c>
-      <c r="H62" s="22">
-        <v>670096</v>
-      </c>
-      <c r="I62" s="22">
-        <v>52</v>
-      </c>
-      <c r="J62" s="22">
-        <v>326</v>
-      </c>
-      <c r="K62" s="22">
-        <v>503419</v>
-      </c>
-      <c r="L62" s="22">
-        <v>13</v>
-      </c>
-      <c r="M62" s="22">
-        <v>4681993</v>
-      </c>
-      <c r="N62" s="22">
-        <v>219778.63</v>
-      </c>
-      <c r="O62" s="22">
-        <v>28428.85</v>
-      </c>
-      <c r="P62" s="22">
-        <v>12770.422</v>
-      </c>
-      <c r="Q62" s="22">
-        <v>0</v>
-      </c>
-      <c r="R62" s="22">
-        <f>N62-O62-P62-Q62</f>
-        <v>178579.358</v>
-      </c>
-      <c r="S62" s="9">
-        <f t="shared" si="9"/>
-        <v>178579.358</v>
-      </c>
-    </row>
-    <row r="63" ht="15" spans="2:18">
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="24"/>
-      <c r="L63" s="24"/>
-      <c r="M63" s="24"/>
-      <c r="N63" s="24"/>
-      <c r="O63" s="24"/>
-      <c r="P63" s="24"/>
-      <c r="Q63" s="24"/>
-      <c r="R63" s="24"/>
-    </row>
-    <row r="64" ht="15" spans="1:19">
-      <c r="A64" s="20" t="s">
+      <c r="C64" s="22">
+        <v>0</v>
+      </c>
+      <c r="D64" s="22">
+        <v>6</v>
+      </c>
+      <c r="E64" s="22">
+        <v>1</v>
+      </c>
+      <c r="F64" s="22">
+        <v>0</v>
+      </c>
+      <c r="G64" s="22">
+        <v>0</v>
+      </c>
+      <c r="H64" s="22">
+        <v>0</v>
+      </c>
+      <c r="I64" s="22">
+        <v>0</v>
+      </c>
+      <c r="J64" s="22">
+        <v>0</v>
+      </c>
+      <c r="K64" s="22">
+        <v>0</v>
+      </c>
+      <c r="L64" s="22">
+        <v>0</v>
+      </c>
+      <c r="M64" s="22">
+        <v>16000</v>
+      </c>
+      <c r="N64" s="22">
+        <v>-7750</v>
+      </c>
+      <c r="O64" s="22">
+        <v>0</v>
+      </c>
+      <c r="P64" s="22">
+        <v>480</v>
+      </c>
+      <c r="Q64" s="22">
+        <v>0</v>
+      </c>
+      <c r="R64" s="22">
+        <f>N64-O64-P64-Q64</f>
+        <v>-8230</v>
+      </c>
+      <c r="S64" s="9">
+        <f t="shared" si="11"/>
+        <v>-8230</v>
+      </c>
+      <c r="T64" s="34"/>
+    </row>
+    <row r="65" ht="14.25" spans="2:20">
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="19"/>
+      <c r="P65" s="19"/>
+      <c r="Q65" s="19"/>
+      <c r="R65" s="19"/>
+      <c r="T65"/>
+    </row>
+    <row r="66" ht="15" spans="1:20">
+      <c r="A66" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="B66" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C64" s="22">
-        <v>186</v>
-      </c>
-      <c r="D64" s="22">
-        <v>333</v>
-      </c>
-      <c r="E64" s="22">
-        <v>170</v>
-      </c>
-      <c r="F64" s="22">
-        <v>124</v>
-      </c>
-      <c r="G64" s="22">
-        <v>2046</v>
-      </c>
-      <c r="H64" s="22">
-        <v>1064525</v>
-      </c>
-      <c r="I64" s="22">
-        <v>78</v>
-      </c>
-      <c r="J64" s="22">
-        <v>502</v>
-      </c>
-      <c r="K64" s="22">
-        <v>812983</v>
-      </c>
-      <c r="L64" s="22">
-        <v>14</v>
-      </c>
-      <c r="M64" s="22">
-        <v>11608085</v>
-      </c>
-      <c r="N64" s="22">
-        <v>336355</v>
-      </c>
-      <c r="O64" s="22">
-        <v>20098</v>
-      </c>
-      <c r="P64" s="22">
-        <v>39489</v>
-      </c>
-      <c r="Q64" s="22">
-        <v>0</v>
-      </c>
-      <c r="R64" s="22">
-        <v>276768</v>
-      </c>
-      <c r="S64" s="9">
-        <f t="shared" ref="S64:S66" si="10">N64-O64-P64-Q64</f>
-        <v>276768</v>
-      </c>
-    </row>
-    <row r="65" ht="15" spans="1:19">
-      <c r="A65" s="20"/>
-      <c r="B65" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C65" s="22">
-        <v>128</v>
-      </c>
-      <c r="D65" s="22">
-        <v>304</v>
-      </c>
-      <c r="E65" s="22">
+      <c r="C66" s="22">
         <v>161</v>
-      </c>
-      <c r="F65" s="22">
-        <v>104</v>
-      </c>
-      <c r="G65" s="22">
-        <v>1539</v>
-      </c>
-      <c r="H65" s="22">
-        <v>881590</v>
-      </c>
-      <c r="I65" s="22">
-        <v>67</v>
-      </c>
-      <c r="J65" s="22">
-        <v>433</v>
-      </c>
-      <c r="K65" s="22">
-        <v>771593</v>
-      </c>
-      <c r="L65" s="22">
-        <v>28</v>
-      </c>
-      <c r="M65" s="22">
-        <v>7238877</v>
-      </c>
-      <c r="N65" s="22">
-        <v>132404</v>
-      </c>
-      <c r="O65" s="22">
-        <v>22701</v>
-      </c>
-      <c r="P65" s="22">
-        <v>8514</v>
-      </c>
-      <c r="Q65" s="22">
-        <v>0</v>
-      </c>
-      <c r="R65" s="22">
-        <v>101189</v>
-      </c>
-      <c r="S65" s="9">
-        <f t="shared" si="10"/>
-        <v>101189</v>
-      </c>
-    </row>
-    <row r="66" ht="15" spans="1:19">
-      <c r="A66" s="20"/>
-      <c r="B66" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C66" s="22">
-        <v>100</v>
       </c>
       <c r="D66" s="22">
         <v>276</v>
       </c>
       <c r="E66" s="22">
+        <v>117</v>
+      </c>
+      <c r="F66" s="22">
+        <v>111</v>
+      </c>
+      <c r="G66" s="22">
+        <v>1512</v>
+      </c>
+      <c r="H66" s="22">
+        <v>1612209</v>
+      </c>
+      <c r="I66" s="22">
+        <v>68</v>
+      </c>
+      <c r="J66" s="22">
+        <v>370</v>
+      </c>
+      <c r="K66" s="22">
+        <v>1551252</v>
+      </c>
+      <c r="L66" s="22">
+        <v>57</v>
+      </c>
+      <c r="M66" s="22">
+        <v>10715476</v>
+      </c>
+      <c r="N66" s="22">
+        <v>121335</v>
+      </c>
+      <c r="O66" s="22">
+        <v>19779</v>
+      </c>
+      <c r="P66" s="22">
+        <v>36826</v>
+      </c>
+      <c r="Q66" s="22">
+        <v>0</v>
+      </c>
+      <c r="R66" s="22">
+        <v>64730</v>
+      </c>
+      <c r="S66" s="9">
+        <f t="shared" ref="S66:S68" si="12">N66-O66-P66-Q66</f>
+        <v>64730</v>
+      </c>
+      <c r="T66" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" ht="15" spans="1:20">
+      <c r="A67" s="26"/>
+      <c r="B67" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="22">
+        <v>69</v>
+      </c>
+      <c r="D67" s="22">
+        <v>209</v>
+      </c>
+      <c r="E67" s="22">
+        <v>91</v>
+      </c>
+      <c r="F67" s="22">
+        <v>82</v>
+      </c>
+      <c r="G67" s="22">
+        <v>1952</v>
+      </c>
+      <c r="H67" s="22">
+        <v>949783</v>
+      </c>
+      <c r="I67" s="22">
+        <v>56</v>
+      </c>
+      <c r="J67" s="22">
+        <v>459</v>
+      </c>
+      <c r="K67" s="22">
+        <v>896316</v>
+      </c>
+      <c r="L67" s="22">
+        <v>12</v>
+      </c>
+      <c r="M67" s="22">
+        <v>7245001</v>
+      </c>
+      <c r="N67" s="22">
+        <v>58495</v>
+      </c>
+      <c r="O67" s="22">
+        <v>21864</v>
+      </c>
+      <c r="P67" s="22">
+        <v>24357</v>
+      </c>
+      <c r="Q67" s="22">
+        <v>0</v>
+      </c>
+      <c r="R67" s="22">
+        <v>12274</v>
+      </c>
+      <c r="S67" s="9">
+        <f t="shared" si="12"/>
+        <v>12274</v>
+      </c>
+      <c r="T67" s="34"/>
+    </row>
+    <row r="68" ht="15" spans="1:20">
+      <c r="A68" s="26"/>
+      <c r="B68" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" s="22">
+        <v>45</v>
+      </c>
+      <c r="D68" s="22">
+        <v>205</v>
+      </c>
+      <c r="E68" s="22">
+        <v>99</v>
+      </c>
+      <c r="F68" s="22">
+        <v>83</v>
+      </c>
+      <c r="G68" s="22">
+        <v>1149</v>
+      </c>
+      <c r="H68" s="22">
+        <v>670096</v>
+      </c>
+      <c r="I68" s="22">
+        <v>52</v>
+      </c>
+      <c r="J68" s="22">
+        <v>326</v>
+      </c>
+      <c r="K68" s="22">
+        <v>503419</v>
+      </c>
+      <c r="L68" s="22">
+        <v>13</v>
+      </c>
+      <c r="M68" s="22">
+        <v>4681993</v>
+      </c>
+      <c r="N68" s="22">
+        <v>219778.63</v>
+      </c>
+      <c r="O68" s="22">
+        <v>28428.85</v>
+      </c>
+      <c r="P68" s="22">
+        <v>12770.422</v>
+      </c>
+      <c r="Q68" s="22">
+        <v>0</v>
+      </c>
+      <c r="R68" s="22">
+        <f>N68-O68-P68-Q68</f>
+        <v>178579.358</v>
+      </c>
+      <c r="S68" s="9">
+        <f t="shared" si="12"/>
+        <v>178579.358</v>
+      </c>
+      <c r="T68" s="34"/>
+    </row>
+    <row r="69" ht="15" spans="2:18">
+      <c r="B69" s="24"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="24"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="24"/>
+      <c r="Q69" s="24"/>
+      <c r="R69" s="24"/>
+    </row>
+    <row r="70" ht="15" spans="1:20">
+      <c r="A70" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C70" s="22">
+        <v>186</v>
+      </c>
+      <c r="D70" s="22">
+        <v>333</v>
+      </c>
+      <c r="E70" s="22">
+        <v>170</v>
+      </c>
+      <c r="F70" s="22">
+        <v>124</v>
+      </c>
+      <c r="G70" s="22">
+        <v>2046</v>
+      </c>
+      <c r="H70" s="22">
+        <v>1064525</v>
+      </c>
+      <c r="I70" s="22">
+        <v>78</v>
+      </c>
+      <c r="J70" s="22">
+        <v>502</v>
+      </c>
+      <c r="K70" s="22">
+        <v>812983</v>
+      </c>
+      <c r="L70" s="22">
+        <v>14</v>
+      </c>
+      <c r="M70" s="22">
+        <v>11608085</v>
+      </c>
+      <c r="N70" s="22">
+        <v>336355</v>
+      </c>
+      <c r="O70" s="22">
+        <v>20098</v>
+      </c>
+      <c r="P70" s="22">
+        <v>39489</v>
+      </c>
+      <c r="Q70" s="22">
+        <v>0</v>
+      </c>
+      <c r="R70" s="22">
+        <v>276768</v>
+      </c>
+      <c r="S70" s="9">
+        <f t="shared" ref="S70:S72" si="13">N70-O70-P70-Q70</f>
+        <v>276768</v>
+      </c>
+      <c r="T70" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" ht="15" spans="1:20">
+      <c r="A71" s="26"/>
+      <c r="B71" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" s="22">
         <v>128</v>
       </c>
-      <c r="F66" s="22">
+      <c r="D71" s="22">
+        <v>304</v>
+      </c>
+      <c r="E71" s="22">
+        <v>161</v>
+      </c>
+      <c r="F71" s="22">
         <v>104</v>
       </c>
-      <c r="G66" s="22">
+      <c r="G71" s="22">
+        <v>1539</v>
+      </c>
+      <c r="H71" s="22">
+        <v>881590</v>
+      </c>
+      <c r="I71" s="22">
+        <v>67</v>
+      </c>
+      <c r="J71" s="22">
+        <v>433</v>
+      </c>
+      <c r="K71" s="22">
+        <v>771593</v>
+      </c>
+      <c r="L71" s="22">
+        <v>28</v>
+      </c>
+      <c r="M71" s="22">
+        <v>7238877</v>
+      </c>
+      <c r="N71" s="22">
+        <v>132404</v>
+      </c>
+      <c r="O71" s="22">
+        <v>22701</v>
+      </c>
+      <c r="P71" s="22">
+        <v>8514</v>
+      </c>
+      <c r="Q71" s="22">
+        <v>0</v>
+      </c>
+      <c r="R71" s="22">
+        <v>101189</v>
+      </c>
+      <c r="S71" s="9">
+        <f t="shared" si="13"/>
+        <v>101189</v>
+      </c>
+      <c r="T71" s="34"/>
+    </row>
+    <row r="72" ht="15" spans="1:20">
+      <c r="A72" s="26"/>
+      <c r="B72" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" s="22">
+        <v>100</v>
+      </c>
+      <c r="D72" s="22">
+        <v>276</v>
+      </c>
+      <c r="E72" s="22">
+        <v>128</v>
+      </c>
+      <c r="F72" s="22">
+        <v>104</v>
+      </c>
+      <c r="G72" s="22">
         <v>1163</v>
       </c>
-      <c r="H66" s="22">
+      <c r="H72" s="22">
         <v>626577</v>
       </c>
-      <c r="I66" s="22">
+      <c r="I72" s="22">
         <v>65</v>
       </c>
-      <c r="J66" s="22">
+      <c r="J72" s="22">
         <v>330</v>
       </c>
-      <c r="K66" s="22">
+      <c r="K72" s="22">
         <v>323885</v>
       </c>
-      <c r="L66" s="22">
+      <c r="L72" s="22">
         <v>16</v>
       </c>
-      <c r="M66" s="22">
+      <c r="M72" s="22">
         <v>5602261</v>
       </c>
-      <c r="N66" s="22">
+      <c r="N72" s="22">
         <v>262588.52</v>
       </c>
-      <c r="O66" s="22">
+      <c r="O72" s="22">
         <v>15335</v>
       </c>
-      <c r="P66" s="22">
+      <c r="P72" s="22">
         <v>15878.504</v>
       </c>
-      <c r="Q66" s="22">
-        <v>0</v>
-      </c>
-      <c r="R66" s="22">
-        <f>N66-O66-P66-Q66</f>
+      <c r="Q72" s="22">
+        <v>0</v>
+      </c>
+      <c r="R72" s="22">
+        <f>N72-O72-P72-Q72</f>
         <v>231375.016</v>
       </c>
-      <c r="S66" s="9">
-        <f t="shared" si="10"/>
+      <c r="S72" s="9">
+        <f t="shared" si="13"/>
         <v>231375.016</v>
       </c>
-    </row>
-    <row r="67" ht="15" spans="2:18">
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="24"/>
-      <c r="K67" s="24"/>
-      <c r="L67" s="24"/>
-      <c r="M67" s="24"/>
-      <c r="N67" s="24"/>
-      <c r="O67" s="24"/>
-      <c r="P67" s="24"/>
-      <c r="Q67" s="24"/>
-      <c r="R67" s="24"/>
-    </row>
-    <row r="68" ht="15" spans="1:19">
-      <c r="A68" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B68" s="22" t="s">
+      <c r="T72" s="34"/>
+    </row>
+    <row r="73" ht="15" spans="2:18">
+      <c r="B73" s="24"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="24"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="24"/>
+      <c r="O73" s="24"/>
+      <c r="P73" s="24"/>
+      <c r="Q73" s="24"/>
+      <c r="R73" s="24"/>
+    </row>
+    <row r="74" ht="15" spans="1:20">
+      <c r="A74" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B74" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C68" s="22">
+      <c r="C74" s="22">
         <v>7</v>
       </c>
-      <c r="D68" s="22">
+      <c r="D74" s="22">
         <v>14</v>
       </c>
-      <c r="E68" s="22">
+      <c r="E74" s="22">
         <v>6</v>
       </c>
-      <c r="F68" s="22">
+      <c r="F74" s="22">
         <v>6</v>
       </c>
-      <c r="G68" s="22">
+      <c r="G74" s="22">
         <v>6</v>
       </c>
-      <c r="H68" s="22">
+      <c r="H74" s="22">
         <v>1820000</v>
       </c>
-      <c r="I68" s="22">
+      <c r="I74" s="22">
         <v>2</v>
       </c>
-      <c r="J68" s="22">
+      <c r="J74" s="22">
         <v>2</v>
       </c>
-      <c r="K68" s="22">
+      <c r="K74" s="22">
         <v>121086</v>
       </c>
-      <c r="L68" s="22">
-        <v>0</v>
-      </c>
-      <c r="M68" s="22">
+      <c r="L74" s="22">
+        <v>0</v>
+      </c>
+      <c r="M74" s="22">
         <v>586358</v>
       </c>
-      <c r="N68" s="22">
+      <c r="N74" s="22">
         <v>46143</v>
       </c>
-      <c r="O68" s="22">
-        <v>0</v>
-      </c>
-      <c r="P68" s="22">
+      <c r="O74" s="22">
+        <v>0</v>
+      </c>
+      <c r="P74" s="22">
         <v>20137</v>
       </c>
-      <c r="Q68" s="22">
-        <v>0</v>
-      </c>
-      <c r="R68" s="22">
+      <c r="Q74" s="22">
+        <v>0</v>
+      </c>
+      <c r="R74" s="22">
         <v>26006</v>
       </c>
-      <c r="S68" s="9">
-        <f t="shared" ref="S68:S70" si="11">N68-O68-P68-Q68</f>
+      <c r="S74" s="9">
+        <f t="shared" ref="S74:S76" si="14">N74-O74-P74-Q74</f>
         <v>26006</v>
       </c>
-    </row>
-    <row r="69" ht="15" spans="1:19">
-      <c r="A69" s="20"/>
-      <c r="B69" s="22" t="s">
+      <c r="T74" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" ht="15" spans="1:20">
+      <c r="A75" s="26"/>
+      <c r="B75" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C69" s="22">
+      <c r="C75" s="22">
         <v>4</v>
       </c>
-      <c r="D69" s="22">
+      <c r="D75" s="22">
         <v>14</v>
       </c>
-      <c r="E69" s="22">
+      <c r="E75" s="22">
         <v>9</v>
       </c>
-      <c r="F69" s="22">
+      <c r="F75" s="22">
         <v>10</v>
       </c>
-      <c r="G69" s="22">
+      <c r="G75" s="22">
         <v>35</v>
       </c>
-      <c r="H69" s="22">
+      <c r="H75" s="22">
         <v>2930521</v>
       </c>
-      <c r="I69" s="22">
+      <c r="I75" s="22">
         <v>7</v>
       </c>
-      <c r="J69" s="22">
+      <c r="J75" s="22">
         <v>18</v>
       </c>
-      <c r="K69" s="22">
+      <c r="K75" s="22">
         <v>1948014</v>
       </c>
-      <c r="L69" s="22">
-        <v>0</v>
-      </c>
-      <c r="M69" s="22">
+      <c r="L75" s="22">
+        <v>0</v>
+      </c>
+      <c r="M75" s="22">
         <v>7215343</v>
       </c>
-      <c r="N69" s="22">
+      <c r="N75" s="22">
         <v>-13642288</v>
       </c>
-      <c r="O69" s="22">
-        <v>0</v>
-      </c>
-      <c r="P69" s="22">
+      <c r="O75" s="22">
+        <v>0</v>
+      </c>
+      <c r="P75" s="22">
         <v>274705</v>
       </c>
-      <c r="Q69" s="22">
-        <v>0</v>
-      </c>
-      <c r="R69" s="22">
+      <c r="Q75" s="22">
+        <v>0</v>
+      </c>
+      <c r="R75" s="22">
         <v>-13916993</v>
       </c>
-      <c r="S69" s="9">
-        <f t="shared" si="11"/>
+      <c r="S75" s="9">
+        <f t="shared" si="14"/>
         <v>-13916993</v>
       </c>
-    </row>
-    <row r="70" ht="15" spans="1:19">
-      <c r="A70" s="20"/>
-      <c r="B70" s="22" t="s">
+      <c r="T75" s="34"/>
+    </row>
+    <row r="76" ht="15" spans="1:20">
+      <c r="A76" s="26"/>
+      <c r="B76" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C70" s="22">
-        <v>0</v>
-      </c>
-      <c r="D70" s="22">
+      <c r="C76" s="22">
+        <v>0</v>
+      </c>
+      <c r="D76" s="22">
         <v>6</v>
       </c>
-      <c r="E70" s="22">
+      <c r="E76" s="22">
         <v>1</v>
       </c>
-      <c r="F70" s="22">
-        <v>0</v>
-      </c>
-      <c r="G70" s="22">
-        <v>0</v>
-      </c>
-      <c r="H70" s="22">
-        <v>0</v>
-      </c>
-      <c r="I70" s="22">
-        <v>0</v>
-      </c>
-      <c r="J70" s="22">
-        <v>0</v>
-      </c>
-      <c r="K70" s="22">
-        <v>0</v>
-      </c>
-      <c r="L70" s="22">
-        <v>0</v>
-      </c>
-      <c r="M70" s="22">
+      <c r="F76" s="22">
+        <v>0</v>
+      </c>
+      <c r="G76" s="22">
+        <v>0</v>
+      </c>
+      <c r="H76" s="22">
+        <v>0</v>
+      </c>
+      <c r="I76" s="22">
+        <v>0</v>
+      </c>
+      <c r="J76" s="22">
+        <v>0</v>
+      </c>
+      <c r="K76" s="22">
+        <v>0</v>
+      </c>
+      <c r="L76" s="22">
+        <v>0</v>
+      </c>
+      <c r="M76" s="22">
         <v>16000</v>
       </c>
-      <c r="N70" s="22">
+      <c r="N76" s="22">
         <v>-7750</v>
       </c>
-      <c r="O70" s="22">
-        <v>0</v>
-      </c>
-      <c r="P70" s="22">
+      <c r="O76" s="22">
+        <v>0</v>
+      </c>
+      <c r="P76" s="22">
         <v>480</v>
       </c>
-      <c r="Q70" s="22">
-        <v>0</v>
-      </c>
-      <c r="R70" s="22">
-        <f>N70-O70-P70-Q70</f>
+      <c r="Q76" s="22">
+        <v>0</v>
+      </c>
+      <c r="R76" s="22">
+        <f>N76-O76-P76-Q76</f>
         <v>-8230</v>
       </c>
-      <c r="S70" s="9">
-        <f t="shared" si="11"/>
+      <c r="S76" s="9">
+        <f t="shared" si="14"/>
         <v>-8230</v>
       </c>
-    </row>
-    <row r="71" spans="2:18">
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
-      <c r="K71" s="19"/>
-      <c r="L71" s="19"/>
-      <c r="M71" s="19"/>
-      <c r="N71" s="19"/>
-      <c r="O71" s="19"/>
-      <c r="P71" s="19"/>
-      <c r="Q71" s="19"/>
-      <c r="R71" s="19"/>
-    </row>
-    <row r="72" spans="2:18">
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="19"/>
-      <c r="K72" s="19"/>
-      <c r="L72" s="19"/>
-      <c r="M72" s="19"/>
-      <c r="N72" s="19"/>
-      <c r="O72" s="19"/>
-      <c r="P72" s="19"/>
-      <c r="Q72" s="19"/>
-      <c r="R72" s="19"/>
-    </row>
-    <row r="73" spans="2:18">
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="19"/>
-      <c r="L73" s="19"/>
-      <c r="M73" s="19"/>
-      <c r="N73" s="19"/>
-      <c r="O73" s="19"/>
-      <c r="P73" s="19"/>
-      <c r="Q73" s="19"/>
-      <c r="R73" s="19"/>
+      <c r="T76" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
+  <mergeCells count="59">
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A23:Q23"/>
     <mergeCell ref="A2:A3"/>
@@ -5563,68 +6088,53 @@
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A20:A22"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A74:A76"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B58:B59"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C58:C59"/>
     <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D58:D59"/>
     <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E58:E59"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F58:F59"/>
     <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G58:G59"/>
     <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H58:H59"/>
     <mergeCell ref="I24:I25"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="I58:I59"/>
     <mergeCell ref="J24:J25"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="J58:J59"/>
     <mergeCell ref="K24:K25"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K58:K59"/>
     <mergeCell ref="L24:L25"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="L58:L59"/>
     <mergeCell ref="N24:N25"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="N58:N59"/>
     <mergeCell ref="O24:O25"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="O58:O59"/>
     <mergeCell ref="P24:P25"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="P58:P59"/>
     <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="Q58:Q59"/>
     <mergeCell ref="R24:R25"/>
-    <mergeCell ref="R43:R44"/>
-    <mergeCell ref="R58:R59"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:T3"/>
+    <mergeCell ref="T26:T28"/>
+    <mergeCell ref="T30:T32"/>
+    <mergeCell ref="T34:T36"/>
+    <mergeCell ref="T38:T40"/>
+    <mergeCell ref="T42:T44"/>
+    <mergeCell ref="T46:T48"/>
+    <mergeCell ref="T50:T52"/>
+    <mergeCell ref="T54:T56"/>
+    <mergeCell ref="T58:T60"/>
+    <mergeCell ref="T62:T64"/>
+    <mergeCell ref="T66:T68"/>
+    <mergeCell ref="T70:T72"/>
+    <mergeCell ref="T74:T76"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
@@ -5632,207 +6142,396 @@
     <mergeCell ref="Y2:Y3"/>
   </mergeCells>
   <conditionalFormatting sqref="S8">
-    <cfRule type="cellIs" dxfId="0" priority="74" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="73" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="185" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="184" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9">
-    <cfRule type="cellIs" dxfId="0" priority="72" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="71" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="183" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="182" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10">
-    <cfRule type="cellIs" dxfId="0" priority="80" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="79" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="191" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="190" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X10:Y10">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="113" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="112" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12">
-    <cfRule type="cellIs" dxfId="0" priority="70" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="69" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="181" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="180" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13">
-    <cfRule type="cellIs" dxfId="0" priority="68" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="67" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="179" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="178" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14">
-    <cfRule type="cellIs" dxfId="0" priority="78" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="77" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="189" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="188" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X14:Y14">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="115" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="114" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16">
-    <cfRule type="cellIs" dxfId="0" priority="66" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="65" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="177" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="176" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17">
-    <cfRule type="cellIs" dxfId="0" priority="64" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="63" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="175" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="174" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18">
-    <cfRule type="cellIs" dxfId="0" priority="76" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="75" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="187" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="186" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X18:Y18">
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="121" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="120" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S20">
+    <cfRule type="cellIs" dxfId="0" priority="67" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="66" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S21">
+    <cfRule type="cellIs" dxfId="0" priority="65" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="64" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S22">
+    <cfRule type="cellIs" dxfId="0" priority="69" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="68" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X22:Y22">
+    <cfRule type="cellIs" dxfId="2" priority="63" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="62" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24">
+    <cfRule type="cellIs" dxfId="2" priority="30" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="29" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N26">
-    <cfRule type="cellIs" dxfId="0" priority="62" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="61" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="173" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="172" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30">
-    <cfRule type="cellIs" dxfId="0" priority="60" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="59" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="171" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="170" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T30">
+    <cfRule type="cellIs" dxfId="2" priority="24" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="23" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34">
-    <cfRule type="cellIs" dxfId="0" priority="58" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="57" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="169" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="168" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T34">
+    <cfRule type="cellIs" dxfId="2" priority="22" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="21" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T38">
+    <cfRule type="cellIs" dxfId="2" priority="20" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="19" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T42">
+    <cfRule type="cellIs" dxfId="2" priority="18" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="17" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T45">
+    <cfRule type="cellIs" dxfId="2" priority="26" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="25" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T46">
+    <cfRule type="cellIs" dxfId="2" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="15" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T50">
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="13" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T54">
+    <cfRule type="cellIs" dxfId="2" priority="12" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="11" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T58">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T62">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T66">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T70">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T74">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R26:R64">
+    <cfRule type="cellIs" dxfId="0" priority="194" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R66:R76">
+    <cfRule type="cellIs" dxfId="0" priority="57" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W20:W22">
+    <cfRule type="cellIs" dxfId="0" priority="71" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="70" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X3">
-    <cfRule type="cellIs" dxfId="2" priority="54" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="53" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="165" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="164" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X8:X9">
-    <cfRule type="cellIs" dxfId="2" priority="20" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="19" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="131" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="130" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12:X13">
-    <cfRule type="cellIs" dxfId="2" priority="14" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="13" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="125" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="124" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X16:X17">
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="119" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="118" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X20:X21">
+    <cfRule type="cellIs" dxfId="2" priority="61" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="60" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y3">
-    <cfRule type="cellIs" dxfId="2" priority="46" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="45" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="157" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="156" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:Y9">
-    <cfRule type="cellIs" dxfId="2" priority="18" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="17" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="129" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="128" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y12:Y13">
-    <cfRule type="cellIs" dxfId="2" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="11" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="123" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="122" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y16:Y17">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="117" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="116" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X1:Y1 X7:Y7 X15:Y15 X19:Y1048576 X11:Y11">
-    <cfRule type="cellIs" dxfId="2" priority="55" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="56" operator="greaterThan">
+  <conditionalFormatting sqref="Y20:Y21">
+    <cfRule type="cellIs" dxfId="2" priority="59" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="58" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W49 N29 N33 N37:N40 R26:R40 N45:N55 R45:R55 W7:W18 S7 S11 S15 N60:N70 R60:R70">
-    <cfRule type="cellIs" dxfId="1" priority="81" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="82" operator="greaterThan">
+  <conditionalFormatting sqref="X1:Y1 X7:Y7 X15:Y15 X19:Y19 X23:Y1048576 X11:Y11">
+    <cfRule type="cellIs" dxfId="2" priority="166" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="167" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R26:R42 R45:R57 R60:R70">
-    <cfRule type="cellIs" dxfId="0" priority="83" operator="greaterThan">
+  <conditionalFormatting sqref="S15 N29 N33 N37:N40 R26:R40 S11 S7 W7:W18 W46 R42:R52 N42:N52 N54:N64 R54:R64">
+    <cfRule type="cellIs" dxfId="1" priority="192" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="193" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T26 T29 T33 T37 T49 T41 T61 T57 T53 T65">
+    <cfRule type="cellIs" dxfId="2" priority="28" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="27" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N66:N76 R66:R76">
+    <cfRule type="cellIs" dxfId="1" priority="55" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="56" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5869,37 +6568,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>11</v>
@@ -6025,7 +6724,7 @@
     </row>
     <row r="4" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A4" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" ref="B4:Q4" si="0">(B3-B2)/B2</f>
@@ -6128,39 +6827,39 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.25" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" ht="24.75" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2">
         <v>6279</v>
@@ -6192,7 +6891,7 @@
     </row>
     <row r="3" ht="14.25" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2">
         <v>6323</v>
@@ -6224,7 +6923,7 @@
     </row>
     <row r="4" ht="14.25" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2">
         <v>6</v>
@@ -6256,7 +6955,7 @@
     </row>
     <row r="5" ht="24.75" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2">
         <v>6091</v>
@@ -6288,7 +6987,7 @@
     </row>
     <row r="6" ht="24.75" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2">
         <v>5425</v>
@@ -6320,7 +7019,7 @@
     </row>
     <row r="7" ht="24.75" spans="1:10">
       <c r="A7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B7" s="2">
         <v>5345</v>
@@ -6352,7 +7051,7 @@
     </row>
     <row r="8" ht="24.75" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2">
         <v>5149</v>
@@ -6384,7 +7083,7 @@
     </row>
     <row r="9" ht="24" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2">
         <v>18731</v>
@@ -6416,7 +7115,7 @@
     </row>
     <row r="10" ht="24.75" spans="1:10">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="2">
         <v>5480</v>
@@ -6448,7 +7147,7 @@
     </row>
     <row r="11" ht="24.75" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="2">
         <v>6395</v>
@@ -6480,7 +7179,7 @@
     </row>
     <row r="12" ht="24.75" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="2">
         <v>5880</v>
@@ -6512,7 +7211,7 @@
     </row>
     <row r="13" ht="24.75" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="2">
         <v>5955</v>
@@ -6544,7 +7243,7 @@
     </row>
     <row r="14" ht="14.25" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="2">
         <v>28268</v>
@@ -6576,7 +7275,7 @@
     </row>
     <row r="15" ht="14.25" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" s="2">
         <v>4877</v>
@@ -6608,7 +7307,7 @@
     </row>
     <row r="16" ht="14.25" spans="1:10">
       <c r="A16" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B16" s="2">
         <v>3120</v>
@@ -6640,7 +7339,7 @@
     </row>
     <row r="17" ht="14.25" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -6672,7 +7371,7 @@
     </row>
     <row r="18" ht="14.25" spans="1:10">
       <c r="A18" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B18" s="2">
         <v>26648</v>
@@ -6704,7 +7403,7 @@
     </row>
     <row r="19" ht="14.25" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B19" s="2">
         <v>22162</v>
@@ -6736,7 +7435,7 @@
     </row>
     <row r="20" ht="14.25" spans="1:10">
       <c r="A20" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B20" s="2">
         <v>71</v>
@@ -6768,7 +7467,7 @@
     </row>
     <row r="21" ht="14.25" spans="1:10">
       <c r="A21" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B21" s="2">
         <v>32505</v>
@@ -6800,7 +7499,7 @@
     </row>
     <row r="22" ht="14.25" spans="1:10">
       <c r="A22" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B22" s="2">
         <v>43886</v>
@@ -6832,7 +7531,7 @@
     </row>
     <row r="23" ht="14.25" spans="1:10">
       <c r="A23" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B23" s="2">
         <v>1453</v>
@@ -6864,7 +7563,7 @@
     </row>
     <row r="24" ht="24" spans="1:10">
       <c r="A24" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B24" s="2">
         <v>29685</v>
@@ -6896,7 +7595,7 @@
     </row>
     <row r="25" ht="24" spans="1:10">
       <c r="A25" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B25" s="2">
         <v>24215</v>
@@ -6928,7 +7627,7 @@
     </row>
     <row r="26" ht="14.25" spans="1:10">
       <c r="A26" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B26" s="2">
         <v>218615</v>
@@ -6960,7 +7659,7 @@
     </row>
     <row r="27" ht="14.25" spans="1:10">
       <c r="A27" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B27" s="2">
         <v>5078</v>
@@ -6992,7 +7691,7 @@
     </row>
     <row r="28" ht="24" spans="1:10">
       <c r="A28" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B28" s="2">
         <v>110433</v>
@@ -7024,7 +7723,7 @@
     </row>
     <row r="29" ht="14.25" spans="1:10">
       <c r="A29" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B29" s="2">
         <v>3021</v>
@@ -7056,7 +7755,7 @@
     </row>
     <row r="30" ht="14.25" spans="1:10">
       <c r="A30" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B30" s="2">
         <v>3653</v>
@@ -7088,7 +7787,7 @@
     </row>
     <row r="31" ht="14.25" spans="1:10">
       <c r="A31" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B31" s="2">
         <v>212267</v>
@@ -7120,7 +7819,7 @@
     </row>
     <row r="32" ht="24" spans="1:10">
       <c r="A32" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B32" s="2">
         <v>46046</v>
@@ -7152,7 +7851,7 @@
     </row>
     <row r="33" ht="14.25" spans="1:10">
       <c r="A33" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B33" s="2">
         <v>159088</v>
@@ -7184,7 +7883,7 @@
     </row>
     <row r="34" ht="14.25" spans="1:10">
       <c r="A34" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B34" s="3">
         <v>0</v>
@@ -7225,7 +7924,7 @@
   <sheetPr/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
@@ -7233,28 +7932,28 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>13</v>
@@ -7262,7 +7961,7 @@
     </row>
     <row r="2" ht="24.75" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2">
         <v>6010</v>
@@ -7291,7 +7990,7 @@
     </row>
     <row r="3" ht="14.25" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2">
         <v>6740</v>
@@ -7320,7 +8019,7 @@
     </row>
     <row r="4" ht="14.25" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -7349,7 +8048,7 @@
     </row>
     <row r="5" ht="24.75" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2">
         <v>6462</v>
@@ -7378,7 +8077,7 @@
     </row>
     <row r="6" ht="24.75" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2">
         <v>4468</v>
@@ -7407,7 +8106,7 @@
     </row>
     <row r="7" ht="24.75" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B7" s="2">
         <v>4685</v>
@@ -7436,7 +8135,7 @@
     </row>
     <row r="8" ht="24.75" spans="1:9">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2">
         <v>4348</v>
@@ -7465,7 +8164,7 @@
     </row>
     <row r="9" ht="24" spans="1:9">
       <c r="A9" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2">
         <v>22089</v>
@@ -7494,7 +8193,7 @@
     </row>
     <row r="10" ht="24.75" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="2">
         <v>5042</v>
@@ -7523,7 +8222,7 @@
     </row>
     <row r="11" ht="24.75" spans="1:9">
       <c r="A11" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="2">
         <v>6917</v>
@@ -7552,7 +8251,7 @@
     </row>
     <row r="12" ht="24.75" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="2">
         <v>6400</v>
@@ -7581,7 +8280,7 @@
     </row>
     <row r="13" ht="24.75" spans="1:9">
       <c r="A13" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="2">
         <v>5347</v>
@@ -7610,7 +8309,7 @@
     </row>
     <row r="14" ht="14.25" spans="1:9">
       <c r="A14" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="2">
         <v>19413</v>
@@ -7639,7 +8338,7 @@
     </row>
     <row r="15" ht="14.25" spans="1:9">
       <c r="A15" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" s="2">
         <v>5181</v>
@@ -7668,7 +8367,7 @@
     </row>
     <row r="16" ht="14.25" spans="1:9">
       <c r="A16" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B16" s="2">
         <v>2782</v>
@@ -7697,7 +8396,7 @@
     </row>
     <row r="17" ht="14.25" spans="1:9">
       <c r="A17" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -7726,7 +8425,7 @@
     </row>
     <row r="18" ht="14.25" spans="1:9">
       <c r="A18" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B18" s="2">
         <v>36543</v>
@@ -7755,7 +8454,7 @@
     </row>
     <row r="19" ht="14.25" spans="1:9">
       <c r="A19" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B19" s="2">
         <v>30204</v>
@@ -7784,7 +8483,7 @@
     </row>
     <row r="20" ht="14.25" spans="1:9">
       <c r="A20" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B20" s="2">
         <v>109</v>
@@ -7813,7 +8512,7 @@
     </row>
     <row r="21" ht="14.25" spans="1:9">
       <c r="A21" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B21" s="2">
         <v>20533</v>
@@ -7842,7 +8541,7 @@
     </row>
     <row r="22" ht="14.25" spans="1:9">
       <c r="A22" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B22" s="2">
         <v>41280</v>
@@ -7871,7 +8570,7 @@
     </row>
     <row r="23" ht="14.25" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B23" s="2">
         <v>1211</v>
@@ -7900,7 +8599,7 @@
     </row>
     <row r="24" ht="24" spans="1:9">
       <c r="A24" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B24" s="2">
         <v>58640</v>
@@ -7929,7 +8628,7 @@
     </row>
     <row r="25" ht="24" spans="1:9">
       <c r="A25" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B25" s="2">
         <v>24676</v>
@@ -7958,7 +8657,7 @@
     </row>
     <row r="26" ht="14.25" spans="1:9">
       <c r="A26" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B26" s="2">
         <v>303869</v>
@@ -7987,7 +8686,7 @@
     </row>
     <row r="27" ht="14.25" spans="1:9">
       <c r="A27" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B27" s="2">
         <v>7339</v>
@@ -8016,7 +8715,7 @@
     </row>
     <row r="28" ht="24" spans="1:9">
       <c r="A28" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B28" s="2">
         <v>133800</v>
@@ -8045,7 +8744,7 @@
     </row>
     <row r="29" ht="14.25" spans="1:9">
       <c r="A29" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B29" s="2">
         <v>1876</v>
@@ -8074,7 +8773,7 @@
     </row>
     <row r="30" ht="14.25" spans="1:9">
       <c r="A30" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B30" s="2">
         <v>2756</v>
@@ -8103,7 +8802,7 @@
     </row>
     <row r="31" ht="14.25" spans="1:9">
       <c r="A31" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B31" s="2">
         <v>135210</v>
@@ -8132,7 +8831,7 @@
     </row>
     <row r="32" ht="24" spans="1:9">
       <c r="A32" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B32" s="2">
         <v>61337</v>
@@ -8161,7 +8860,7 @@
     </row>
     <row r="33" ht="14.25" spans="1:9">
       <c r="A33" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B33" s="2">
         <v>154555</v>
@@ -8190,7 +8889,7 @@
     </row>
     <row r="34" ht="14.25" spans="1:9">
       <c r="A34" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B34" s="3">
         <v>0</v>
